--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.505</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.137</v>
+        <v>17.113</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6568133704.034</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2326243.098</v>
+        <v>30.898</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.977</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038</v>
+        <v>7.959</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1838415.818417594</v>
+        <v>25.73664452944555</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1016289.705132204</v>
+        <v>25.75347282104346</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1229490.713557139</v>
+        <v>25.76027768141373</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4140663.811280973</v>
+        <v>25.69365025270185</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-884224.6521976045</v>
+        <v>25.76606741813587</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-914474.6221921846</v>
+        <v>25.76802137036123</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-3893321.267273767</v>
+        <v>25.70812997813913</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>118059.5532949204</v>
+        <v>25.79874279618801</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>70690.16405936767</v>
+        <v>25.79866161699955</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>225263.8639077013</v>
+        <v>25.81082402930713</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>888050.0859000748</v>
+        <v>25.82541938515275</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1266016.343515065</v>
+        <v>25.83500438890429</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1449413.016885184</v>
+        <v>25.74249975951911</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>160003.1992982642</v>
+        <v>25.81272544581263</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-318128.895639884</v>
+        <v>25.83112806662526</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-750105.8760304214</v>
+        <v>25.75343850711377</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>969511.6706583119</v>
+        <v>25.82037858304984</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1486527.252375012</v>
+        <v>25.83727430822068</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1733644.760958557</v>
+        <v>25.70550504614939</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>551862.0162238837</v>
+        <v>25.81052775771616</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1681415.983984342</v>
+        <v>25.83392175878453</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1773807.40260741</v>
+        <v>25.72169383680435</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2785634.709046987</v>
+        <v>25.86861062793811</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3942501.750500842</v>
+        <v>25.90338559338858</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1906453.75202714</v>
+        <v>25.91205986290209</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2630457.200694235</v>
+        <v>25.9547666806147</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3144064.444825566</v>
+        <v>25.97821854105192</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-442510.4829130684</v>
+        <v>25.76622987201792</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3039752.040965025</v>
+        <v>25.94790809996345</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3215544.014333621</v>
+        <v>25.98010856612345</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>184353.2731255789</v>
+        <v>25.77460696243499</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1698598.055044658</v>
+        <v>25.85699997107099</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1844669.659687201</v>
+        <v>25.87576184274202</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1176094.957091509</v>
+        <v>25.7148969535161</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1020989.417206507</v>
+        <v>25.85932309666944</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1552314.315923018</v>
+        <v>25.88422689541479</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-821958.7059503058</v>
+        <v>25.7390084889742</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3606778.293410057</v>
+        <v>25.93798087021332</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3614362.150536633</v>
+        <v>25.97544195849638</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2914330.174012166</v>
+        <v>26.05367082906927</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3360282.666502152</v>
+        <v>26.08698600417581</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3506340.598135329</v>
+        <v>26.11906762203922</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>541205.5411625132</v>
+        <v>25.82634448704873</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3359180.957720165</v>
+        <v>26.05936520708184</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3375482.484002103</v>
+        <v>26.09596988600397</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2410302.629520461</v>
+        <v>25.73446075724722</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1813407.040274178</v>
+        <v>25.810705296927</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1670533.679201767</v>
+        <v>25.82241447657648</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2818481.714493084</v>
+        <v>25.70503281133161</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1962136.181470257</v>
+        <v>25.83688959149045</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2044045.548141781</v>
+        <v>25.8469478882954</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2987919.378870564</v>
+        <v>25.71832959082264</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4543093.16033594</v>
+        <v>25.9000768446352</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4549467.304264005</v>
+        <v>25.90182307500983</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2799061.377571856</v>
+        <v>25.90959943584758</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3284415.099239937</v>
+        <v>25.93503003098202</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3380868.854016774</v>
+        <v>25.94648223702844</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-1458975.421387047</v>
+        <v>25.75293046856822</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2892474.851670074</v>
+        <v>25.91475255432093</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2944193.293782657</v>
+        <v>25.93591406617334</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1124620.542881026</v>
+        <v>25.72198351852684</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1027779.836412446</v>
+        <v>25.83957341877751</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1367534.112826288</v>
+        <v>25.85668406527085</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1429360.73158214</v>
+        <v>25.68472623045304</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>685638.4551425459</v>
+        <v>25.83911772557279</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1228830.039768676</v>
+        <v>25.86906700634013</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1420827.822372389</v>
+        <v>25.69489521935873</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2463125.720316368</v>
+        <v>25.92670398130495</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3456235.152054894</v>
+        <v>25.96095036412606</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1592758.886568669</v>
+        <v>25.95752041162338</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2149955.167188005</v>
+        <v>26.01134403967537</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2293536.001989691</v>
+        <v>26.02939119165675</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-853309.2158429937</v>
+        <v>25.73782656653279</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2097224.806316158</v>
+        <v>26.01263213186644</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2321468.498717499</v>
+        <v>26.03428837657522</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-942268.4773168017</v>
+        <v>25.72757283770939</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1137207.259676596</v>
+        <v>25.87347656940435</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1239858.126311072</v>
+        <v>25.89415069625568</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1234659.850728617</v>
+        <v>25.6773609036856</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1099739.284893969</v>
+        <v>25.88731934742183</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1423527.00495654</v>
+        <v>25.91867291175065</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1227761.234570281</v>
+        <v>25.69303487699691</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2910812.094619141</v>
+        <v>25.99780389290446</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3329619.269464375</v>
+        <v>26.03677767642175</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2213403.311839312</v>
+        <v>26.09932517988658</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2631883.253635505</v>
+        <v>26.15775259850958</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2599239.750838747</v>
+        <v>26.18228236786759</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-680151.3875620096</v>
+        <v>25.77634848264815</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2311489.722552741</v>
+        <v>26.12956507124393</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2364318.109647669</v>
+        <v>26.15958672132054</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>916639.1325674745</v>
+        <v>25.76427378977511</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2291389.682986374</v>
+        <v>25.81598476969432</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2382603.77239613</v>
+        <v>25.8215918429375</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-2240376.732771051</v>
+        <v>25.71620541462051</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1996975.664967591</v>
+        <v>25.83653140964665</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>2002391.81911654</v>
+        <v>25.83792206233649</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2280244.45689067</v>
+        <v>25.73806898819539</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4721322.998663112</v>
+        <v>25.90141053445131</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4150427.364803714</v>
+        <v>25.89335036606776</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2798515.049048834</v>
+        <v>25.91504075633177</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3687891.669246635</v>
+        <v>25.94258172325706</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3515788.065710891</v>
+        <v>25.9416532660826</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15074.0095987619</v>
+        <v>25.79127477480022</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2842344.512309097</v>
+        <v>25.9105837141712</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2856430.968719735</v>
+        <v>25.9242567917409</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-129896.2704479955</v>
+        <v>25.76766143146071</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1424119.782354042</v>
+        <v>25.86407749353869</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1576374.966069899</v>
+        <v>25.87251194381439</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1296965.316511276</v>
+        <v>25.70206810334295</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1004386.930863649</v>
+        <v>25.85714464016202</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1317658.550383588</v>
+        <v>25.87416266830849</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1294054.710744584</v>
+        <v>25.7245048505456</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2852160.265899456</v>
+        <v>25.94638368621027</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3482274.090929765</v>
+        <v>25.96683609256835</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1785642.719157733</v>
+        <v>25.98116753598913</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2379364.088916374</v>
+        <v>26.02860181208937</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2346758.891520612</v>
+        <v>26.03392943176297</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26670.4858483206</v>
+        <v>25.79281934328654</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2233043.789290598</v>
+        <v>26.02030532419842</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2243595.884102552</v>
+        <v>26.03266537859122</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>393484.5292608166</v>
+        <v>25.77134166908906</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1526654.460709801</v>
+        <v>25.89602147319587</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1509919.780894874</v>
+        <v>25.90451739801868</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1022106.348128359</v>
+        <v>25.69554272671309</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1373327.996582501</v>
+        <v>25.91136228773517</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1487194.150361589</v>
+        <v>25.9233227093817</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-998841.954392974</v>
+        <v>25.72299906848389</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3018090.451028663</v>
+        <v>26.02024555624597</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3142607.071222994</v>
+        <v>26.04016861310011</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2384473.890676838</v>
+        <v>26.12950983215667</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2587858.170134427</v>
+        <v>26.17559811852052</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2654299.864288495</v>
+        <v>26.18693208222471</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>339257.3871694602</v>
+        <v>25.84455382787298</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2437573.281285175</v>
+        <v>26.14612741226552</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2378093.717245276</v>
+        <v>26.16299515181839</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-1725225.304113149</v>
+        <v>25.74959814827206</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-768406.1370842948</v>
+        <v>25.76621683332991</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-728603.112830559</v>
+        <v>25.77048278523293</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-3831594.676066921</v>
+        <v>25.70523293810798</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-709703.2347261268</v>
+        <v>25.77615914565888</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-426344.7128590512</v>
+        <v>25.77981059819814</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-3436424.225742792</v>
+        <v>25.7223282519843</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>587695.1051108299</v>
+        <v>25.80654274431457</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>628616.736960937</v>
+        <v>25.80652810979295</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>819871.2940047112</v>
+        <v>25.82035211934532</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1215029.657863977</v>
+        <v>25.83202723719559</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1769293.340020367</v>
+        <v>25.84651288857822</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3669513.128608097</v>
+        <v>25.79173310115546</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4241940.453857956</v>
+        <v>25.86028685397215</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3496065.773386322</v>
+        <v>25.87009915969942</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-1094492.77488009</v>
+        <v>25.76017461090052</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1094934.866552468</v>
+        <v>25.82196683706817</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1637300.500151313</v>
+        <v>25.83531256420708</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1692641.086999148</v>
+        <v>25.71610823873474</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1080620.685132101</v>
+        <v>25.81444639130036</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2044456.907523304</v>
+        <v>25.84156465706683</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1062884.456798504</v>
+        <v>25.72890074124803</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3293470.951627573</v>
+        <v>25.86160867056382</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4166077.782277586</v>
+        <v>25.89598955076386</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1861079.458790607</v>
+        <v>25.89208098555721</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>2513193.591273711</v>
+        <v>25.9311833890715</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>2797468.658927686</v>
+        <v>25.96286121880558</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-563382.9068966822</v>
+        <v>25.78763837108918</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>2605639.606466045</v>
+        <v>25.96427070321108</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2974940.313671933</v>
+        <v>25.9812713917796</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>86484.79520510595</v>
+        <v>25.78950160791499</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1493038.068819492</v>
+        <v>25.86562485357546</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1632432.575795989</v>
+        <v>25.88039847795778</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1160165.438915216</v>
+        <v>25.73144148482486</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1160754.57261043</v>
+        <v>25.86804707191387</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1680837.838855583</v>
+        <v>25.89680222479613</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-638195.4556132749</v>
+        <v>25.75404280619584</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3303122.396280315</v>
+        <v>25.93824589057661</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3721286.966985408</v>
+        <v>25.97589422826128</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2583931.822814946</v>
+        <v>26.03128915836431</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2728180.730503008</v>
+        <v>26.06398849991216</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3210591.77449443</v>
+        <v>26.10449213236341</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>632682.5417998029</v>
+        <v>25.85795603876627</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2919293.407236964</v>
+        <v>26.08246834209358</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3136081.481100691</v>
+        <v>26.10284223430198</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>43733.9707356155</v>
+        <v>25.7713642722516</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3330477.726955318</v>
+        <v>25.81491711358325</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2622771.838384132</v>
+        <v>25.81214807977836</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2761255.031058605</v>
+        <v>25.72510014564419</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2992871.654965975</v>
+        <v>25.83314557512445</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3374909.247372556</v>
+        <v>25.8301515569404</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-2612079.3100642</v>
+        <v>25.74695977394965</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>7753696.200030385</v>
+        <v>25.88222719486759</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>5917751.615694131</v>
+        <v>25.87112366906092</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3330409.806011846</v>
+        <v>25.87946959299143</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4823949.41084325</v>
+        <v>25.89918972992267</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5086782.483320569</v>
+        <v>25.90013609238683</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-657079.1486761899</v>
+        <v>25.79633049087472</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-2190026.854815707</v>
+        <v>25.87972013056829</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-2197267.534681266</v>
+        <v>25.88333472364651</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>473564.2206521098</v>
+        <v>25.79275140389604</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>2201793.982328541</v>
+        <v>25.87802298649696</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2067097.480733787</v>
+        <v>25.87684740006176</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1661244.593002071</v>
+        <v>25.73539801776765</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1550115.928171492</v>
+        <v>25.87132314166798</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>2171327.330418886</v>
+        <v>25.88323783430964</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1335965.609541278</v>
+        <v>25.75964057881822</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4381292.295828763</v>
+        <v>25.94591803650634</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>4412832.552187977</v>
+        <v>25.96005276801828</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2757236.671560331</v>
+        <v>25.98693252969585</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3325021.147634236</v>
+        <v>26.02860628652288</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3441594.486164968</v>
+        <v>26.03723921281856</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>914057.3967944165</v>
+        <v>25.84825309011464</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>3233153.302468475</v>
+        <v>26.03340816954207</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>763305.4085659111</v>
+        <v>25.79674655973466</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2206979.837868835</v>
+        <v>25.89864687830112</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2076058.905762309</v>
+        <v>25.902072528391</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-1294072.804230232</v>
+        <v>25.72338029075002</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1404430.591529539</v>
+        <v>25.90045475213779</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1804011.508317888</v>
+        <v>25.91467866572327</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-1147738.847354455</v>
+        <v>25.75276394090341</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3843109.752238813</v>
+        <v>25.9947884088389</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>4142179.393798812</v>
+        <v>26.01524465878531</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3191641.196323656</v>
+        <v>26.09410769438016</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3312154.704466305</v>
+        <v>26.13042034064728</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>3496898.33333343</v>
+        <v>26.14914547728828</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1391154.093618158</v>
+        <v>25.87483710030014</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3280704.168652222</v>
+        <v>26.11426605912382</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3385633.362599497</v>
+        <v>26.12623858642915</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-314501.5854384032</v>
+        <v>25.7439258251411</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>997517.9817875299</v>
+        <v>25.821609068574</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1132606.117386103</v>
+        <v>25.83028179733585</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1549046.714695388</v>
+        <v>25.6948706827211</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1176335.786066202</v>
+        <v>25.8584995973534</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1273177.889990091</v>
+        <v>25.86622437069186</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-1512567.613081336</v>
+        <v>25.71145775571164</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3229290.583124766</v>
+        <v>25.94203535408709</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2864601.675496335</v>
+        <v>25.93057264584865</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1562587.948744545</v>
+        <v>25.90359015810621</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2000700.933035701</v>
+        <v>25.93409091863166</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2100784.288851594</v>
+        <v>25.94303201545785</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-697338.6479633021</v>
+        <v>25.74053391169149</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-1132815.876457764</v>
+        <v>25.87842478548457</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1165884.438227715</v>
+        <v>25.88437607398612</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-29383.09599726224</v>
+        <v>25.76957873783607</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1140116.624089575</v>
+        <v>25.91501152580242</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>1120781.270346693</v>
+        <v>25.92501336080792</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-835856.2692146642</v>
+        <v>25.68500315219734</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>806297.70525947</v>
+        <v>25.89916982487001</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>892862.7175688097</v>
+        <v>25.92935746474827</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-823711.0702453627</v>
+        <v>25.70889157540922</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2027835.806395859</v>
+        <v>26.02679897032928</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2154739.627204933</v>
+        <v>26.0478111672659</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1179152.874834231</v>
+        <v>26.04905358611928</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1535574.589358057</v>
+        <v>26.11260835002605</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1614437.244135696</v>
+        <v>26.13267403299141</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>39867.17103645969</v>
+        <v>25.80162694060494</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1560706.706408177</v>
+        <v>26.12224634606718</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1597324.172043253</v>
+        <v>26.12851270601874</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>10194.29978939068</v>
+        <v>25.77716617676376</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>978061.1104942872</v>
+        <v>25.94565038796988</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>1010312.179532067</v>
+        <v>25.96186063698153</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-654283.1689246561</v>
+        <v>25.66397226232994</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>734826.8778829345</v>
+        <v>25.93334765387175</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>896136.0467578417</v>
+        <v>25.96565992542801</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-645828.2386133783</v>
+        <v>25.69087168717544</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1811567.502888877</v>
+        <v>26.08717511343991</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1945042.006526168</v>
+        <v>26.11451139873375</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1302842.706267864</v>
+        <v>26.19909660393018</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1529279.722218253</v>
+        <v>26.26152017550364</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1597629.874929563</v>
+        <v>26.2751789218387</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>85708.93368456667</v>
+        <v>25.82486643257852</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1454422.109478818</v>
+        <v>26.226492587295</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1430796.157959674</v>
+        <v>26.23591823324601</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1299948.739373576</v>
+        <v>25.70268976343176</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1083162.221071126</v>
+        <v>25.71773916819439</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-1011938.204749686</v>
+        <v>25.72509020958691</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-2006918.247917187</v>
+        <v>25.65580076887124</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-663428.5093487172</v>
+        <v>25.74487560435801</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-638924.2767969562</v>
+        <v>25.74198231429072</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-2019789.281410285</v>
+        <v>25.66660722816777</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-327940.1187000133</v>
+        <v>25.78184220229273</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-266191.817901551</v>
+        <v>25.77549375048279</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>118842.7901600534</v>
+        <v>25.80276086987013</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>533855.8369738456</v>
+        <v>25.82814905495182</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>521150.0766226936</v>
+        <v>25.82948125703822</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-809590.8282495524</v>
+        <v>25.703782835357</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-143528.1139840751</v>
+        <v>25.78434447242618</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-320367.8212497522</v>
+        <v>25.79933617922036</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-623969.5014966521</v>
+        <v>25.71613803446774</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>156062.7086396129</v>
+        <v>25.80877549769554</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>389915.7692183806</v>
+        <v>25.83382032257159</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-914499.8586781895</v>
+        <v>25.66758190612659</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>66844.26479361265</v>
+        <v>25.81585658045352</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>457565.6550893045</v>
+        <v>25.84968816076235</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-912674.7469075668</v>
+        <v>25.67913580156132</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>857246.5973407989</v>
+        <v>25.88901613781574</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1287245.449322607</v>
+        <v>25.93086582542844</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>557187.4278393304</v>
+        <v>25.93344232962529</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>831837.7323834804</v>
+        <v>25.98637423929375</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>950422.9005244185</v>
+        <v>26.00124489203761</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-326079.3297365435</v>
+        <v>25.72475350713805</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>850897.3894106811</v>
+        <v>25.96896284677197</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>939825.6669223101</v>
+        <v>26.00167522665879</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-240597.819466425</v>
+        <v>25.74211156890162</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>416147.0153289496</v>
+        <v>25.86195695439725</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>643165.5112657844</v>
+        <v>25.88739490877709</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-641858.3527719233</v>
+        <v>25.67659813124216</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>483099.9131099086</v>
+        <v>25.89454458002631</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>774243.2886588771</v>
+        <v>25.92096175917408</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-563232.218918087</v>
+        <v>25.70255123692139</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1384101.857287098</v>
+        <v>25.99476159061827</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1522608.754067148</v>
+        <v>26.03421822587396</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1186275.740788337</v>
+        <v>26.15024758403957</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1389357.66041744</v>
+        <v>26.19877567760964</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1416745.003318482</v>
+        <v>26.21171149516926</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>139789.8711137158</v>
+        <v>25.83881531998789</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1282140.194035264</v>
+        <v>26.15549420016664</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1410158.047908555</v>
+        <v>26.1944821335983</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-2249907.219355662</v>
+        <v>25.71037653259588</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-1498375.035686465</v>
+        <v>25.71733355930108</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-1709116.496911247</v>
+        <v>25.72578251540852</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-3293157.083223452</v>
+        <v>25.67371907730831</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1212539.372600862</v>
+        <v>25.73425037455711</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-1066287.152973553</v>
+        <v>25.74230328934181</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-3396852.426427634</v>
+        <v>25.67406716741399</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-1079524.409089255</v>
+        <v>25.75837074637552</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-1194922.02478741</v>
+        <v>25.75980318993792</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-875373.8645412404</v>
+        <v>25.75803727023587</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-181964.0834574528</v>
+        <v>25.78156823170056</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-369506.2675134856</v>
+        <v>25.79304696609203</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1438265.534833533</v>
+        <v>25.70340151412724</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-906153.8191887229</v>
+        <v>25.75587989044459</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-1459521.973339897</v>
+        <v>25.75877300830661</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1878523.930713786</v>
+        <v>25.67620840165686</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1375489.708299511</v>
+        <v>25.71380664988555</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-1032546.908311082</v>
+        <v>25.73516695250013</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-2026173.609361824</v>
+        <v>25.64452903001312</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1116553.763011304</v>
+        <v>25.7160156265377</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-667173.3332496489</v>
+        <v>25.74741955061361</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-2215736.646137173</v>
+        <v>25.638611690387</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-703979.5721310928</v>
+        <v>25.75531006032026</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34233.40855299396</v>
+        <v>25.79731013339594</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-760352.3855971558</v>
+        <v>25.77806251384302</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>287973.127253831</v>
+        <v>25.83189290564473</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>681283.4501395768</v>
+        <v>25.86994699858493</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1282406.744445158</v>
+        <v>25.66705123438287</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-153144.3648909162</v>
+        <v>25.81312704510491</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-385113.5480814032</v>
+        <v>25.82486738445021</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-1314266.399211494</v>
+        <v>25.68802631765833</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-617690.7224564417</v>
+        <v>25.74158681565048</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>252156.4190301041</v>
+        <v>25.78013456702519</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1576872.489402028</v>
+        <v>25.64799693839329</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-484621.7575036442</v>
+        <v>25.76026303334888</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>441341.4870948872</v>
+        <v>25.80942058400485</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-1592215.48513005</v>
+        <v>25.64695490895051</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>172742.2094660041</v>
+        <v>25.82031196671473</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2220844.266226818</v>
+        <v>25.88197118613446</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-237502.178523756</v>
+        <v>25.91428915039</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1132474.952811746</v>
+        <v>25.96777176613974</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1774522.489436001</v>
+        <v>26.02686475452627</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-834347.4910576567</v>
+        <v>25.71153585672165</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>523924.1017429489</v>
+        <v>25.91600139022828</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>951259.5572800154</v>
+        <v>25.94325005223919</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-837918.3153424232</v>
+        <v>25.74555933139198</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-169192.6916884984</v>
+        <v>25.80474792847312</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>846704.843010857</v>
+        <v>25.82772479044656</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1685024.78680292</v>
+        <v>25.70852693963992</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1698755.389066182</v>
+        <v>25.86664746152903</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1766159.639489773</v>
+        <v>25.8737910062405</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-1519544.368774817</v>
+        <v>25.73328643966582</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>3516175.981794838</v>
+        <v>25.93888242893905</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3568828.943110444</v>
+        <v>25.93645430007226</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>2258368.102729617</v>
+        <v>25.94785721505465</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>2799569.491567789</v>
+        <v>25.973051594246</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2593521.069356706</v>
+        <v>25.97805846135546</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>940264.8228883278</v>
+        <v>25.81677971409572</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>2214745.789644431</v>
+        <v>25.94543502939274</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>2879854.217225541</v>
+        <v>25.9833760667401</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-414666.53505926</v>
+        <v>25.72521521328131</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>571530.3271788222</v>
+        <v>25.83213858652025</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>686830.3194603615</v>
+        <v>25.84904491484135</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-1041710.414763553</v>
+        <v>25.64784855628961</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>447246.9703798717</v>
+        <v>25.83381521040264</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>592315.0655170352</v>
+        <v>25.85222339935949</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-996492.5218066063</v>
+        <v>25.67551662418649</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1629114.960016053</v>
+        <v>25.94364806409818</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1935754.693085079</v>
+        <v>25.9641529859018</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>985966.9777922671</v>
+        <v>25.96084548038973</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1263558.64272744</v>
+        <v>26.00492513092429</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1291172.790800651</v>
+        <v>26.01639342015033</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>79133.43859255135</v>
+        <v>25.76295743603072</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1398025.401442257</v>
+        <v>26.02275089224338</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1348679.015940158</v>
+        <v>26.03561638330488</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-239518.5920795339</v>
+        <v>25.73875264788314</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>525951.2568794686</v>
+        <v>25.86972659251533</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>716651.493342484</v>
+        <v>25.89451575610043</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-755697.1359896357</v>
+        <v>25.65920732255066</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>739601.8270907761</v>
+        <v>25.90249945907564</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>884508.9055628503</v>
+        <v>25.92351190823106</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-709111.8274633259</v>
+        <v>25.68758700906393</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1908308.769374194</v>
+        <v>26.03439772487696</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>2083885.296928381</v>
+        <v>26.06119601896641</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1418564.54305559</v>
+        <v>26.14268829823763</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1598715.454921915</v>
+        <v>26.18917576255074</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1639355.752074363</v>
+        <v>26.19377736670086</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>249520.0296455562</v>
+        <v>25.8260885252553</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1595890.715200363</v>
+        <v>26.16829659524486</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1608063.419365963</v>
+        <v>26.19562358858651</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-2214736.294306223</v>
+        <v>25.71137622626957</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1435367.423719349</v>
+        <v>25.72223800433098</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-1349036.413482175</v>
+        <v>25.73408906532397</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2637872.870072872</v>
+        <v>25.67461680273275</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1316916.990730306</v>
+        <v>25.72902224539844</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1062771.430139377</v>
+        <v>25.73803076986311</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2771839.232551053</v>
+        <v>25.68444668600731</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-719762.7917697133</v>
+        <v>25.7664506771395</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-588647.8738944978</v>
+        <v>25.76864801864354</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-278078.6426958739</v>
+        <v>25.77447593380208</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31818.08056557866</v>
+        <v>25.7895708576931</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>247995.3446961519</v>
+        <v>25.80375243079332</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-1636082.538055852</v>
+        <v>25.68923877969648</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-498901.3537523632</v>
+        <v>25.76245323145449</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-337216.4538139132</v>
+        <v>25.7776264170691</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1190892.062518705</v>
+        <v>25.70208245223393</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-217092.0504877872</v>
+        <v>25.76879825331095</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>118235.059761901</v>
+        <v>25.79696528207762</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1255059.276648015</v>
+        <v>25.67349647610791</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-218446.7450312301</v>
+        <v>25.76468057547332</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>208017.6551034449</v>
+        <v>25.80360091368082</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-1287684.234964965</v>
+        <v>25.68219487412207</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>658963.0733288886</v>
+        <v>25.82435229073436</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1151089.328568255</v>
+        <v>25.8687899482901</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>350234.3820568793</v>
+        <v>25.83566858550721</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>607806.8138187908</v>
+        <v>25.88384079615132</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>794295.3311162917</v>
+        <v>25.90933482527673</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-759131.8323597701</v>
+        <v>25.67908369329819</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>613974.9745040006</v>
+        <v>25.86424761416311</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>802632.5589640324</v>
+        <v>25.9018853479601</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-462552.988242284</v>
+        <v>25.73631324802517</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>371471.9783810865</v>
+        <v>25.82338238251621</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>671010.244668947</v>
+        <v>25.85495000968807</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-722857.8731883354</v>
+        <v>25.6951319863227</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>399583.1529125362</v>
+        <v>25.83728504115619</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>755340.5973512299</v>
+        <v>25.87729327401251</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-441889.542924915</v>
+        <v>25.71529236056715</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1368975.822101297</v>
+        <v>25.91927488911349</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1797515.288919581</v>
+        <v>25.96810804833279</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1155096.371455088</v>
+        <v>26.01434158107548</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1425689.359720049</v>
+        <v>26.05658373792289</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1738529.41994835</v>
+        <v>26.11087400937813</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-84552.65213323406</v>
+        <v>25.78393270966592</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1259276.232719685</v>
+        <v>26.02507891548407</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1464994.504124135</v>
+        <v>26.07455914483343</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2792161.480091488</v>
+        <v>25.68352476816446</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-2663307.774556532</v>
+        <v>25.71342732455093</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2531028.741471571</v>
+        <v>25.71723829528606</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3173332.17792406</v>
+        <v>25.63389990812645</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2036126.986352762</v>
+        <v>25.71970738504701</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1669324.959172162</v>
+        <v>25.72463872110599</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-3511913.243445428</v>
+        <v>25.63934195724667</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-2188695.416858409</v>
+        <v>25.76936554462023</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-1922180.966902712</v>
+        <v>25.76288504556985</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1299689.428303469</v>
+        <v>25.75635679985222</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-1052564.263800478</v>
+        <v>25.77349096595111</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-675084.7095615515</v>
+        <v>25.7731286158341</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-2108752.05186684</v>
+        <v>25.65706438044886</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1597141.843718518</v>
+        <v>25.743776673597</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1411189.542957793</v>
+        <v>25.74825644300014</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-604723.6117720901</v>
+        <v>25.74271179979166</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>540261.0364286005</v>
+        <v>25.82237330416707</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>746378.0220915033</v>
+        <v>25.83324531793067</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-1238468.908634125</v>
+        <v>25.68894100675178</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>376199.1866320578</v>
+        <v>25.81699746199635</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>701817.5647660426</v>
+        <v>25.84108998700716</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-1242893.166225322</v>
+        <v>25.69512859027279</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1614720.372661163</v>
+        <v>25.88904437226348</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>2237639.435113336</v>
+        <v>25.91537026700336</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1084528.852899836</v>
+        <v>25.92355870824058</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1432868.798674426</v>
+        <v>25.96606974761683</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1462410.35596619</v>
+        <v>25.97175688729766</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-298219.1492015196</v>
+        <v>25.75358310198994</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1396577.602341688</v>
+        <v>25.96325429949495</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1437188.153832905</v>
+        <v>25.97580150064448</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-107916.3271543477</v>
+        <v>25.76121328913948</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>966861.5530512587</v>
+        <v>25.86971299080998</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1153238.336876728</v>
+        <v>25.88271569745877</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-930979.7740383414</v>
+        <v>25.68855239445757</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1036966.348988097</v>
+        <v>25.87910600711362</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1246837.540308942</v>
+        <v>25.89944049437457</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-937348.0756269681</v>
+        <v>25.70146986171577</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>2253735.23270997</v>
+        <v>25.97187396604746</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>2436855.036805559</v>
+        <v>25.99954230158243</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1848756.352327902</v>
+        <v>26.07853114051275</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2169759.415548901</v>
+        <v>26.12344555892596</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>2119367.589020316</v>
+        <v>26.13834442212803</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11344.62030379621</v>
+        <v>25.81186929478927</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1991228.401475219</v>
+        <v>26.09933840021953</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1841168.989565792</v>
+        <v>26.11134800053716</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-1874897.140313012</v>
+        <v>25.72692194916949</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-1242431.112486851</v>
+        <v>25.73655931573987</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1238367.676939297</v>
+        <v>25.74614130057836</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-3154638.983651589</v>
+        <v>25.68329751353569</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1177125.06061593</v>
+        <v>25.7399291921605</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-1060185.284659119</v>
+        <v>25.74775033990814</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-2961029.385059899</v>
+        <v>25.69620208859959</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-447019.7955648217</v>
+        <v>25.77750708603223</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-540172.7346547954</v>
+        <v>25.7818116542143</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-63546.14851776847</v>
+        <v>25.78349328397117</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>382193.4314274253</v>
+        <v>25.79893224493388</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>606697.8147661029</v>
+        <v>25.80117438251602</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1225880.274309282</v>
+        <v>25.72855431913403</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-142475.3605959995</v>
+        <v>25.77915471037368</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-4891.118971144157</v>
+        <v>25.78852679100246</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-1661104.167491883</v>
+        <v>25.68961194489566</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-1007524.061311825</v>
+        <v>25.72841327463644</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-414849.7511597818</v>
+        <v>25.75222536892889</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-1950017.999158691</v>
+        <v>25.65270124104946</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1045877.749630363</v>
+        <v>25.71970521983008</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-352792.4502531859</v>
+        <v>25.75493821494614</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-2084435.417067042</v>
+        <v>25.65524159919223</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-564582.2893656463</v>
+        <v>25.76897865112441</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>752882.7204245123</v>
+        <v>25.81349628359667</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-551407.2180667206</v>
+        <v>25.78490695155081</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>152301.2220938289</v>
+        <v>25.80890526999584</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>415476.7963666115</v>
+        <v>25.82398452219588</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-1072588.567163843</v>
+        <v>25.67522309613272</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-30478.34908155105</v>
+        <v>25.80795360820911</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>320175.5201239621</v>
+        <v>25.82779231969707</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-499116.9919438613</v>
+        <v>25.73944236886418</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>218552.0524642768</v>
+        <v>25.80317574415985</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>504306.4913007819</v>
+        <v>25.82465407658713</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-1267149.386862305</v>
+        <v>25.67502654673511</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>43104.725993174</v>
+        <v>25.79570695713978</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>416869.900342946</v>
+        <v>25.82416520004132</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1070953.517590983</v>
+        <v>25.7003409045043</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1219467.23489087</v>
+        <v>25.88181690846804</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1666315.798958695</v>
+        <v>25.92320559574887</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1019659.944803041</v>
+        <v>25.96520456221077</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1395722.432020278</v>
+        <v>25.99293348075486</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1490286.52666236</v>
+        <v>26.00546634715717</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>137875.4520386719</v>
+        <v>25.77970526507131</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1175515.133117707</v>
+        <v>25.97299403823108</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1266260.213674301</v>
+        <v>25.99101212667508</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-2697795.118157765</v>
+        <v>25.70415759891895</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-2325639.797476032</v>
+        <v>25.70132721625706</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2543188.088734616</v>
+        <v>25.6989768705799</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3173813.444989201</v>
+        <v>25.66901291191444</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2134023.728428478</v>
+        <v>25.70397079317573</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1981984.406893091</v>
+        <v>25.70388991917358</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3486553.107153095</v>
+        <v>25.66911333051225</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2191003.542085852</v>
+        <v>25.72442710106141</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-2249836.319001159</v>
+        <v>25.7186284425837</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1320837.362578413</v>
+        <v>25.71688701523777</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1258886.478313166</v>
+        <v>25.71935094741781</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-935951.6308714369</v>
+        <v>25.7182920269062</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1788694.934366687</v>
+        <v>25.68219234415422</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1365757.018299432</v>
+        <v>25.7129344526506</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1235114.704249234</v>
+        <v>25.71255464172989</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1831299.813720489</v>
+        <v>25.66355283025054</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1460103.653425465</v>
+        <v>25.68847824632062</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1405453.624867412</v>
+        <v>25.69232556611807</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1854818.632374354</v>
+        <v>25.63907837600308</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1377542.724569018</v>
+        <v>25.68433740071951</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1072963.017704367</v>
+        <v>25.70301422088021</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-2007380.754648167</v>
+        <v>25.62419909769583</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1282546.751798253</v>
+        <v>25.70864375769002</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-921938.2326299543</v>
+        <v>25.73235793676565</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-927370.347055593</v>
+        <v>25.70641043790672</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-789996.7981017609</v>
+        <v>25.71748549691321</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-674747.8612928719</v>
+        <v>25.72298948235871</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1339097.279211835</v>
+        <v>25.62393257382963</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-784682.1496167718</v>
+        <v>25.7308135368478</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-709697.6626429193</v>
+        <v>25.73386338861313</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-513734.6988627286</v>
+        <v>25.7273569127082</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-168830.9862838935</v>
+        <v>25.77250406277417</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-71806.75920064964</v>
+        <v>25.77540303918011</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-1188608.683474412</v>
+        <v>25.66730943169134</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-305187.557748883</v>
+        <v>25.76304273512329</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-61810.51513177279</v>
+        <v>25.77973441913185</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-958863.4389926333</v>
+        <v>25.67486379074269</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>336624.8004183986</v>
+        <v>25.82162939749882</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>511750.0744433305</v>
+        <v>25.84417604505274</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>537258.2893451839</v>
+        <v>25.88850827522139</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>558193.8671472245</v>
+        <v>25.89835999443909</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>679302.3518541934</v>
+        <v>25.90806981748439</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-118272.985232487</v>
+        <v>25.73691502318489</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>338310.082802143</v>
+        <v>25.89442743715759</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>472581.0319118744</v>
+        <v>25.90299153669908</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-816023.4935998523</v>
+        <v>25.76498286568924</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>810264.2822633001</v>
+        <v>25.78889676039562</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>870262.077028553</v>
+        <v>25.7994265216235</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-2504262.603852379</v>
+        <v>25.71281257315718</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>368329.6138088408</v>
+        <v>25.79460456977946</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>590318.4723452354</v>
+        <v>25.79912459106665</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-2215758.403966393</v>
+        <v>25.73201519931922</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1930669.218140217</v>
+        <v>25.83926100095206</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2202495.388029848</v>
+        <v>25.84011570875533</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1556373.06310114</v>
+        <v>25.86371393811288</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>2378502.703410241</v>
+        <v>25.87650591671861</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2673494.464511661</v>
+        <v>25.88362799152865</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>633231.8182046264</v>
+        <v>25.79831240882994</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2254651.063606293</v>
+        <v>25.88186956316402</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2822046.368744173</v>
+        <v>25.89631849278452</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1098109.576129631</v>
+        <v>25.72595012840092</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-174594.2430274875</v>
+        <v>25.78897656930501</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>48049.13658429591</v>
+        <v>25.8034004044572</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1838918.894651806</v>
+        <v>25.66432353264802</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-533616.6009537318</v>
+        <v>25.76228040470383</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-156022.8636552112</v>
+        <v>25.78165054379914</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1862419.303353985</v>
+        <v>25.68064358643485</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>700446.0691622568</v>
+        <v>25.83042818116406</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>972254.1681978874</v>
+        <v>25.86117754122303</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>585624.3185089043</v>
+        <v>25.8599638752516</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>890629.6816016258</v>
+        <v>25.89015519356894</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>937742.3342609437</v>
+        <v>25.90506007647155</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-279345.7625349172</v>
+        <v>25.7365461316604</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1163884.638321391</v>
+        <v>25.91471187603594</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1281160.426802971</v>
+        <v>25.92763435571093</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-67995.51966001104</v>
+        <v>25.77279410229561</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>789739.6121789964</v>
+        <v>25.8539255963112</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1143137.011900162</v>
+        <v>25.87502094455063</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-979621.7851073507</v>
+        <v>25.69636424859386</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>436378.4309290766</v>
+        <v>25.83983115097866</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>777836.8036103176</v>
+        <v>25.86401109662418</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-811547.1399583697</v>
+        <v>25.72389846267399</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>2006826.124396911</v>
+        <v>25.93414585870967</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>2291236.280831786</v>
+        <v>25.97243317039895</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1954750.524505799</v>
+        <v>26.04885039748912</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>2041261.720408299</v>
+        <v>26.07488782365604</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2089233.096246542</v>
+        <v>26.09594219780999</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>496945.5956594226</v>
+        <v>25.82398528494659</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1794223.569059541</v>
+        <v>26.0578105844853</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>2092448.432746573</v>
+        <v>26.0844750071395</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-1292116.790542654</v>
+        <v>25.7587117682546</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1388586.037897485</v>
+        <v>25.81243417515368</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1604186.190006588</v>
+        <v>25.82278704583916</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-2240549.176856059</v>
+        <v>25.7214669338576</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1937675.82317555</v>
+        <v>25.83053697364813</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>2043565.043777099</v>
+        <v>25.83808057230355</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-2130266.577441739</v>
+        <v>25.73969869135939</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4240935.903600405</v>
+        <v>25.88425606035461</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>4332932.926579423</v>
+        <v>25.88757944070106</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>3565201.384792601</v>
+        <v>25.91476943241696</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>3990086.811163625</v>
+        <v>25.93483493984187</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>4032554.767259815</v>
+        <v>25.93909096648235</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-587138.3337346573</v>
+        <v>25.7770301520709</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>3262253.123981719</v>
+        <v>25.90749241338403</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>3390022.591158446</v>
+        <v>25.9361161074569</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-937864.634078339</v>
+        <v>25.7293659164482</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>599823.1780909401</v>
+        <v>25.81719829113972</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>916542.7643928896</v>
+        <v>25.83420862254732</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-1435110.934247847</v>
+        <v>25.68643160389319</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>398615.2395756886</v>
+        <v>25.81332885893447</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>827993.7736888865</v>
+        <v>25.83898648167618</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-1505852.180834464</v>
+        <v>25.69555205687711</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1788753.186593811</v>
+        <v>25.88063213362931</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>2522132.758419657</v>
+        <v>25.91623398106859</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1239335.65254118</v>
+        <v>25.91229390651915</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1644260.353298142</v>
+        <v>25.95801667044256</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1614583.124311478</v>
+        <v>25.96176923907768</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-564920.3119585718</v>
+        <v>25.72537556959827</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1674378.109732173</v>
+        <v>25.94701139458873</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1851391.333675439</v>
+        <v>25.98197566696765</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-611864.0010965612</v>
+        <v>25.73731076443798</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>832627.9341990061</v>
+        <v>25.84944331700138</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1104724.240233032</v>
+        <v>25.87082382303311</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-1151886.555738904</v>
+        <v>25.68411091025093</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>835084.6811775599</v>
+        <v>25.86273619821589</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1152725.886167462</v>
+        <v>25.89002875324115</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-1238113.660177268</v>
+        <v>25.69748821266498</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2098770.879203021</v>
+        <v>25.94781765951343</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2679837.179353522</v>
+        <v>25.99090096945491</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1982710.982054633</v>
+        <v>26.04862198015609</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2252029.077318722</v>
+        <v>26.09734663055435</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2459777.422129338</v>
+        <v>26.12342399079467</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>-294576.5483436443</v>
+        <v>25.77421742180289</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1966645.592765753</v>
+        <v>26.06134728830794</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>2212071.629186416</v>
+        <v>26.10943805409469</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-836145.0539190467</v>
+        <v>25.75652792486061</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1310086.640657952</v>
+        <v>25.79343155570789</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1844546.261219234</v>
+        <v>25.80401091015892</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-3147944.682838172</v>
+        <v>25.72333638436647</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2957937.617269432</v>
+        <v>25.8241684283674</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>3090168.247265312</v>
+        <v>25.82774723141702</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-3078161.241350295</v>
+        <v>25.7384147951471</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>6211311.733367898</v>
+        <v>25.86606751448008</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>5879068.746849852</v>
+        <v>25.865917893804</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>4018973.45683931</v>
+        <v>25.87709188572711</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>4113783.355661314</v>
+        <v>25.88888118345896</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>4527449.000408153</v>
+        <v>25.89889295114206</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>1279608.114151391</v>
+        <v>25.78595666677726</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>3570976.560785282</v>
+        <v>25.88060197217979</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>4835295.726546569</v>
+        <v>25.90451477363577</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-378373.7387846338</v>
+        <v>25.74533180513069</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1096193.489649186</v>
+        <v>25.82362578166166</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1286768.620118931</v>
+        <v>25.83536716378439</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-2052364.747731668</v>
+        <v>25.6953711263695</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>616791.2776639629</v>
+        <v>25.82052396401618</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1223454.809248829</v>
+        <v>25.83629946321693</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-2208464.2953459</v>
+        <v>25.71098789079574</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2939724.417810527</v>
+        <v>25.88664092277221</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>3723343.615121542</v>
+        <v>25.91204512413405</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1941911.750421795</v>
+        <v>25.91880562703681</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2462876.563913248</v>
+        <v>25.95493563401245</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>2533287.887481201</v>
+        <v>25.97345514110141</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-72843.85268785617</v>
+        <v>25.76345355433233</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2770108.920344407</v>
+        <v>25.96169426106487</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>2886251.749925978</v>
+        <v>25.98410962932278</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-100404.1234365066</v>
+        <v>25.75576484563429</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1388554.694954427</v>
+        <v>25.85000687681217</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1529862.304754506</v>
+        <v>25.86575968192922</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1582473.756566172</v>
+        <v>25.69893040351524</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1095182.876075771</v>
+        <v>25.86194533897201</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1412208.41572605</v>
+        <v>25.88172324875659</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-1700903.080608213</v>
+        <v>25.71772376361715</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3315375.389509554</v>
+        <v>25.94673623513694</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3602999.367732632</v>
+        <v>25.97696686185116</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2838777.983812909</v>
+        <v>26.04649682424896</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>3149379.229002443</v>
+        <v>26.07771978126621</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>3253226.183773104</v>
+        <v>26.10240977144469</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>86888.58348294876</v>
+        <v>25.80162754190918</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2915376.373255974</v>
+        <v>26.05724952245837</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2992118.766326535</v>
+        <v>26.08701060701244</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-982883.0513526264</v>
+        <v>25.77193409866342</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1599210.606018697</v>
+        <v>25.79082544487283</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3204306.63928946</v>
+        <v>25.79589585663528</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-3768202.349101579</v>
+        <v>25.76912811610507</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8599561.462599184</v>
+        <v>25.83736241610666</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>8019664.113403854</v>
+        <v>25.8380801508434</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-4291142.154689031</v>
+        <v>25.76280188108176</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10968679.98417331</v>
+        <v>25.84343375331288</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>11012071.8201321</v>
+        <v>25.84289840742402</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>8345022.719094872</v>
+        <v>25.85578089787985</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>8810980.840008376</v>
+        <v>25.86821294895199</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>8864288.261911649</v>
+        <v>25.8744335223976</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4387998.524104132</v>
+        <v>25.807608878643</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>6987392.951609141</v>
+        <v>25.85682797627645</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>8225751.288403382</v>
+        <v>25.87356396982288</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-335016.6965268138</v>
+        <v>25.76531206202294</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1103987.17360787</v>
+        <v>25.81246189901692</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2139800.465203</v>
+        <v>25.82180238225004</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>1009997.971939313</v>
+        <v>25.7712868714976</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3707664.393941662</v>
+        <v>25.8519551821485</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>4542509.210250895</v>
+        <v>25.86484988684374</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-3002047.709742867</v>
+        <v>25.74613137391822</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4535864.434514838</v>
+        <v>25.85929231371726</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>5675186.007328934</v>
+        <v>25.88135229341727</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>3070529.087381591</v>
+        <v>25.88401387400109</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3943560.746242915</v>
+        <v>25.91348409984655</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3974416.442482847</v>
+        <v>25.92868761922667</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>323153.3438923264</v>
+        <v>25.79166921464681</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>4310367.539493439</v>
+        <v>25.91091734093906</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>4830048.029311744</v>
+        <v>25.93169870159025</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>351661.5741735047</v>
+        <v>25.77512907909292</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2483175.399509674</v>
+        <v>25.83277250009965</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2616774.51303828</v>
+        <v>25.84342809183607</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1065101.722542978</v>
+        <v>25.7812014053902</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>4225692.407481255</v>
+        <v>25.88873913411115</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4312497.427532875</v>
+        <v>25.90154957254301</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-2373922.55974975</v>
+        <v>25.75597171194622</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>5679347.605859688</v>
+        <v>25.90682749062065</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>6084382.742643709</v>
+        <v>25.93192421571048</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>5882696.893683454</v>
+        <v>25.98271934438493</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>5450400.185288818</v>
+        <v>26.00856278368823</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>5872794.152707646</v>
+        <v>26.0305868847887</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1002459.353189144</v>
+        <v>25.82818971165815</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5161505.031942154</v>
+        <v>25.98690779446779</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>5522192.671177633</v>
+        <v>26.0112754487384</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1315718.652564002</v>
+        <v>25.75397332158822</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1597181.354613469</v>
+        <v>25.79861164571829</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2403311.678018617</v>
+        <v>25.81375837290758</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-3111591.263876893</v>
+        <v>25.71836832472492</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>935663.0589922655</v>
+        <v>25.81246665255161</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2260404.407813936</v>
+        <v>25.82266918414963</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-3297282.262773337</v>
+        <v>25.73539346241662</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>4513362.420754807</v>
+        <v>25.86733735903328</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>4992048.903343186</v>
+        <v>25.87319305586694</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3844614.89108107</v>
+        <v>25.90037918821239</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>4382445.292180037</v>
+        <v>25.9164981960312</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>4577354.403366688</v>
+        <v>25.91719497596592</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1542314.408579741</v>
+        <v>25.76054902145985</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3797881.899086018</v>
+        <v>25.88341970615619</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>4120243.924478992</v>
+        <v>25.90591300895328</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1126613.297291811</v>
+        <v>25.72879495059606</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>815885.4425312958</v>
+        <v>25.81267977486779</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>926672.2370268921</v>
+        <v>25.82570019251991</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1876964.620837164</v>
+        <v>25.68861779889096</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>571808.9910225214</v>
+        <v>25.80804041758557</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>818965.0015349642</v>
+        <v>25.82586145360131</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-2013082.607382181</v>
+        <v>25.69707830675065</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2418815.08926317</v>
+        <v>25.87262785158849</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2854114.169076137</v>
+        <v>25.89893332330774</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1520648.317683372</v>
+        <v>25.90676817329766</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1935558.049650901</v>
+        <v>25.94405487815812</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1928755.951138887</v>
+        <v>25.94303990445276</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-1007418.547711999</v>
+        <v>25.71589245987616</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1350964.599032054</v>
+        <v>25.92663608117023</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>2152166.007565519</v>
+        <v>25.95119400564689</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-897271.7727271717</v>
+        <v>25.73700858859002</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>918080.4956783853</v>
+        <v>25.83925791232055</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1168218.844165725</v>
+        <v>25.86018976442221</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-1629690.835726556</v>
+        <v>25.69363172063009</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>982993.795627047</v>
+        <v>25.85353139208691</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1244327.50619552</v>
+        <v>25.87702933360224</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-1736174.237526455</v>
+        <v>25.70079356304456</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2560634.228150154</v>
+        <v>25.93175972189783</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>3080800.889901899</v>
+        <v>25.96694308266941</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2366363.495133575</v>
+        <v>26.04311205896641</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2583962.372440404</v>
+        <v>26.07915942138843</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2832960.444847565</v>
+        <v>26.09553165650117</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-1074159.890775986</v>
+        <v>25.77018719676553</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2317982.338105001</v>
+        <v>26.03781423939255</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2577105.639218796</v>
+        <v>26.07858333712356</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-2089845.876219177</v>
+        <v>25.73911407629972</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-1195256.811130085</v>
+        <v>25.75086729156771</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-1238966.494001923</v>
+        <v>25.75717454250065</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-3699752.327480033</v>
+        <v>25.69683357815196</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-931922.8851690015</v>
+        <v>25.76352514555053</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-759560.3857937121</v>
+        <v>25.76392304793921</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-3586554.687656391</v>
+        <v>25.71110958001903</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>210447.6688842868</v>
+        <v>25.78725375450903</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>401894.2879239773</v>
+        <v>25.79302065976551</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>514280.2346038522</v>
+        <v>25.80196229874548</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>971459.8510169715</v>
+        <v>25.8125397808689</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1331629.626376049</v>
+        <v>25.82023481564859</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-1043314.108700308</v>
+        <v>25.73519607327906</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-124015.4027532718</v>
+        <v>25.79526512974083</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>110205.7009575557</v>
+        <v>25.8014162110359</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-1332587.262763993</v>
+        <v>25.73249782532656</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>190131.4612749631</v>
+        <v>25.79437690080669</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>655855.9379215608</v>
+        <v>25.81434409473128</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-1746110.742966948</v>
+        <v>25.70030139568034</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>225301.2138312868</v>
+        <v>25.80049643626428</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1016425.289102224</v>
+        <v>25.82553006096586</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-1804695.631197172</v>
+        <v>25.70907325929328</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1947345.263917089</v>
+        <v>25.84057844987669</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2721752.449640355</v>
+        <v>25.88460591759781</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1264704.564802128</v>
+        <v>25.87723949412554</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1564541.506519275</v>
+        <v>25.90614708202191</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>2038488.533081665</v>
+        <v>25.93333645322683</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-853398.2133318066</v>
+        <v>25.73171897004669</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1605609.544732735</v>
+        <v>25.90283091424354</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1906328.821774658</v>
+        <v>25.92773342033743</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-478862.2639651331</v>
+        <v>25.76012661358604</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>914918.1010533164</v>
+        <v>25.8320281717482</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1346886.052806622</v>
+        <v>25.85559264696343</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-1237193.657490976</v>
+        <v>25.71319039970382</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>890466.0019650408</v>
+        <v>25.85045303499482</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1500159.591023651</v>
+        <v>25.87642134007098</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-828287.0473132451</v>
+        <v>25.7302566488996</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2740950.839943537</v>
+        <v>25.90413230045148</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>3368521.953995035</v>
+        <v>25.95333015616935</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>2165842.614525225</v>
+        <v>26.00524447219652</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2212089.553206374</v>
+        <v>26.02475293091765</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2860971.260552081</v>
+        <v>26.06363073591647</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>146880.8910076368</v>
+        <v>25.79104548566541</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>2103251.977038271</v>
+        <v>26.00462084527072</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2766337.878590409</v>
+        <v>26.03487480548478</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-4055635.75728566</v>
+        <v>25.74506708759266</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-3335514.02804849</v>
+        <v>25.75716358877219</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-2764115.160928625</v>
+        <v>25.76500301708353</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-7444522.612902793</v>
+        <v>25.72433111990048</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-2079912.825398854</v>
+        <v>25.78023457760094</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-1742297.215959312</v>
+        <v>25.78642153423948</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-7210134.571469544</v>
+        <v>25.72962844334101</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-478683.1406537855</v>
+        <v>25.79776114166049</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>859562.7204104761</v>
+        <v>25.80149811102421</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2535989.354158596</v>
+        <v>25.81169582684472</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>4578354.674380577</v>
+        <v>25.82311336994932</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>5988415.925608177</v>
+        <v>25.83266933536715</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1943214.811153871</v>
+        <v>25.76199530083932</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>599289.4117624883</v>
+        <v>25.80788664109396</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>855622.9431561772</v>
+        <v>25.82689260972455</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-3652549.870815973</v>
+        <v>25.7351707579117</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-2280301.770635686</v>
+        <v>25.7755132473606</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>939753.6358350872</v>
+        <v>25.79215376503482</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-3192885.58015359</v>
+        <v>25.71899469420283</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-1970498.417799974</v>
+        <v>25.78663657021698</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>4314254.351047094</v>
+        <v>25.81124526797724</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-4608005.051954107</v>
+        <v>25.7114810009074</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>666856.5460520114</v>
+        <v>25.81068921731516</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>4943605.399626187</v>
+        <v>25.84216802364435</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1008457.678756755</v>
+        <v>25.83711074720074</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2668907.845161964</v>
+        <v>25.86602234664296</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3985423.308915304</v>
+        <v>25.88743533307943</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-2104621.233553585</v>
+        <v>25.7405151908855</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2196265.502318064</v>
+        <v>25.85630278558425</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3882060.378577698</v>
+        <v>25.88522021156068</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-1066764.386232668</v>
+        <v>25.73937491660018</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>283946.0358649007</v>
+        <v>25.78863947339512</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1717012.341963466</v>
+        <v>25.80739749025599</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-2501170.000274027</v>
+        <v>25.71761294927169</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1123912.990768751</v>
+        <v>25.80990593757721</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2091544.062081379</v>
+        <v>25.83560947945701</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-3021200.657465945</v>
+        <v>25.71213521032164</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2611324.165039945</v>
+        <v>25.84655628496079</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>5072786.643024262</v>
+        <v>25.88220486057993</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4073379.358050926</v>
+        <v>25.92230175991275</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3954456.095246732</v>
+        <v>25.94543273011586</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>5206733.596070994</v>
+        <v>25.97504412956514</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>-952976.2396821819</v>
+        <v>25.76495206622952</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>2286494.986110283</v>
+        <v>25.9167326692702</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>4686781.112728857</v>
+        <v>25.95100166441656</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-609676.6381551097</v>
+        <v>25.76529637926948</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1197928.167225652</v>
+        <v>25.80019309885895</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1539091.12742084</v>
+        <v>25.81246390157615</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-2489620.207882718</v>
+        <v>25.72162055013339</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>2673093.515151313</v>
+        <v>25.84363639501287</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2638428.695302143</v>
+        <v>25.84339185685712</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-1932059.11332325</v>
+        <v>25.74579464285506</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>5283303.291062401</v>
+        <v>25.8875118921403</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>4948921.234462555</v>
+        <v>25.88549124374319</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>3252608.88530004</v>
+        <v>25.89366143880462</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>3870494.200342778</v>
+        <v>25.91635326895825</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>4031953.309359367</v>
+        <v>25.91900289835318</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1004153.146672094</v>
+        <v>25.82813668499273</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>2678585.709166363</v>
+        <v>25.89998025680586</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>4473213.101944311</v>
+        <v>25.93338659609331</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-57208.27743495081</v>
+        <v>25.75624905805599</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1132360.099668029</v>
+        <v>25.83085723443594</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1245518.55657051</v>
+        <v>25.84052441490823</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-1476780.820349254</v>
+        <v>25.69546408309836</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>738456.8068675513</v>
+        <v>25.83530291600412</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1012861.252261674</v>
+        <v>25.84431999187692</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-1470120.243412221</v>
+        <v>25.71147529680372</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>2429773.148458809</v>
+        <v>25.90460116390879</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>2668713.160920496</v>
+        <v>25.92450628116585</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1588893.641463187</v>
+        <v>25.92800020052425</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1865095.486094114</v>
+        <v>25.95657805268163</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1942266.352348161</v>
+        <v>25.96570042778624</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>82585.98193962169</v>
+        <v>25.795205810426</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>2066311.259949873</v>
+        <v>25.9696079606516</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>2086123.642460399</v>
+        <v>25.98453185511572</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-83849.40259555585</v>
+        <v>25.76082124378011</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1081085.688023116</v>
+        <v>25.8507632280321</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1220953.458375813</v>
+        <v>25.86565191606126</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-1122160.718651248</v>
+        <v>25.6929840269562</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1094065.815287372</v>
+        <v>25.87433653014088</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1238759.176863277</v>
+        <v>25.88798383602872</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-1163997.485563341</v>
+        <v>25.71421123862928</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>2662395.815544145</v>
+        <v>25.96333279997015</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2953448.868155754</v>
+        <v>25.99094384805042</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2282451.959886604</v>
+        <v>26.05874229457816</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>2362471.898576428</v>
+        <v>26.08984510802206</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>2487542.525079226</v>
+        <v>26.10039122213921</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>377989.9879627295</v>
+        <v>25.83962243783903</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>2156869.762309158</v>
+        <v>26.06700319574139</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>2352698.466108307</v>
+        <v>26.09187656517783</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-1423739.260377404</v>
+        <v>25.75289324293549</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1344765.72630253</v>
+        <v>25.79904431772714</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1852685.493907006</v>
+        <v>25.80858330295566</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-2801581.386928702</v>
+        <v>25.71977018082711</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1709602.429284396</v>
+        <v>25.81984802497767</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2151410.388215456</v>
+        <v>25.82354055848903</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-3038288.839604567</v>
+        <v>25.73323067811535</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>4358552.102425423</v>
+        <v>25.86633191779437</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>4602187.468001978</v>
+        <v>25.86815984416195</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3272081.670307967</v>
+        <v>25.89879271023784</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>4310903.776784016</v>
+        <v>25.92045432918804</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>4359659.260271192</v>
+        <v>25.91669817452713</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-1483460.098999206</v>
+        <v>25.7581382527781</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>3436743.677740385</v>
+        <v>25.8838447003848</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>4073656.446567568</v>
+        <v>25.89881438002676</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-1162294.392718788</v>
+        <v>25.73077612777422</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>648283.0139087304</v>
+        <v>25.81747917425622</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>777269.8702523947</v>
+        <v>25.82814673623659</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1714513.861674112</v>
+        <v>25.69294737078217</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>582150.9303610194</v>
+        <v>25.81734833902957</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>956367.90271241</v>
+        <v>25.83220131815835</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-1763845.521341481</v>
+        <v>25.70159578646293</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2365846.098043637</v>
+        <v>25.87989947634392</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>3048907.969272286</v>
+        <v>25.90750642917659</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1677188.810548514</v>
+        <v>25.91783267458179</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>2071733.392700506</v>
+        <v>25.95734949418371</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>2007713.490224119</v>
+        <v>25.95653799122131</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-879766.118578863</v>
+        <v>25.72351998030229</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2175348.767706207</v>
+        <v>25.94542943731559</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>2210520.719892231</v>
+        <v>25.9654268609386</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-899019.8456216664</v>
+        <v>25.73530981722103</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>793699.5799541746</v>
+        <v>25.83980493482637</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1061864.558982162</v>
+        <v>25.8575361743558</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-1406845.18794778</v>
+        <v>25.68939070739939</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1014051.918555487</v>
+        <v>25.85326559785432</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1269838.521183557</v>
+        <v>25.87325424079587</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-1509684.807308156</v>
+        <v>25.69635160225743</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2393990.410773986</v>
+        <v>25.92850696795977</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>3026681.729892766</v>
+        <v>25.96353715498531</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2155408.037685079</v>
+        <v>26.03664995254497</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>2435289.847124939</v>
+        <v>26.0706581440826</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>2744629.360825556</v>
+        <v>26.09035738091078</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-755117.467048754</v>
+        <v>25.7578022183189</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>2012564.022905546</v>
+        <v>26.03113408635285</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>2403652.058366855</v>
+        <v>26.06703428553625</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.499</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.113</v>
+        <v>17.137</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.159</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.898</v>
+        <v>9.879</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.911</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.959</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.73664452944555</v>
+        <v>17.25234637903757</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.75347282104346</v>
+        <v>22.38270766642149</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.76027768141373</v>
+        <v>21.05225704287481</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.69365025270185</v>
+        <v>-1.412757687281069</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.76606741813587</v>
+        <v>22.28894028474455</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.76802137036123</v>
+        <v>22.06876861334281</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.70812997813913</v>
+        <v>2.837071020310216</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.79874279618801</v>
+        <v>29.50971411437087</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.79866161699955</v>
+        <v>29.19474356702561</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.81082402930713</v>
+        <v>30.93630822892288</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.82541938515275</v>
+        <v>37.44369372075969</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.83500438890429</v>
+        <v>41.15465218609164</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.74249975951911</v>
+        <v>14.25475833892629</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.81272544581263</v>
+        <v>30.3219638097009</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.83112806662526</v>
+        <v>25.54865126674676</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.75343850711377</v>
+        <v>20.63559833664126</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.82037858304984</v>
+        <v>39.17960703258613</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.83727430822068</v>
+        <v>44.75499875951679</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.70550504614939</v>
+        <v>6.919398716374886</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.81052775771616</v>
+        <v>35.66565227767251</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.83392175878453</v>
+        <v>49.87276165603158</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.72169383680435</v>
+        <v>8.342846623799275</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.86861062793811</v>
+        <v>60.73257100029274</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.90338559338858</v>
+        <v>74.02541340465145</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.91205986290209</v>
+        <v>61.07048584546118</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.9547666806147</v>
+        <v>73.35437659814086</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.97821854105192</v>
+        <v>82.06855508487116</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.76622987201792</v>
+        <v>21.09030401553865</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.94790809996345</v>
+        <v>81.16557398783269</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.98010856612345</v>
+        <v>84.19830060929287</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.77460696243499</v>
+        <v>31.17912797069286</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.85699997107099</v>
+        <v>51.34087067559555</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.87576184274202</v>
+        <v>53.28577294269325</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.7148969535161</v>
+        <v>10.46022300171445</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.85932309666944</v>
+        <v>44.57996213448186</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.88422689541479</v>
+        <v>52.83120052615461</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.7390084889742</v>
+        <v>17.06325365232727</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.93798087021332</v>
+        <v>79.89433382482532</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.97544195849638</v>
+        <v>80.00192701340451</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.05367082906927</v>
+        <v>89.7755089791499</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.08698600417581</v>
+        <v>99.1176008562842</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.11906762203922</v>
+        <v>102.1773138070583</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.82634448704873</v>
+        <v>40.25235879330224</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.05936520708184</v>
+        <v>100.2772871438687</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.09596988600397</v>
+        <v>100.62452152403</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.73446075724722</v>
+        <v>9.417904645851092</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.810705296927</v>
+        <v>43.25023920755716</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.82241447657648</v>
+        <v>42.10580937462496</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.70503281133161</v>
+        <v>2.392856430030239</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.83688959149045</v>
+        <v>47.05596285970082</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.8469478882954</v>
+        <v>47.82120426590616</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.71832959082264</v>
+        <v>3.22293548278563</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.9000768446352</v>
+        <v>67.49968891224043</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.90182307500983</v>
+        <v>67.55409185944789</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.90959943584758</v>
+        <v>64.00009407799247</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.93503003098202</v>
+        <v>70.11683138102589</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.94648223702844</v>
+        <v>71.33240314553882</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.75293046856822</v>
+        <v>10.02854538191222</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.91475255432093</v>
+        <v>65.79003944167778</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.93591406617334</v>
+        <v>66.45278345153083</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.72198351852684</v>
+        <v>13.15745636124984</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.83957341877751</v>
+        <v>42.95107238084493</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.85668406527085</v>
+        <v>47.65396527654863</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.68472623045304</v>
+        <v>5.647985420475479</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.83911772557279</v>
+        <v>39.79378959550615</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.86906700634013</v>
+        <v>48.56339744906359</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.69489521935873</v>
+        <v>7.768674033031143</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.92670398130495</v>
+        <v>65.05313568744945</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.96095036412606</v>
+        <v>79.70051458521121</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.95752041162338</v>
+        <v>63.41183277108547</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.01134403967537</v>
+        <v>75.54661316713906</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.02939119165675</v>
+        <v>78.67355776458592</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.73782656653279</v>
+        <v>9.828298119116589</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.01263213186644</v>
+        <v>75.16590912919727</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.03428837657522</v>
+        <v>80.13163636214803</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.72757283770939</v>
+        <v>12.62035995692364</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.87347656940435</v>
+        <v>48.16009959674557</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.89415069625568</v>
+        <v>49.91447691843823</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.6773609036856</v>
+        <v>4.113017999278288</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.88731934742183</v>
+        <v>50.6461712044219</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.91867291175065</v>
+        <v>57.10045031791937</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.69303487699691</v>
+        <v>6.366169380038581</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.99780389290446</v>
+        <v>81.73186156917779</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.03677767642175</v>
+        <v>89.35857012677883</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.09932517988658</v>
+        <v>88.2416008360106</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.15775259850958</v>
+        <v>99.49434868153217</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.18228236786759</v>
+        <v>98.61657875977674</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.77634848264815</v>
+        <v>10.12773192645827</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.12956507124393</v>
+        <v>91.92378438473342</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.15958672132054</v>
+        <v>93.36819344419368</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.76427378977511</v>
+        <v>36.06703907078986</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.81598476969432</v>
+        <v>47.07892771770152</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.8215918429375</v>
+        <v>47.80956164638259</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.71620541462051</v>
+        <v>7.793824440457289</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.83653140964665</v>
+        <v>47.3814520732832</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.83792206233649</v>
+        <v>47.43205270158261</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.73806898819539</v>
+        <v>9.262899728164864</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.90141053445131</v>
+        <v>69.02087020257663</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.89335036606776</v>
+        <v>64.1483092155252</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.91504075633177</v>
+        <v>63.99320889733511</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.94258172325706</v>
+        <v>75.20170057328806</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.9416532660826</v>
+        <v>73.03274114280191</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.79127477480022</v>
+        <v>28.91769576440525</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.9105837141712</v>
+        <v>65.14764611414786</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.9242567917409</v>
+        <v>65.32815647418293</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.76766143146071</v>
+        <v>26.92647131931674</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.86407749353869</v>
+        <v>48.43722647940847</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.87251194381439</v>
+        <v>50.54474909660496</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.70206810334295</v>
+        <v>7.785455706543242</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.85714464016202</v>
+        <v>44.93985447410181</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.87416266830849</v>
+        <v>49.99749773035678</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.7245048505456</v>
+        <v>9.638451663488325</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.94638368621027</v>
+        <v>70.79100929066215</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.96683609256835</v>
+        <v>80.08456310152469</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.98116753598913</v>
+        <v>67.61251219381195</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.02860181208937</v>
+        <v>80.54274645606662</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.03392943176297</v>
+        <v>79.83266111643026</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.79281934328654</v>
+        <v>29.31486258984224</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.02030532419842</v>
+        <v>78.17353005839972</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.03266537859122</v>
+        <v>78.40719917083349</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.77134166908906</v>
+        <v>35.44934191249852</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.89602147319587</v>
+        <v>54.81603305244896</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.90451739801868</v>
+        <v>54.53002530876711</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.69554272671309</v>
+        <v>8.349990396095823</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.91136228773517</v>
+        <v>56.09979961009073</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.9233227093817</v>
+        <v>58.36957048938369</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.72299906848389</v>
+        <v>10.53491513701687</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.02024555624597</v>
+        <v>83.68545932971331</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.04016861310011</v>
+        <v>85.95297533669316</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.12950983215667</v>
+        <v>92.84161602236216</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.17559811852052</v>
+        <v>98.31053289005291</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.18693208222471</v>
+        <v>100.0971218183912</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.84455382787298</v>
+        <v>37.99993000945744</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.14612741226552</v>
+        <v>95.37110209585033</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.16299515181839</v>
+        <v>93.74483966619141</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.74959814827206</v>
+        <v>17.70078603342403</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.76621683332991</v>
+        <v>23.81471590363244</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.77048278523293</v>
+        <v>24.06905121305692</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.70523293810798</v>
+        <v>0.1687003398779012</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.77615914565888</v>
+        <v>23.43543128278433</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.77981059819814</v>
+        <v>25.54723645363633</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.7223282519843</v>
+        <v>5.327711773219342</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.80654274431457</v>
+        <v>32.72604164733277</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.80652810979295</v>
+        <v>33.00465773106063</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.82035211934532</v>
+        <v>36.9671262154611</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.83202723719559</v>
+        <v>40.93982210515593</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.84651288857822</v>
+        <v>46.51207174807085</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.79173310115546</v>
+        <v>66.23585174080441</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.86028685397215</v>
+        <v>72.08743530089708</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.87009915969942</v>
+        <v>64.46280274822909</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.76017461090052</v>
+        <v>16.63905046029013</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.82196683706817</v>
+        <v>40.81499387650997</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.83531256420708</v>
+        <v>46.80386540651777</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.71610823873474</v>
+        <v>6.925120741373249</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.81444639130036</v>
+        <v>42.64176788250573</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.84156465706683</v>
+        <v>55.05494813217764</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.72890074124803</v>
+        <v>16.21904667373624</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.86160867056382</v>
+        <v>67.47434798528252</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.89598955076386</v>
+        <v>77.74112418654664</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.89208098555721</v>
+        <v>61.05704983930231</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.9311833890715</v>
+        <v>72.38626962610483</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.96286121880558</v>
+        <v>77.3249982334675</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.78763837108918</v>
+        <v>18.77219402137391</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.96427070321108</v>
+        <v>74.75319067614342</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.9812713917796</v>
+        <v>81.27691260223288</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.78950160791499</v>
+        <v>29.90361283878919</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.86562485357546</v>
+        <v>49.0801085523894</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.88039847795778</v>
+        <v>50.9805685034477</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.73144148482486</v>
+        <v>10.27598809511066</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.86804707191387</v>
+        <v>47.18226358583203</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.89680222479613</v>
+        <v>55.452404825874</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.75404280619584</v>
+        <v>19.45342059407713</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.93824589057661</v>
+        <v>76.70891582696127</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.97589422826128</v>
+        <v>82.78358944737565</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.03128915836431</v>
+        <v>84.15080960834062</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.06398849991216</v>
+        <v>87.24501509007425</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.10449213236341</v>
+        <v>97.59295408449115</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.85795603876627</v>
+        <v>42.52370940912768</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.08246834209358</v>
+        <v>92.3969734760515</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.10284223430198</v>
+        <v>97.12533763183792</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.7713642722516</v>
+        <v>28.99763491724186</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.81491711358325</v>
+        <v>49.50809268761414</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.81214807977836</v>
+        <v>45.09175456757818</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.72510014564419</v>
+        <v>8.627144393368955</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.83314557512445</v>
+        <v>50.50803518922784</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.8301515569404</v>
+        <v>53.28866126170454</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.74695977394965</v>
+        <v>11.35635925805496</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.88222719486759</v>
+        <v>80.28091240848619</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.87112366906092</v>
+        <v>68.07327199015951</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.87946959299143</v>
+        <v>61.42333554361763</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.89918972992267</v>
+        <v>76.08724621868862</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.90013609238683</v>
+        <v>78.66780095241884</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.79633049087472</v>
+        <v>22.16482593608063</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.87972013056829</v>
+        <v>6.861024767167407</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.88333472364651</v>
+        <v>6.788739245262278</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.79275140389604</v>
+        <v>33.83140978759068</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.87802298649696</v>
+        <v>52.46829087247498</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.87684740006176</v>
+        <v>51.01575097388171</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.73539801776765</v>
+        <v>7.830021081067024</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.87132314166798</v>
+        <v>48.22131842484543</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.88323783430964</v>
+        <v>56.03468422294952</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.75964057881822</v>
+        <v>13.37381539092347</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.94591803650634</v>
+        <v>79.06728369619086</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.96005276801828</v>
+        <v>79.42969324037561</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.98693252969585</v>
+        <v>75.50539559213679</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.02860628652288</v>
+        <v>85.1387785380318</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.03723921281856</v>
+        <v>87.11663397203944</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.84825309011464</v>
+        <v>44.49353138577423</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.03340816954207</v>
+        <v>84.50209239163742</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.79674655973466</v>
+        <v>38.8877125618901</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.89864687830112</v>
+        <v>58.10983090154451</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.902072528391</v>
+        <v>56.36665557128325</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.72338029075002</v>
+        <v>8.628079723600816</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.90045475213779</v>
+        <v>50.53463232999717</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.91467866572327</v>
+        <v>56.73994551812023</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.75276394090341</v>
+        <v>12.44136750597708</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.9947884088389</v>
+        <v>83.24719962812337</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.01524465878531</v>
+        <v>87.49014036466549</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.09410769438016</v>
+        <v>95.58479380792431</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.13042034064728</v>
+        <v>98.10938619044025</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.14914547728828</v>
+        <v>101.9795113352857</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.87483710030014</v>
+        <v>58.35688187148452</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.11426605912382</v>
+        <v>98.60567439192376</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.12623858642915</v>
+        <v>100.8407426297658</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.7439258251411</v>
+        <v>24.74134721454686</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.821609068574</v>
+        <v>41.3581790703362</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.83028179733585</v>
+        <v>43.06908101953486</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.6948706827211</v>
+        <v>5.842188055648009</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.8584995973534</v>
+        <v>46.10113033718729</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.86622437069186</v>
+        <v>47.53166739802376</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.71145775571164</v>
+        <v>8.312520115610315</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.94203535408709</v>
+        <v>72.30355426335426</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.93057264584865</v>
+        <v>67.38210377374961</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.90359015810621</v>
+        <v>59.86126687350578</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.93409091863166</v>
+        <v>68.59133421705488</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.94303201545785</v>
+        <v>70.58564725403259</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.74053391169149</v>
+        <v>14.59522897089771</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.87842478548457</v>
+        <v>5.771831747168683</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.88437607398612</v>
+        <v>5.101814954046301</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.76957873783607</v>
+        <v>28.0811858419014</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.91501152580242</v>
+        <v>53.67707865981395</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.92501336080792</v>
+        <v>53.2539014383927</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.68500315219734</v>
+        <v>7.387391674937614</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.89916982487001</v>
+        <v>49.30640199760099</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.92935746474827</v>
+        <v>51.51613366770126</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.70889157540922</v>
+        <v>9.515097740509091</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.02679897032928</v>
+        <v>76.01382437892948</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.0478111672659</v>
+        <v>78.97325056212949</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.04905358611928</v>
+        <v>69.32744305352922</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.11260835002605</v>
+        <v>81.60064476164401</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.13267403299141</v>
+        <v>84.31624044474256</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.80162694060494</v>
+        <v>30.11977266455546</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.12224634606718</v>
+        <v>83.36933251603837</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.12851270601874</v>
+        <v>84.65142959636431</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.77716617676376</v>
+        <v>28.99960085932006</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.94565038796988</v>
+        <v>55.15407462964588</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.96186063698153</v>
+        <v>56.02558890194467</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.66397226232994</v>
+        <v>8.102356959822544</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.93334765387175</v>
+        <v>51.88419856198207</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.96565992542801</v>
+        <v>56.96832598362728</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.69087168717544</v>
+        <v>10.12847672863806</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.08717511343991</v>
+        <v>80.88527016381734</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.11451139873375</v>
+        <v>84.72845574570212</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.19909660393018</v>
+        <v>84.11553501498699</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.26152017550364</v>
+        <v>93.7427654679305</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.2751789218387</v>
+        <v>96.64875090888806</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.82486643257852</v>
+        <v>32.42891895968982</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.226492587295</v>
+        <v>91.59942787347129</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.23591823324601</v>
+        <v>90.57806006633471</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.70268976343176</v>
+        <v>12.26058086871452</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.71773916819439</v>
+        <v>15.00619931314854</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.72509020958691</v>
+        <v>15.90825712758331</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.65580076887124</v>
+        <v>-0.921421684704157</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.74487560435801</v>
+        <v>18.92440759825119</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.74198231429072</v>
+        <v>19.28638045295275</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.66660722816777</v>
+        <v>1.467600306645544</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.78184220229273</v>
+        <v>24.29898266018054</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.77549375048279</v>
+        <v>25.13227152320904</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.80276086987013</v>
+        <v>31.09244943761572</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.82814905495182</v>
+        <v>39.36221540448771</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.82948125703822</v>
+        <v>39.1090338109406</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.703782835357</v>
+        <v>12.32083777180004</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.78434447242618</v>
+        <v>25.81622976783393</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.79933617922036</v>
+        <v>22.23320204551812</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.71613803446774</v>
+        <v>15.06795493234617</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.80877549769554</v>
+        <v>32.13988791552349</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.83382032257159</v>
+        <v>37.25804037927145</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.66758190612659</v>
+        <v>5.379868939690805</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.81585658045352</v>
+        <v>30.43048848045137</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.84968816076235</v>
+        <v>40.4043729320208</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.67913580156132</v>
+        <v>7.440444413372859</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.88901613781574</v>
+        <v>48.71541576552217</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.93086582542844</v>
+        <v>58.74308753448616</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.93344232962529</v>
+        <v>47.91037704607677</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.98637423929375</v>
+        <v>57.36782155494707</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.00124489203761</v>
+        <v>61.45124192154537</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.72475350713805</v>
+        <v>17.30679033332613</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.96896284677197</v>
+        <v>58.51658978446523</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.00167522665879</v>
+        <v>61.63025925827174</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.74211156890162</v>
+        <v>22.22249492663133</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.86195695439725</v>
+        <v>39.96958095693215</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.88739490877709</v>
+        <v>46.10425695954689</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.67659813124216</v>
+        <v>8.493961162804943</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.89454458002631</v>
+        <v>43.95029143632767</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.92096175917408</v>
+        <v>53.12652134057269</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.70255123692139</v>
+        <v>12.50669746266399</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.99476159061827</v>
+        <v>68.57707825330719</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.03421822587396</v>
+        <v>72.56516357440496</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.15024758403957</v>
+        <v>79.15955626230115</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.19877567760964</v>
+        <v>87.7938179040631</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.21171149516926</v>
+        <v>88.95822232131586</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.83881531998789</v>
+        <v>34.76687891127725</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.15549420016664</v>
+        <v>84.15154997347166</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.1944821335983</v>
+        <v>89.68585891247706</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.71037653259588</v>
+        <v>10.34927751234002</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.71733355930108</v>
+        <v>16.48717251741335</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.72578251540852</v>
+        <v>14.7660100837592</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.67371907730831</v>
+        <v>-2.645142799302544</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.73425037455711</v>
+        <v>17.17428658838099</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.74230328934181</v>
+        <v>18.56744763132352</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.67406716741399</v>
+        <v>-0.8358125548327457</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.75837074637552</v>
+        <v>19.33029304936888</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.75980318993792</v>
+        <v>18.32606728278302</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.75803727023587</v>
+        <v>17.47617470184948</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.78156823170056</v>
+        <v>26.38633241123297</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.79304696609203</v>
+        <v>23.97645807330562</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.70340151412724</v>
+        <v>9.932505518790109</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.75587989044459</v>
+        <v>16.88494409083086</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.75877300830661</v>
+        <v>9.654774210437129</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.67620840165686</v>
+        <v>2.211982783187445</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.71380664988555</v>
+        <v>9.311546332637054</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.73516695250013</v>
+        <v>14.15166275783476</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.64452903001312</v>
+        <v>-4.628793510372123</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.7160156265377</v>
+        <v>10.34462731793669</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.74741955061361</v>
+        <v>17.74196183501438</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.638611690387</v>
+        <v>-4.596294528837557</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.75531006032026</v>
+        <v>18.13785863924382</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.79731013339594</v>
+        <v>29.2392764940746</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.77806251384302</v>
+        <v>11.84036781218002</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.83189290564473</v>
+        <v>35.11880553988318</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.86994699858493</v>
+        <v>43.85239996902115</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.66705123438287</v>
+        <v>-0.2306707573142965</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.81312704510491</v>
+        <v>25.26646797819242</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.82486738445021</v>
+        <v>20.02893367858677</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.68802631765833</v>
+        <v>5.822169032789848</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.74158681565048</v>
+        <v>17.96060279121911</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.78013456702519</v>
+        <v>33.11844171559834</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.64799693839329</v>
+        <v>-3.324938008774634</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.76026303334888</v>
+        <v>18.87458667005363</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.80942058400485</v>
+        <v>37.69438994400157</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.64695490895051</v>
+        <v>-0.8393386983859372</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.82031196671473</v>
+        <v>31.9317825043399</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.88197118613446</v>
+        <v>69.96022983945964</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.91428915039</v>
+        <v>22.21254417934998</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.96777176613974</v>
+        <v>59.77303172361037</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.02686475452627</v>
+        <v>77.37596680230679</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.71153585672165</v>
+        <v>5.464415411260468</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.91600139022828</v>
+        <v>43.32989246893825</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.94325005223919</v>
+        <v>55.24301866059104</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.74555933139198</v>
+        <v>19.61503855480239</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.80474792847312</v>
+        <v>26.88518392745308</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.82772479044656</v>
+        <v>37.92965792356819</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.70852693963992</v>
+        <v>7.358279236544522</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.86664746152903</v>
+        <v>50.26489455041865</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.8737910062405</v>
+        <v>51.11958607679765</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.73328643966582</v>
+        <v>11.1221948295927</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.93888242893905</v>
+        <v>69.45587660312023</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.93645430007226</v>
+        <v>70.0658074324742</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.94785721505465</v>
+        <v>67.35340296163717</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.973051594246</v>
+        <v>76.61055910445299</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.97805846135546</v>
+        <v>73.08613648335891</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.81677971409572</v>
+        <v>45.07778867914363</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.94543502939274</v>
+        <v>67.2439736233453</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.9833760667401</v>
+        <v>78.81175438921662</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.72521521328131</v>
+        <v>20.93401971485032</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.83213858652025</v>
+        <v>39.46169772108907</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.84904491484135</v>
+        <v>41.62783839027144</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.64784855628961</v>
+        <v>5.898187354671382</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.83381521040264</v>
+        <v>38.52439760013854</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.85222339935949</v>
+        <v>41.70314685050637</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.67551662418649</v>
+        <v>8.776566244618149</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.94364806409818</v>
+        <v>61.33589770549524</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.9641529859018</v>
+        <v>67.47420264293444</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.96084548038973</v>
+        <v>57.86765661318867</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.00492513092429</v>
+        <v>66.07282231376436</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.01639342015033</v>
+        <v>66.88905237122594</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.76295743603072</v>
+        <v>31.10240775081136</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.02275089224338</v>
+        <v>70.74198988145524</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.03561638330488</v>
+        <v>69.25887363231604</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.73875264788314</v>
+        <v>23.16830131840882</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.86972659251533</v>
+        <v>40.92432416313528</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.89451575610043</v>
+        <v>45.3478527446162</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.65920732255066</v>
+        <v>8.278874152116956</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.90249945907564</v>
+        <v>48.73391299910877</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.92351190823106</v>
+        <v>52.65434739619769</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.68758700906393</v>
+        <v>11.19769699160993</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.03439772487696</v>
+        <v>75.89017322028133</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.06119601896641</v>
+        <v>80.22974338674057</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.14268829823763</v>
+        <v>80.49529233542937</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.18917576255074</v>
+        <v>87.07001785967752</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.19377736670086</v>
+        <v>88.55321212293806</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.8260885252553</v>
+        <v>37.9832889013968</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.16829659524486</v>
+        <v>87.94585331388926</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.19562358858651</v>
+        <v>88.39757104844325</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.71137622626957</v>
+        <v>7.15088039615835</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.72223800433098</v>
+        <v>14.74270978015432</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.73408906532397</v>
+        <v>15.5836598424464</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.67461680273275</v>
+        <v>-1.245254376342256</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.72902224539844</v>
+        <v>13.76260253895847</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.73803076986311</v>
+        <v>16.65004205806338</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.68444668600731</v>
+        <v>-0.04501623489764128</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.7664506771395</v>
+        <v>21.2540013266669</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.76864801864354</v>
+        <v>22.61487604015654</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.77447593380208</v>
+        <v>24.46264348067989</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.7895708576931</v>
+        <v>29.21210009049377</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.80375243079332</v>
+        <v>32.52521849074948</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.68923877969648</v>
+        <v>3.228508969770751</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.76245323145449</v>
+        <v>20.94980649919762</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.7776264170691</v>
+        <v>23.46942804884488</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.70208245223393</v>
+        <v>8.677939291809817</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.76879825331095</v>
+        <v>25.07006995167735</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.79696528207762</v>
+        <v>30.71468459236221</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.67349647610791</v>
+        <v>4.083418250574013</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.76468057547332</v>
+        <v>24.43551087649899</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.80360091368082</v>
+        <v>32.80840114019606</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.68219487412207</v>
+        <v>5.628335857869736</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.82435229073436</v>
+        <v>40.5436181987643</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.8687899482901</v>
+        <v>49.37044937452013</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.83566858550721</v>
+        <v>37.9998649359935</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.88384079615132</v>
+        <v>44.82150131278742</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.90933482527673</v>
+        <v>49.7605269870371</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.67908369329819</v>
+        <v>8.281093279873659</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.86424761416311</v>
+        <v>45.25815680958288</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.9018853479601</v>
+        <v>50.33860900097046</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.73631324802517</v>
+        <v>19.11067269100927</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.82338238251621</v>
+        <v>36.44491691522323</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.85495000968807</v>
+        <v>42.67047330756095</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.6951319863227</v>
+        <v>11.20131121129698</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.83728504115619</v>
+        <v>38.41054899415277</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.87729327401251</v>
+        <v>47.03451112103561</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.71529236056715</v>
+        <v>18.93832942410534</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.91927488911349</v>
+        <v>59.04112746848251</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.96810804833279</v>
+        <v>68.53141428039586</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.01434158107548</v>
+        <v>66.49575521828294</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.05658373792289</v>
+        <v>75.34417981881028</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.11087400937813</v>
+        <v>85.57408896281224</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.78393270966592</v>
+        <v>25.91258926265776</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.02507891548407</v>
+        <v>70.59455788148756</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.07455914483343</v>
+        <v>77.43463808129658</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.68352476816446</v>
+        <v>4.294181049901621</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.71342732455093</v>
+        <v>5.4216072801416</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.71723829528606</v>
+        <v>6.579003964944512</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.63389990812645</v>
+        <v>-3.659637046866781</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.71970738504701</v>
+        <v>7.945680822391932</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.72463872110599</v>
+        <v>11.68894030807697</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.63934195724667</v>
+        <v>-4.016800075226353</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.76936554462023</v>
+        <v>8.319508344802383</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.76288504556985</v>
+        <v>10.80421221364927</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.75635679985222</v>
+        <v>10.83268950598118</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.77349096595111</v>
+        <v>14.23466945748177</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.7731286158341</v>
+        <v>19.43113691641</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.65706438044886</v>
+        <v>-0.7929788339720929</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.743776673597</v>
+        <v>6.368338051875956</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.74825644300014</v>
+        <v>8.971224644423764</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.74271179979166</v>
+        <v>19.58100786173956</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.82237330416707</v>
+        <v>36.89324265881942</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.83324531793067</v>
+        <v>40.00974352812796</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.68894100675178</v>
+        <v>6.883741813125056</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.81699746199635</v>
+        <v>35.35874085133717</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.84108998700716</v>
+        <v>41.10108692937828</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.69512859027279</v>
+        <v>8.700477872296144</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.88904437226348</v>
+        <v>54.73881383272934</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.91537026700336</v>
+        <v>64.77451554084254</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.92355870824058</v>
+        <v>54.52412196029593</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.96606974761683</v>
+        <v>62.81079695157369</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.97175688729766</v>
+        <v>63.51356241669593</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.75358310198994</v>
+        <v>21.51061354786841</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.96325429949495</v>
+        <v>62.50586556432833</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.97580150064448</v>
+        <v>63.48818972290027</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.76121328913948</v>
+        <v>26.70970650055328</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.86971299080998</v>
+        <v>46.77439480784665</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.88271569745877</v>
+        <v>50.25380403653112</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.68855239445757</v>
+        <v>8.453004486336116</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.87910600711362</v>
+        <v>51.30330644000066</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.89944049437457</v>
+        <v>55.87306768206319</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.70146986171577</v>
+        <v>10.07868936073596</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.97187396604746</v>
+        <v>73.55541166565104</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.99954230158243</v>
+        <v>77.19801319934865</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.07853114051275</v>
+        <v>83.02619334419319</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.12344555892596</v>
+        <v>92.45477639329654</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.13834442212803</v>
+        <v>90.9746549369672</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.81186929478927</v>
+        <v>29.06285837138505</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.09933840021953</v>
+        <v>88.19394551663274</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.11134800053716</v>
+        <v>83.71228035680664</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.72692194916949</v>
+        <v>13.70655586792258</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.73655931573987</v>
+        <v>18.77267165835039</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.74614130057836</v>
+        <v>18.80522018125134</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.68329751353569</v>
+        <v>-0.747705776836618</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.7399291921605</v>
+        <v>17.72729405221776</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.74775033990814</v>
+        <v>18.8198084035177</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.69620208859959</v>
+        <v>3.452440013934574</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.77750708603223</v>
+        <v>24.90936544886253</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.7818116542143</v>
+        <v>24.11431053878972</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.78349328397117</v>
+        <v>27.92368741400814</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.79893224493388</v>
+        <v>33.54118202539935</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.80117438251602</v>
+        <v>36.37052951972276</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.72855431913403</v>
+        <v>13.01553428067435</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.77915471037368</v>
+        <v>26.89878535087471</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.78852679100246</v>
+        <v>28.66185338352205</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.68961194489566</v>
+        <v>5.731427604600405</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.72841327463644</v>
+        <v>14.7783107537135</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.75222536892889</v>
+        <v>22.98213332837053</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.65270124104946</v>
+        <v>-2.757815022647677</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.71970521983008</v>
+        <v>11.83916265041093</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.75493821494614</v>
+        <v>23.02874374229554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.65524159919223</v>
+        <v>-2.018879652678045</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.76897865112441</v>
+        <v>20.39744620118048</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.81349628359667</v>
+        <v>39.82874809623726</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.78490695155081</v>
+        <v>16.71556842508081</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.80890526999584</v>
+        <v>32.04113264942487</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.82398452219588</v>
+        <v>37.77264578130638</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.67522309613272</v>
+        <v>4.972502913386229</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.80795360820911</v>
+        <v>28.04933969863539</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.82779231969707</v>
+        <v>35.81433611394989</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.73944236886418</v>
+        <v>20.19413835259082</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.80317574415985</v>
+        <v>32.45961975835245</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.82465407658713</v>
+        <v>37.34336914600184</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.67502654673511</v>
+        <v>3.465382151833644</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.79570695713978</v>
+        <v>29.58356153288971</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.82416520004132</v>
+        <v>37.03407496710008</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.7003409045043</v>
+        <v>9.221723985629751</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.88181690846804</v>
+        <v>50.93154321190234</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.92320559574887</v>
+        <v>59.06890086053193</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.96520456221077</v>
+        <v>56.14234885306794</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.99293348075486</v>
+        <v>66.25450936583175</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.00546634715717</v>
+        <v>68.79729769561429</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.77970526507131</v>
+        <v>32.49383929743506</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.97299403823108</v>
+        <v>60.8644982977299</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.99101212667508</v>
+        <v>63.3456078614542</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.70415759891895</v>
+        <v>5.11985471799434</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.70132721625706</v>
+        <v>8.376087579268532</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.6989768705799</v>
+        <v>6.472613799523696</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.66901291191444</v>
+        <v>-3.664548436044665</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.70397079317573</v>
+        <v>6.946632613173289</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.70388991917358</v>
+        <v>8.498212458325597</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.66911333051225</v>
+        <v>-3.780368509243406</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.72442710106141</v>
+        <v>8.297989782925761</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.7186284425837</v>
+        <v>7.749494088073945</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.71688701523777</v>
+        <v>10.54156234147881</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.71935094741781</v>
+        <v>11.39439198621344</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.7182920269062</v>
+        <v>15.83998488585632</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.68219234415422</v>
+        <v>3.687053822696875</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.7129344526506</v>
+        <v>9.607171114648168</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.71255464172989</v>
+        <v>11.43585043869818</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.66355283025054</v>
+        <v>1.035104003542628</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.68847824632062</v>
+        <v>6.647611641003607</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.69232556611807</v>
+        <v>7.473923266710617</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.63907837600308</v>
+        <v>-3.985710455213773</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.68433740071951</v>
+        <v>4.431146888758505</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.70301422088021</v>
+        <v>9.802471735924581</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.62419909769583</v>
+        <v>-3.616000879798076</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.70864375769002</v>
+        <v>8.06162833235657</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.73235793676565</v>
+        <v>13.87130690846457</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.70641043790672</v>
+        <v>6.66295935900548</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.71748549691321</v>
+        <v>9.93094503330833</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.72298948235871</v>
+        <v>12.67260729171494</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.62393257382963</v>
+        <v>-3.667072932436735</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.7308135368478</v>
+        <v>9.743613593126071</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.73386338861313</v>
+        <v>11.55740509232444</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.7273569127082</v>
+        <v>19.13361167420276</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.77250406277417</v>
+        <v>25.57250999577833</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.77540303918011</v>
+        <v>27.38382460369426</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.66730943169134</v>
+        <v>2.843360791237483</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.76304273512329</v>
+        <v>22.07908149855522</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.77973441913185</v>
+        <v>27.37840328521829</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.67486379074269</v>
+        <v>9.650707821650528</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.82162939749882</v>
+        <v>35.42043530182532</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.84417604505274</v>
+        <v>38.90401041213658</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.88850827522139</v>
+        <v>44.50454099143383</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.89835999443909</v>
+        <v>45.11946607036236</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.90806981748439</v>
+        <v>48.67669507170864</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.73691502318489</v>
+        <v>25.19170694249175</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.89442743715759</v>
+        <v>38.82798874940988</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.90299153669908</v>
+        <v>42.83811665105114</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.76498286568924</v>
+        <v>22.0600571029138</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.78889676039562</v>
+        <v>35.34223427801118</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.7994265216235</v>
+        <v>35.83224677888266</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.71281257315718</v>
+        <v>4.869663187593545</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.79460456977946</v>
+        <v>32.23323811386365</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.79912459106665</v>
+        <v>34.347846907277</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.73201519931922</v>
+        <v>9.442433169223793</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.83926100095206</v>
+        <v>45.52592962805575</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.84011570875533</v>
+        <v>47.89144508679358</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.86371393811288</v>
+        <v>48.72356870419044</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.87650591671861</v>
+        <v>59.28774727874591</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.88362799152865</v>
+        <v>63.07832420178026</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.79831240882994</v>
+        <v>36.99817176087026</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.88186956316402</v>
+        <v>58.18323003292829</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.89631849278452</v>
+        <v>65.59667515930562</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.72595012840092</v>
+        <v>13.22634534222184</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.78897656930501</v>
+        <v>26.26036073143687</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.8034004044572</v>
+        <v>29.40263366633156</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.66432353264802</v>
+        <v>-1.546358956324926</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.76228040470383</v>
+        <v>19.94046395119386</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.78165054379914</v>
+        <v>26.15610442274744</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.68064358643485</v>
+        <v>0.7169735390849112</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.83042818116406</v>
+        <v>39.25793685242857</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.86117754122303</v>
+        <v>43.3454500263709</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.8599638752516</v>
+        <v>41.72825521488407</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.89015519356894</v>
+        <v>48.50100686914803</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.90506007647155</v>
+        <v>49.54715993675242</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.7365461316604</v>
+        <v>22.41701987595958</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.91471187603594</v>
+        <v>55.00311007446626</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.92763435571093</v>
+        <v>57.65103061389959</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.77279410229561</v>
+        <v>27.53951722813142</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.8539255963112</v>
+        <v>42.48629390659218</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.87502094455063</v>
+        <v>48.64454931237941</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.69636424859386</v>
+        <v>8.813924765336861</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.83983115097866</v>
+        <v>37.59351796963006</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.86401109662418</v>
+        <v>44.53351201106669</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.72389846267399</v>
+        <v>13.6558398756294</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.93414585870967</v>
+        <v>65.98641534692921</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.97243317039895</v>
+        <v>71.26724430750457</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.04885039748912</v>
+        <v>82.31725575635403</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.07488782365604</v>
+        <v>84.68912213412874</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.09594219780999</v>
+        <v>86.00434720135087</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.82398528494659</v>
+        <v>42.57779398688874</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.0578105844853</v>
+        <v>78.74290971159365</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.0844750071395</v>
+        <v>87.05673059529904</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.7587117682546</v>
+        <v>18.87764797759901</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.81243417515368</v>
+        <v>39.30688919543547</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.82278704583916</v>
+        <v>40.94994618306956</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.7214669338576</v>
+        <v>8.809426872028794</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.83053697364813</v>
+        <v>45.94775691065945</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.83808057230355</v>
+        <v>46.88895773689634</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.73969869135939</v>
+        <v>11.42649489747774</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.88425606035461</v>
+        <v>63.16187264389427</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.88757944070106</v>
+        <v>63.90890599427451</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.91476943241696</v>
+        <v>71.47209993761824</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.93483493984187</v>
+        <v>76.56656930179093</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.93909096648235</v>
+        <v>77.07576940107168</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.7770301520709</v>
+        <v>21.56630482805874</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.90749241338403</v>
+        <v>68.49712130071637</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.9361161074569</v>
+        <v>70.05485464136174</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.7293659164482</v>
+        <v>16.3734107848508</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.81719829113972</v>
+        <v>36.62382837750435</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.83420862254732</v>
+        <v>40.79483359171567</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.68643160389319</v>
+        <v>6.681073181744775</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.81332885893447</v>
+        <v>34.84720967246709</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.83898648167618</v>
+        <v>41.4424879482858</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.69555205687711</v>
+        <v>7.593945196954504</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.88063213362931</v>
+        <v>53.82479388074321</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.91623398106859</v>
+        <v>64.11578664972777</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.91229390651915</v>
+        <v>54.40331539302098</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.95801667044256</v>
+        <v>62.79334778123368</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.96176923907768</v>
+        <v>62.178436139822</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.72537556959827</v>
+        <v>16.82241603337719</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.94701139458873</v>
+        <v>64.00049501543361</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.98197566696765</v>
+        <v>67.7298522905385</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.73731076443798</v>
+        <v>18.77539685263545</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.84944331700138</v>
+        <v>42.26313306986533</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.87082382303311</v>
+        <v>46.68747501712734</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.68411091025093</v>
+        <v>6.878816356253473</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.86273619821589</v>
+        <v>44.56174118548041</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.89002875324115</v>
+        <v>50.58580908737684</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.69748821266498</v>
+        <v>7.273318626723295</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.94781765951343</v>
+        <v>65.08689984840531</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.99090096945491</v>
+        <v>75.15423161924723</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.04862198015609</v>
+        <v>79.44763969377155</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.09734663055435</v>
+        <v>86.33757477336258</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.12342399079467</v>
+        <v>91.65237772870789</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.77421742180289</v>
+        <v>21.0613656858876</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.06134728830794</v>
+        <v>79.88227533368691</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.10943805409469</v>
+        <v>86.2665143923207</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.75652792486061</v>
+        <v>23.82258518629603</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.79343155570789</v>
+        <v>36.40549624354513</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.80401091015892</v>
+        <v>39.53892209230416</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.72333638436647</v>
+        <v>7.198936894801673</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.8241684283674</v>
+        <v>48.95119180680572</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.82774723141702</v>
+        <v>49.85538987342484</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.7384147951471</v>
+        <v>9.495637538667779</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.86606751448008</v>
+        <v>67.52639662581142</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.865917893804</v>
+        <v>65.45089538246921</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.87709188572711</v>
+        <v>65.79639459133483</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.88888118345896</v>
+        <v>66.67093878754612</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.89889295114206</v>
+        <v>70.48666787575696</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.78595666677726</v>
+        <v>40.72636253360704</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.88060197217979</v>
+        <v>62.21762454451385</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.90451477363577</v>
+        <v>74.075959460796</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.74533180513069</v>
+        <v>24.89117557827162</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.82362578166166</v>
+        <v>39.83051339577091</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.83536716378439</v>
+        <v>41.7612943047737</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.6953711263695</v>
+        <v>4.472517705859062</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.82052396401618</v>
+        <v>36.01295538774033</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.83629946321693</v>
+        <v>43.18167581088854</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.71098789079574</v>
+        <v>4.883844369926628</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.88664092277221</v>
+        <v>60.45940872125381</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.91204512413405</v>
+        <v>68.91870995389813</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.91880562703681</v>
+        <v>59.67865717292099</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.95493563401245</v>
+        <v>67.98287472018878</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.97345514110141</v>
+        <v>69.10523641057064</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.76345355433233</v>
+        <v>27.54378031482428</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.96169426106487</v>
+        <v>73.62233870494147</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.98410962932278</v>
+        <v>75.50478086340179</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.75576484563429</v>
+        <v>27.46857129092326</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.85000687681217</v>
+        <v>46.09414609961095</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.86575968192922</v>
+        <v>47.86178092258876</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.69893040351524</v>
+        <v>5.636256940645463</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.86194533897201</v>
+        <v>44.70314942886585</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.88172324875659</v>
+        <v>49.3285381073682</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.71772376361715</v>
+        <v>6.053591765940364</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.94673623513694</v>
+        <v>72.91434871719447</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.97696686185116</v>
+        <v>76.74801884055026</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.04649682424896</v>
+        <v>84.59475920358777</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.07771978126621</v>
+        <v>90.70775007008076</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.10240977144469</v>
+        <v>92.75157795505579</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.80162754190918</v>
+        <v>30.46313391083688</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.05724952245837</v>
+        <v>87.06669756402296</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.08701060701244</v>
+        <v>88.60246269858523</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.77193409866342</v>
+        <v>25.41470127990205</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.79082544487283</v>
+        <v>34.11053700533802</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.79589585663528</v>
+        <v>39.51609283753096</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.76912811610507</v>
+        <v>13.92346270247883</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.83736241610666</v>
+        <v>62.50346187571293</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.8380801508434</v>
+        <v>60.22565214604997</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.76280188108176</v>
+        <v>13.3264204925636</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.84343375331288</v>
+        <v>68.08491013122679</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.84289840742402</v>
+        <v>68.24061780449624</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.85578089787985</v>
+        <v>72.94186259126153</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.86821294895199</v>
+        <v>75.41079827871117</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.8744335223976</v>
+        <v>75.69325412707128</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.807608878643</v>
+        <v>52.36587624924287</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.85682797627645</v>
+        <v>66.37058196541373</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.87356396982288</v>
+        <v>73.04246057469993</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.76531206202294</v>
+        <v>26.77503027131842</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.81246189901692</v>
+        <v>35.14962010089848</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.82180238225004</v>
+        <v>41.17775639515652</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.7712868714976</v>
+        <v>35.58036037418653</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.8519551821485</v>
+        <v>53.89156070346093</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.86484988684374</v>
+        <v>59.5583142170205</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.74613137391822</v>
+        <v>10.10891517841233</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.85929231371726</v>
+        <v>56.85177802062876</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.88135229341727</v>
+        <v>63.91675184787064</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.88401387400109</v>
+        <v>56.8396528396281</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.91348409984655</v>
+        <v>64.83348696787961</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.92868761922667</v>
+        <v>65.11601431399573</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.79166921464681</v>
+        <v>31.73328828072997</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.91091734093906</v>
+        <v>68.85548074810704</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.93169870159025</v>
+        <v>73.69386620175511</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.77512907909292</v>
+        <v>31.25158440332908</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.83277250009965</v>
+        <v>46.56774690126146</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.84342809183607</v>
+        <v>47.52773398089549</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.7812014053902</v>
+        <v>37.65113053070598</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.88873913411115</v>
+        <v>64.13961137414945</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.90154957254301</v>
+        <v>64.86711244593025</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.75597171194622</v>
+        <v>10.54898419520665</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.90682749062065</v>
+        <v>72.20802060325776</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.93192421571048</v>
+        <v>75.30913055386584</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.98271934438493</v>
+        <v>95.23072869262097</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.00856278368823</v>
+        <v>90.34344784641615</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.0305868847887</v>
+        <v>95.11877439050421</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.82818971165815</v>
+        <v>40.24824466135721</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.98690779446779</v>
+        <v>88.05815943856584</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.0112754487384</v>
+        <v>92.20440995491316</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.75397332158822</v>
+        <v>20.29187820284022</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.79861164571829</v>
+        <v>38.96152969439427</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.81375837290758</v>
+        <v>44.12826118454633</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.71836832472492</v>
+        <v>5.464124021092719</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.81246665255161</v>
+        <v>35.71919068963836</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.82266918414963</v>
+        <v>45.62223473624173</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.73539346241662</v>
+        <v>6.206723150640091</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.86733735903328</v>
+        <v>59.54760228268546</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.87319305586694</v>
+        <v>62.81667402317049</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.90037918821239</v>
+        <v>67.49382626375389</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.9164981960312</v>
+        <v>72.91732493145415</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.91719497596592</v>
+        <v>74.88279453429453</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.76054902145985</v>
+        <v>12.91044802351981</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.88341970615619</v>
+        <v>67.66627271638049</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.90591300895328</v>
+        <v>70.97161909938032</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.72879495059606</v>
+        <v>16.24650070017046</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.81267977486779</v>
+        <v>37.76111811469509</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.82570019251991</v>
+        <v>38.98816421222392</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.68861779889096</v>
+        <v>4.477642458272658</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.80804041758557</v>
+        <v>36.11123400900173</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.82586145360131</v>
+        <v>39.3040290669005</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.69707830675065</v>
+        <v>4.967256814333339</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.87262785158849</v>
+        <v>57.27009567591684</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.89893332330774</v>
+        <v>62.40725794509234</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.90676817329766</v>
+        <v>55.22313796884359</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.94405487815812</v>
+        <v>62.45333378703438</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.94303990445276</v>
+        <v>62.33480076544623</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.71589245987616</v>
+        <v>10.87409890624053</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.92663608117023</v>
+        <v>52.66191862306152</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.95119400564689</v>
+        <v>66.85828025449605</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.73700858859002</v>
+        <v>16.45415106392815</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.83925791232055</v>
+        <v>41.27942344132899</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.86018976442221</v>
+        <v>44.7001108425052</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.69363172063009</v>
+        <v>2.730907048161193</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.85353139208691</v>
+        <v>44.40316999934826</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.87702933360224</v>
+        <v>48.57143698960376</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.70079356304456</v>
+        <v>3.42631207257482</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.93175972189783</v>
+        <v>66.03603157946596</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.96694308266941</v>
+        <v>73.61549178795914</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.04311205896641</v>
+        <v>79.63838658242705</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.07915942138843</v>
+        <v>84.32019153162223</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.09553165650117</v>
+        <v>89.67757398765475</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.77018719676553</v>
+        <v>5.224451528778324</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.03781423939255</v>
+        <v>79.43568177882571</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.07858333712356</v>
+        <v>85.10462419473696</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.73911407629972</v>
+        <v>15.68333280048191</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.75086729156771</v>
+        <v>21.26588885056162</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.75717454250065</v>
+        <v>20.99312478034703</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.69683357815196</v>
+        <v>1.796376680329587</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.76352514555053</v>
+        <v>21.94177300893883</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.76392304793921</v>
+        <v>23.1962978756176</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.71110958001903</v>
+        <v>4.876836342356988</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.78725375450903</v>
+        <v>30.12402508195898</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.79302065976551</v>
+        <v>31.39700004235842</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.80196229874548</v>
+        <v>33.77393652469189</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.8125397808689</v>
+        <v>38.26262971759989</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.82023481564859</v>
+        <v>41.79885828270849</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.73519607327906</v>
+        <v>18.30894552410084</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.79526512974083</v>
+        <v>27.48653491890355</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.8014162110359</v>
+        <v>29.82482290250367</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.73249782532656</v>
+        <v>14.35423657593324</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.79437690080669</v>
+        <v>30.77492809215403</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.81434409473128</v>
+        <v>35.79720688983156</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.70030139568034</v>
+        <v>6.762606234601826</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.80049643626428</v>
+        <v>31.55829205346388</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.82553006096586</v>
+        <v>41.50875621013623</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.70907325929328</v>
+        <v>7.987929126731135</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.84057844987669</v>
+        <v>51.10030637172778</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.88460591759781</v>
+        <v>59.99853953747294</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.87723949412554</v>
+        <v>50.18217181739219</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.90614708202191</v>
+        <v>55.26939100460947</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.93333645322683</v>
+        <v>63.31066968576438</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.73171897004669</v>
+        <v>14.00175421093672</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.90283091424354</v>
+        <v>56.4240454416321</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.92773342033743</v>
+        <v>61.61199196498788</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.76012661358604</v>
+        <v>22.34859992372119</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.8320281717482</v>
+        <v>40.90639285270424</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.85559264696343</v>
+        <v>46.65792444390212</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.71319039970382</v>
+        <v>9.511387470695329</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.85045303499482</v>
+        <v>42.55299178648195</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.87642134007098</v>
+        <v>52.02126094034503</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.7302566488996</v>
+        <v>16.9734726326841</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.90413230045148</v>
+        <v>67.61072471636879</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.95333015616935</v>
+        <v>76.51415948492867</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.00524447219652</v>
+        <v>74.0957232006771</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.02475293091765</v>
+        <v>75.06453301219541</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.06363073591647</v>
+        <v>88.65771306948955</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.79104548566541</v>
+        <v>31.85295660784168</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.00462084527072</v>
+        <v>73.52508531986572</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.03487480548478</v>
+        <v>87.64929786518216</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.74506708759266</v>
+        <v>15.11220755336734</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.75716358877219</v>
+        <v>17.52927006256617</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.76500301708353</v>
+        <v>19.44714967019485</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.72433111990048</v>
+        <v>-0.4189888339774654</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.78023457760094</v>
+        <v>20.58235514701865</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.78642153423948</v>
+        <v>21.90405082071183</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.72962844334101</v>
+        <v>2.93855760345259</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.79776114166049</v>
+        <v>27.01283920140202</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.80149811102421</v>
+        <v>31.79892553622493</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.81169582684472</v>
+        <v>42.1169783638034</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.82311336994932</v>
+        <v>52.90244525589639</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.83266933536715</v>
+        <v>60.34879620514077</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.76199530083932</v>
+        <v>18.29039799230454</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.80788664109396</v>
+        <v>31.94270723890146</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.82689260972455</v>
+        <v>33.31912369056973</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.7351707579117</v>
+        <v>7.53915143459448</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.7755132473606</v>
+        <v>15.49848768118985</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.79215376503482</v>
+        <v>34.1755065886321</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.71899469420283</v>
+        <v>7.124664296785571</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.78663657021698</v>
+        <v>15.39417813739139</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.81124526797724</v>
+        <v>57.91086320032599</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.7114810009074</v>
+        <v>0.2460437661629307</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.81068921731516</v>
+        <v>32.84606899464438</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.84216802364435</v>
+        <v>59.27749623343676</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.83711074720074</v>
+        <v>37.92755217202802</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.86602234664296</v>
+        <v>53.08037746857136</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.88743533307943</v>
+        <v>65.09454641267142</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.7405151908855</v>
+        <v>9.195603934201575</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.85630278558425</v>
+        <v>49.10403800669795</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.88522021156068</v>
+        <v>64.7467270172756</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.73937491660018</v>
+        <v>21.08505182950479</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.78863947339512</v>
+        <v>30.75817444496708</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.80739749025599</v>
+        <v>41.02108932901129</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.71761294927169</v>
+        <v>7.832917406427217</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.80990593757721</v>
+        <v>19.33685236496398</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.83560947945701</v>
+        <v>46.19488143482037</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.71213521032164</v>
+        <v>5.670659338384962</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.84655628496079</v>
+        <v>48.65103524129277</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.88220486057993</v>
+        <v>67.43383441368989</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.92230175991275</v>
+        <v>74.62142238307226</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.94543273011586</v>
+        <v>73.2814531884552</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.97504412956514</v>
+        <v>87.39150394428984</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.76495206622952</v>
+        <v>17.80642130251382</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.9167326692702</v>
+        <v>54.92070101875697</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.95100166441656</v>
+        <v>82.42052567935414</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.76529637926948</v>
+        <v>24.38552782725717</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.80019309885895</v>
+        <v>37.25054070109414</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.81246390157615</v>
+        <v>39.67865212341525</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.72162055013339</v>
+        <v>8.058165311999637</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.84363639501287</v>
+        <v>50.91417839057942</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.84339185685712</v>
+        <v>50.62642352898545</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.74579464285506</v>
+        <v>14.07292053578953</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.8875118921403</v>
+        <v>68.79058353181057</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.88549124374319</v>
+        <v>66.25479895724425</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.89366143880462</v>
+        <v>65.14643834540425</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.91635326895825</v>
+        <v>72.06535609372952</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.91900289835318</v>
+        <v>73.87333286192067</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.82813668499273</v>
+        <v>40.15780724348672</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.89998025680586</v>
+        <v>59.22280975633178</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.93338659609331</v>
+        <v>79.65634438729019</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.75624905805599</v>
+        <v>28.02094196682845</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.83085723443594</v>
+        <v>42.65141594447293</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.84052441490823</v>
+        <v>44.04314919068954</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.69546408309836</v>
+        <v>7.540289161647063</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.83530291600412</v>
+        <v>39.31753759177253</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.84431999187692</v>
+        <v>43.25382782289105</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.71147529680372</v>
+        <v>9.458835270858732</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.90460116390879</v>
+        <v>60.56630426449797</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.92450628116585</v>
+        <v>63.69757428938617</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.92800020052425</v>
+        <v>59.47025390081474</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.95657805268163</v>
+        <v>64.81490200597609</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.96570042778624</v>
+        <v>66.30819805781621</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.795205810426</v>
+        <v>30.34927507491095</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.9696079606516</v>
+        <v>69.38057186582873</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.98453185511572</v>
+        <v>69.77039549235404</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.76082124378011</v>
+        <v>27.45116688645684</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.8507632280321</v>
+        <v>45.14129348536164</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.86565191606126</v>
+        <v>47.26525608600021</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.6929840269562</v>
+        <v>8.849201109949</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.87433653014088</v>
+        <v>48.10197457765661</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.88798383602872</v>
+        <v>50.66471609222863</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.71421123862928</v>
+        <v>9.890375522304478</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.96333279997015</v>
+        <v>71.80332218994289</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.99094384805042</v>
+        <v>76.51270533635903</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.05874229457816</v>
+        <v>83.25658755926077</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.08984510802206</v>
+        <v>85.16842509465944</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.10039122213921</v>
+        <v>88.15661431648309</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.83962243783903</v>
+        <v>37.90693415054726</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.06700319574139</v>
+        <v>81.12230841969337</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.09187656517783</v>
+        <v>85.87969048078901</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.75289324293549</v>
+        <v>19.30792345456801</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.79904431772714</v>
+        <v>37.61915305180923</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.80858330295566</v>
+        <v>40.97859633485592</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.71977018082711</v>
+        <v>7.112305365527106</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.81984802497767</v>
+        <v>41.91314368494228</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.82354055848903</v>
+        <v>45.32140368351127</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.73323067811535</v>
+        <v>7.312367006296043</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.86633191779437</v>
+        <v>59.44157553265963</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.86815984416195</v>
+        <v>61.15859484888863</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.89879271023784</v>
+        <v>62.77481702133392</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.92045432918804</v>
+        <v>73.58509687826498</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.91669817452713</v>
+        <v>74.09246037945606</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.7581382527781</v>
+        <v>13.02781589677632</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.8838447003848</v>
+        <v>65.08944523953427</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.89881438002676</v>
+        <v>71.82874263431015</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.73077612777422</v>
+        <v>15.43990580455577</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.81747917425622</v>
+        <v>36.13424399818238</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.82814673623659</v>
+        <v>37.60852375995209</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.69294737078217</v>
+        <v>5.868399662672619</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.81734833902957</v>
+        <v>36.48514645100157</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.83220131815835</v>
+        <v>41.47381799162537</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.70159578646293</v>
+        <v>7.243392890230616</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.87989947634392</v>
+        <v>57.53722422487657</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.90750642917659</v>
+        <v>65.85595639883378</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.91783267458179</v>
+        <v>58.88498066325256</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.95734949418371</v>
+        <v>65.98000820564005</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.95653799122131</v>
+        <v>64.82874928110107</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.72351998030229</v>
+        <v>12.63777764151956</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.94542943731559</v>
+        <v>68.50080398872876</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.9654268609386</v>
+        <v>69.1439260200705</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.73530981722103</v>
+        <v>16.03734673484596</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.83980493482637</v>
+        <v>39.92533910871748</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.8575361743558</v>
+        <v>43.70973649742264</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.68939070739939</v>
+        <v>5.568189724682075</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.85326559785432</v>
+        <v>45.4154061986477</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.87325424079587</v>
+        <v>49.62557444523765</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.69635160225743</v>
+        <v>6.023538601917476</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.92850696795977</v>
+        <v>64.72257938006281</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.96353715498531</v>
+        <v>74.23627390283085</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.03664995254497</v>
+        <v>76.58150947073425</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.0706581440826</v>
+        <v>82.79581930598845</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.09035738091078</v>
+        <v>89.66418844462538</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.7578022183189</v>
+        <v>11.67631986196576</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.03113408635285</v>
+        <v>74.16095678198096</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.06703428553625</v>
+        <v>82.99036652015344</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.25234637903757</v>
+        <v>17.25234637903751</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.38270766642149</v>
+        <v>22.38270766642136</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.05225704287481</v>
+        <v>21.0522570428747</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.412757687281069</v>
+        <v>-1.412757687281093</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.28894028474455</v>
+        <v>22.28894028474473</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.06876861334281</v>
+        <v>22.06876861334268</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.837071020310216</v>
+        <v>2.837071020310233</v>
       </c>
     </row>
     <row r="9">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.19474356702561</v>
+        <v>29.1947435670256</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.93630822892288</v>
+        <v>30.93630822892289</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.44369372075969</v>
+        <v>37.4436937207598</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.15465218609164</v>
+        <v>41.15465218609156</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.25475833892629</v>
+        <v>14.25475833892627</v>
       </c>
     </row>
     <row r="15">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.54865126674676</v>
+        <v>25.54865126674674</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.63559833664126</v>
+        <v>20.63559833664135</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39.17960703258613</v>
+        <v>39.17960703258616</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.75499875951679</v>
+        <v>44.75499875951682</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.919398716374886</v>
+        <v>6.919398716374833</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.66565227767251</v>
+        <v>35.66565227767245</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>49.87276165603158</v>
+        <v>49.87276165603153</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.342846623799275</v>
+        <v>8.342846623799232</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60.73257100029274</v>
+        <v>60.73257100029271</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.02541340465145</v>
+        <v>74.02541340465153</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.07048584546118</v>
+        <v>61.07048584546116</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73.35437659814086</v>
+        <v>73.35437659814093</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>82.06855508487116</v>
+        <v>82.06855508487129</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.09030401553865</v>
+        <v>21.09030401553867</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>81.16557398783269</v>
+        <v>81.16557398783245</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>84.19830060929287</v>
+        <v>84.19830060929274</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.17912797069286</v>
+        <v>31.17912797069275</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.34087067559555</v>
+        <v>51.34087067559543</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53.28577294269325</v>
+        <v>53.28577294269315</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.46022300171445</v>
+        <v>10.46022300171449</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.57996213448186</v>
+        <v>44.57996213448183</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.83120052615461</v>
+        <v>52.83120052615457</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.06325365232727</v>
+        <v>17.06325365232711</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>79.89433382482532</v>
+        <v>79.89433382482524</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>80.00192701340451</v>
+        <v>80.00192701340457</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>89.7755089791499</v>
+        <v>89.77550897914979</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>99.1176008562842</v>
+        <v>99.11760085628435</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>102.1773138070583</v>
+        <v>102.1773138070584</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.25235879330224</v>
+        <v>40.25235879330231</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100.2772871438687</v>
+        <v>100.2772871438684</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100.62452152403</v>
+        <v>100.6245215240298</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.417904645851092</v>
+        <v>9.417904645851134</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.25023920755716</v>
+        <v>43.25023920755719</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.10580937462496</v>
+        <v>42.10580937462504</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.392856430030239</v>
+        <v>2.392856430030275</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.05596285970082</v>
+        <v>47.05596285970083</v>
       </c>
     </row>
     <row r="52">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.22293548278563</v>
+        <v>3.222935482785612</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.49968891224043</v>
+        <v>67.4996889122405</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.55409185944789</v>
+        <v>67.55409185944794</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.00009407799247</v>
+        <v>64.00009407799257</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>70.11683138102589</v>
+        <v>70.11683138102596</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>71.33240314553882</v>
+        <v>71.33240314553879</v>
       </c>
     </row>
     <row r="59">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>65.79003944167778</v>
+        <v>65.79003944167783</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.45278345153083</v>
+        <v>66.45278345153075</v>
       </c>
     </row>
     <row r="62">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.95107238084493</v>
+        <v>42.95107238084501</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.65396527654863</v>
+        <v>47.65396527654859</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.647985420475479</v>
+        <v>5.647985420475433</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>39.79378959550615</v>
+        <v>39.79378959550623</v>
       </c>
     </row>
     <row r="67">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.768674033031143</v>
+        <v>7.7686740330311</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>65.05313568744945</v>
+        <v>65.0531356874494</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>79.70051458521121</v>
+        <v>79.70051458521132</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>63.41183277108547</v>
+        <v>63.4118327710855</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>75.54661316713906</v>
+        <v>75.54661316713897</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>78.67355776458592</v>
+        <v>78.67355776458585</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.828298119116589</v>
+        <v>9.828298119116582</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75.16590912919727</v>
+        <v>75.16590912919712</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>80.13163636214803</v>
+        <v>80.1316363621478</v>
       </c>
     </row>
     <row r="77">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.16009959674557</v>
+        <v>48.16009959674565</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.91447691843823</v>
+        <v>49.9144769184383</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.113017999278288</v>
+        <v>4.113017999278316</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.6461712044219</v>
+        <v>50.64617120442198</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.10045031791937</v>
+        <v>57.10045031791928</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.366169380038581</v>
+        <v>6.366169380038567</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>81.73186156917779</v>
+        <v>81.73186156917784</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>89.35857012677883</v>
+        <v>89.35857012677889</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>88.2416008360106</v>
+        <v>88.24160083601042</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>99.49434868153217</v>
+        <v>99.49434868153213</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>98.61657875977674</v>
+        <v>98.61657875977673</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.12773192645827</v>
+        <v>10.12773192645833</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>91.92378438473342</v>
+        <v>91.92378438473335</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>93.36819344419368</v>
+        <v>93.36819344419376</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.06703907078986</v>
+        <v>36.06703907078992</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>47.07892771770152</v>
+        <v>47.07892771770145</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.80956164638259</v>
+        <v>47.80956164638262</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.793824440457289</v>
+        <v>7.793824440457339</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.3814520732832</v>
+        <v>47.38145207328323</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.43205270158261</v>
+        <v>47.43205270158266</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.262899728164864</v>
+        <v>9.262899728164868</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69.02087020257663</v>
+        <v>69.02087020257655</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>64.1483092155252</v>
+        <v>64.14830921552523</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>63.99320889733511</v>
+        <v>63.99320889733518</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.20170057328806</v>
+        <v>75.20170057328818</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>73.03274114280191</v>
+        <v>73.03274114280185</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.91769576440525</v>
+        <v>28.91769576440526</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>65.14764611414786</v>
+        <v>65.14764611414792</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.32815647418293</v>
+        <v>65.32815647418298</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.92647131931674</v>
+        <v>26.92647131931672</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>48.43722647940847</v>
+        <v>48.43722647940857</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.54474909660496</v>
+        <v>50.54474909660493</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.785455706543242</v>
+        <v>7.785455706543274</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.93985447410181</v>
+        <v>44.93985447410195</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.99749773035678</v>
+        <v>49.99749773035685</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.638451663488325</v>
+        <v>9.638451663488279</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>70.79100929066215</v>
+        <v>70.79100929066196</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>80.08456310152469</v>
+        <v>80.08456310152482</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>67.61251219381195</v>
+        <v>67.61251219381199</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.54274645606662</v>
+        <v>80.54274645606647</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>79.83266111643026</v>
+        <v>79.83266111643033</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.31486258984224</v>
+        <v>29.3148625898423</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>78.17353005839972</v>
+        <v>78.17353005839945</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>78.40719917083349</v>
+        <v>78.40719917083352</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.44934191249852</v>
+        <v>35.44934191249853</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>54.81603305244896</v>
+        <v>54.81603305244899</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.53002530876711</v>
+        <v>54.53002530876715</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.349990396095823</v>
+        <v>8.349990396095887</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>56.09979961009073</v>
+        <v>56.09979961009081</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.36957048938369</v>
+        <v>58.36957048938359</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.53491513701687</v>
+        <v>10.53491513701689</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>83.68545932971331</v>
+        <v>83.68545932971323</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>85.95297533669316</v>
+        <v>85.9529753366931</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>92.84161602236216</v>
+        <v>92.84161602236205</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>98.31053289005291</v>
+        <v>98.31053289005285</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.0971218183912</v>
+        <v>100.0971218183911</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.99993000945744</v>
+        <v>37.99993000945736</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>95.37110209585033</v>
+        <v>95.3711020958503</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>93.74483966619141</v>
+        <v>93.74483966619135</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.70078603342403</v>
+        <v>17.70078603342401</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.81471590363244</v>
+        <v>23.81471590363248</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.06905121305692</v>
+        <v>24.06905121305695</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1687003398779012</v>
+        <v>0.1687003398779865</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.43543128278433</v>
+        <v>23.43543128278428</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.54723645363633</v>
+        <v>25.54723645363624</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.327711773219342</v>
+        <v>5.327711773219296</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.72604164733277</v>
+        <v>32.72604164733271</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.00465773106063</v>
+        <v>33.00465773106053</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.9671262154611</v>
+        <v>36.96712621546108</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.93982210515593</v>
+        <v>40.9398221051559</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>46.51207174807085</v>
+        <v>46.51207174807101</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>66.23585174080441</v>
+        <v>66.23585174080421</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>72.08743530089708</v>
+        <v>72.08743530089696</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.46280274822909</v>
+        <v>64.46280274822882</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.63905046029013</v>
+        <v>16.63905046029022</v>
       </c>
     </row>
     <row r="153">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.925120741373249</v>
+        <v>6.925120741373199</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>42.64176788250573</v>
+        <v>42.64176788250566</v>
       </c>
     </row>
     <row r="157">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.21904667373624</v>
+        <v>16.21904667373619</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>67.47434798528252</v>
+        <v>67.47434798528269</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>77.74112418654664</v>
+        <v>77.74112418654668</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>61.05704983930231</v>
+        <v>61.05704983930225</v>
       </c>
     </row>
     <row r="162">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.77219402137391</v>
+        <v>18.7721940213738</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>74.75319067614342</v>
+        <v>74.75319067614326</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>81.27691260223288</v>
+        <v>81.27691260223298</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.90361283878919</v>
+        <v>29.90361283878928</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.0801085523894</v>
+        <v>49.08010855238939</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.9805685034477</v>
+        <v>50.98056850344772</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.27598809511066</v>
+        <v>10.27598809511067</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>47.18226358583203</v>
+        <v>47.18226358583205</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>55.452404825874</v>
+        <v>55.45240482587401</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.45342059407713</v>
+        <v>19.45342059407715</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>76.70891582696127</v>
+        <v>76.70891582696103</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>82.78358944737565</v>
+        <v>82.78358944737552</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>84.15080960834062</v>
+        <v>84.15080960834057</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>87.24501509007425</v>
+        <v>87.24501509007412</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>97.59295408449115</v>
+        <v>97.59295408449101</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.52370940912768</v>
+        <v>42.52370940912781</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>92.3969734760515</v>
+        <v>92.39697347605136</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>97.12533763183792</v>
+        <v>97.12533763183801</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.99763491724186</v>
+        <v>28.99763491724189</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.50809268761414</v>
+        <v>49.50809268761418</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.09175456757818</v>
+        <v>45.09175456757811</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.627144393368955</v>
+        <v>8.627144393369107</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.50803518922784</v>
+        <v>50.50803518922785</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>53.28866126170454</v>
+        <v>53.28866126170468</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.35635925805496</v>
+        <v>11.35635925805504</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>80.28091240848619</v>
+        <v>80.28091240848593</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.07327199015951</v>
+        <v>68.07327199015955</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>61.42333554361763</v>
+        <v>61.42333554361785</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>76.08724621868862</v>
+        <v>76.08724621868856</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>78.66780095241884</v>
+        <v>78.66780095241913</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.16482593608063</v>
+        <v>22.16482593608068</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.861024767167407</v>
+        <v>6.861024767167581</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>6.788739245262278</v>
+        <v>6.788739245262406</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.83140978759068</v>
+        <v>33.83140978759072</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>52.46829087247498</v>
+        <v>52.46829087247513</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>51.01575097388171</v>
+        <v>51.01575097388174</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.830021081067024</v>
+        <v>7.830021081067013</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>48.22131842484543</v>
+        <v>48.22131842484546</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.03468422294952</v>
+        <v>56.03468422294962</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.37381539092347</v>
+        <v>13.37381539092351</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>79.06728369619086</v>
+        <v>79.0672836961909</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>79.42969324037561</v>
+        <v>79.42969324037558</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>75.50539559213679</v>
+        <v>75.50539559213684</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>85.1387785380318</v>
+        <v>85.13877853803193</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>87.11663397203944</v>
+        <v>87.11663397203952</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.49353138577423</v>
+        <v>44.49353138577429</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>84.50209239163742</v>
+        <v>84.50209239163749</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.8877125618901</v>
+        <v>38.88771256189001</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.10983090154451</v>
+        <v>58.10983090154438</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.36665557128325</v>
+        <v>56.36665557128323</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.628079723600816</v>
+        <v>8.628079723600901</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.53463232999717</v>
+        <v>50.53463232999713</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.73994551812023</v>
+        <v>56.73994551812021</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.44136750597708</v>
+        <v>12.4413675059771</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>83.24719962812337</v>
+        <v>83.24719962812345</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>87.49014036466549</v>
+        <v>87.49014036466551</v>
       </c>
     </row>
     <row r="220">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>98.10938619044025</v>
+        <v>98.10938619044049</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>101.9795113352857</v>
+        <v>101.9795113352858</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.35688187148452</v>
+        <v>58.35688187148462</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>98.60567439192376</v>
+        <v>98.60567439192361</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>100.8407426297658</v>
+        <v>100.8407426297659</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.74134721454686</v>
+        <v>24.74134721454687</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.3581790703362</v>
+        <v>41.35817907033624</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.06908101953486</v>
+        <v>43.06908101953481</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5.842188055648009</v>
+        <v>5.842188055648045</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.10113033718729</v>
+        <v>46.10113033718739</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.53166739802376</v>
+        <v>47.53166739802383</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.312520115610315</v>
+        <v>8.312520115610301</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>72.30355426335426</v>
+        <v>72.30355426335433</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>67.38210377374961</v>
+        <v>67.38210377374965</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.86126687350578</v>
+        <v>59.86126687350576</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>70.58564725403259</v>
+        <v>70.58564725403252</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.59522897089771</v>
+        <v>14.59522897089758</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.771831747168683</v>
+        <v>5.771831747168751</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.101814954046301</v>
+        <v>5.101814954046361</v>
       </c>
     </row>
     <row r="241">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.67707865981395</v>
+        <v>53.677078659814</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.2539014383927</v>
+        <v>53.25390143839276</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.387391674937614</v>
+        <v>7.387391674937611</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>49.30640199760099</v>
+        <v>49.30640199760096</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>51.51613366770126</v>
+        <v>51.51613366770128</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.515097740509091</v>
+        <v>9.515097740509106</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>76.01382437892948</v>
+        <v>76.01382437892943</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>78.97325056212949</v>
+        <v>78.97325056212944</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.32744305352922</v>
+        <v>69.32744305352939</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.60064476164401</v>
+        <v>81.60064476164396</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>84.31624044474256</v>
+        <v>84.31624044474249</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.11977266455546</v>
+        <v>30.11977266455548</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>83.36933251603837</v>
+        <v>83.36933251603834</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>84.65142959636431</v>
+        <v>84.65142959636432</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.99960085932006</v>
+        <v>28.99960085932002</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>55.15407462964588</v>
+        <v>55.15407462964595</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>56.02558890194467</v>
+        <v>56.02558890194469</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.102356959822544</v>
+        <v>8.102356959822622</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>51.88419856198207</v>
+        <v>51.8841985619821</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.96832598362728</v>
+        <v>56.96832598362727</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.12847672863806</v>
+        <v>10.12847672863802</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>80.88527016381734</v>
+        <v>80.8852701638173</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>84.72845574570212</v>
+        <v>84.72845574570206</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>84.11553501498699</v>
+        <v>84.11553501498688</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>93.7427654679305</v>
+        <v>93.74276546793047</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>96.64875090888806</v>
+        <v>96.64875090888798</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.42891895968982</v>
+        <v>32.42891895968978</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>91.59942787347129</v>
+        <v>91.59942787347131</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>90.57806006633471</v>
+        <v>90.57806006633476</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.26058086871452</v>
+        <v>12.26058086871454</v>
       </c>
     </row>
     <row r="272">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.921421684704157</v>
+        <v>-0.9214216847041286</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.92440759825119</v>
+        <v>18.92440759825112</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.28638045295275</v>
+        <v>19.28638045295273</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1.467600306645544</v>
+        <v>1.467600306645473</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.29898266018054</v>
+        <v>24.29898266018048</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.13227152320904</v>
+        <v>25.13227152320902</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.09244943761572</v>
+        <v>31.09244943761567</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.36221540448771</v>
+        <v>39.36221540448764</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.1090338109406</v>
+        <v>39.10903381094052</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.32083777180004</v>
+        <v>12.3208377718</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.81622976783393</v>
+        <v>25.81622976783397</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.23320204551812</v>
+        <v>22.23320204551813</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.06795493234617</v>
+        <v>15.06795493234615</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.13988791552349</v>
+        <v>32.13988791552354</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.25804037927145</v>
+        <v>37.2580403792715</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.379868939690805</v>
+        <v>5.379868939690795</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.43048848045137</v>
+        <v>30.43048848045139</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.4043729320208</v>
+        <v>40.40437293202076</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.440444413372859</v>
+        <v>7.440444413372852</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.71541576552217</v>
+        <v>48.71541576552224</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.74308753448616</v>
+        <v>58.74308753448623</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.91037704607677</v>
+        <v>47.91037704607678</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.36782155494707</v>
+        <v>57.3678215549471</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>61.45124192154537</v>
+        <v>61.4512419215454</v>
       </c>
     </row>
     <row r="298">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.51658978446523</v>
+        <v>58.5165897844652</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>61.63025925827174</v>
+        <v>61.63025925827182</v>
       </c>
     </row>
     <row r="301">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.96958095693215</v>
+        <v>39.96958095693211</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.10425695954689</v>
+        <v>46.1042569595469</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.493961162804943</v>
+        <v>8.493961162804951</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.95029143632767</v>
+        <v>43.95029143632774</v>
       </c>
     </row>
     <row r="306">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>12.50669746266399</v>
+        <v>12.50669746266394</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.57707825330719</v>
+        <v>68.57707825330714</v>
       </c>
     </row>
     <row r="309">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>79.15955626230115</v>
+        <v>79.15955626230118</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>87.7938179040631</v>
+        <v>87.79381790406309</v>
       </c>
     </row>
     <row r="312">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.76687891127725</v>
+        <v>34.7668789112773</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>84.15154997347166</v>
+        <v>84.1515499734717</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>89.68585891247706</v>
+        <v>89.68585891247704</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>10.34927751234002</v>
+        <v>10.34927751234004</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.48717251741335</v>
+        <v>16.48717251741338</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.7660100837592</v>
+        <v>14.76601008375921</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.645142799302544</v>
+        <v>-2.645142799302459</v>
       </c>
     </row>
     <row r="320">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.56744763132352</v>
+        <v>18.56744763132355</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.8358125548327457</v>
+        <v>-0.8358125548326498</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.33029304936888</v>
+        <v>19.33029304936886</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.32606728278302</v>
+        <v>18.32606728278307</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.47617470184948</v>
+        <v>17.47617470184938</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.38633241123297</v>
+        <v>26.38633241123309</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>23.97645807330562</v>
+        <v>23.97645807330577</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.932505518790109</v>
+        <v>9.932505518790165</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.88494409083086</v>
+        <v>16.88494409083068</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.654774210437129</v>
+        <v>9.654774210436802</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>2.211982783187445</v>
+        <v>2.211982783187405</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.311546332637054</v>
+        <v>9.311546332637</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.15166275783476</v>
+        <v>14.15166275783473</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.628793510372123</v>
+        <v>-4.628793510372137</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.34462731793669</v>
+        <v>10.34462731793674</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.74196183501438</v>
+        <v>17.74196183501449</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-4.596294528837557</v>
+        <v>-4.596294528837529</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.13785863924382</v>
+        <v>18.13785863924375</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.2392764940746</v>
+        <v>29.23927649407457</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.84036781218002</v>
+        <v>11.84036781218023</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.11880553988318</v>
+        <v>35.11880553988316</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.85239996902115</v>
+        <v>43.85239996902122</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-0.2306707573142965</v>
+        <v>-0.2306707573143285</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.26646797819242</v>
+        <v>25.26646797819244</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.02893367858677</v>
+        <v>20.02893367858688</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.822169032789848</v>
+        <v>5.822169032789844</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.96060279121911</v>
+        <v>17.96060279121921</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.11844171559834</v>
+        <v>33.11844171559835</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-3.324938008774634</v>
+        <v>-3.324938008774613</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.87458667005363</v>
+        <v>18.87458667005366</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.69438994400157</v>
+        <v>37.69438994400156</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.8393386983859372</v>
+        <v>-0.8393386983858022</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.9317825043399</v>
+        <v>31.93178250433992</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>69.96022983945964</v>
+        <v>69.96022983945966</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.21254417934998</v>
+        <v>22.21254417935003</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.77303172361037</v>
+        <v>59.77303172361042</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.37596680230679</v>
+        <v>77.37596680230661</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.464415411260468</v>
+        <v>5.46441541126055</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>43.32989246893825</v>
+        <v>43.32989246893801</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>55.24301866059104</v>
+        <v>55.24301866059103</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.61503855480239</v>
+        <v>19.61503855480242</v>
       </c>
     </row>
     <row r="362">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.358279236544522</v>
+        <v>7.358279236544579</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>50.26489455041865</v>
+        <v>50.26489455041862</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>51.11958607679765</v>
+        <v>51.1195860767977</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.1221948295927</v>
+        <v>11.12219482959271</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>69.45587660312023</v>
+        <v>69.45587660312017</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>70.0658074324742</v>
+        <v>70.06580743247433</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.35340296163717</v>
+        <v>67.35340296163724</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>76.61055910445299</v>
+        <v>76.61055910445295</v>
       </c>
     </row>
     <row r="372">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.07778867914363</v>
+        <v>45.07778867914361</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>67.2439736233453</v>
+        <v>67.24397362334537</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>78.81175438921662</v>
+        <v>78.81175438921659</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.93401971485032</v>
+        <v>20.93401971485034</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.46169772108907</v>
+        <v>39.46169772108905</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.62783839027144</v>
+        <v>41.62783839027151</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.898187354671382</v>
+        <v>5.898187354671478</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.52439760013854</v>
+        <v>38.52439760013856</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.70314685050637</v>
+        <v>41.70314685050631</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.776566244618149</v>
+        <v>8.776566244618124</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.33589770549524</v>
+        <v>61.33589770549523</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>67.47420264293444</v>
+        <v>67.47420264293451</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>57.86765661318867</v>
+        <v>57.86765661318873</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>66.07282231376436</v>
+        <v>66.07282231376441</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>66.88905237122594</v>
+        <v>66.8890523712259</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.10240775081136</v>
+        <v>31.10240775081142</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>70.74198988145524</v>
+        <v>70.74198988145514</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>69.25887363231604</v>
+        <v>69.25887363231618</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.16830131840882</v>
+        <v>23.16830131840886</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.92432416313528</v>
+        <v>40.92432416313532</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.3478527446162</v>
+        <v>45.34785274461619</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.278874152116956</v>
+        <v>8.278874152116952</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.73391299910877</v>
+        <v>48.73391299910882</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.65434739619769</v>
+        <v>52.65434739619774</v>
       </c>
     </row>
     <row r="397">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>75.89017322028133</v>
+        <v>75.89017322028118</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.22974338674057</v>
+        <v>80.22974338674061</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>80.49529233542937</v>
+        <v>80.49529233542941</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>87.07001785967752</v>
+        <v>87.07001785967746</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>88.55321212293806</v>
+        <v>88.55321212293805</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.9832889013968</v>
+        <v>37.98328890139673</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>87.94585331388926</v>
+        <v>87.94585331388937</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>88.39757104844325</v>
+        <v>88.39757104844328</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.15088039615835</v>
+        <v>7.150880396158311</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.5836598424464</v>
+        <v>15.58365984244645</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.245254376342256</v>
+        <v>-1.245254376342288</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.76260253895847</v>
+        <v>13.76260253895843</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.65004205806338</v>
+        <v>16.65004205806339</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-0.04501623489764128</v>
+        <v>-0.04501623489757733</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.2540013266669</v>
+        <v>21.25400132666694</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.61487604015654</v>
+        <v>22.61487604015644</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.46264348067989</v>
+        <v>24.46264348067991</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.21210009049377</v>
+        <v>29.21210009049378</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.52521849074948</v>
+        <v>32.52521849074947</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.228508969770751</v>
+        <v>3.228508969770839</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.94980649919762</v>
+        <v>20.94980649919763</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.46942804884488</v>
+        <v>23.46942804884493</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.677939291809817</v>
+        <v>8.677939291809878</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.07006995167735</v>
+        <v>25.07006995167734</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.71468459236221</v>
+        <v>30.71468459236227</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.083418250574013</v>
+        <v>4.083418250573999</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.43551087649899</v>
+        <v>24.43551087649903</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.80840114019606</v>
+        <v>32.80840114019603</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.628335857869736</v>
+        <v>5.628335857869754</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.5436181987643</v>
+        <v>40.54361819876439</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.37044937452013</v>
+        <v>49.37044937452012</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>37.9998649359935</v>
+        <v>37.99986493599356</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>44.82150131278742</v>
+        <v>44.8215013127875</v>
       </c>
     </row>
     <row r="432">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.281093279873659</v>
+        <v>8.281093279873669</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>45.25815680958288</v>
+        <v>45.25815680958296</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>50.33860900097046</v>
+        <v>50.33860900097059</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.11067269100927</v>
+        <v>19.11067269100926</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.44491691522323</v>
+        <v>36.44491691522322</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.67047330756095</v>
+        <v>42.67047330756093</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.20131121129698</v>
+        <v>11.20131121129699</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>38.41054899415277</v>
+        <v>38.41054899415278</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>47.03451112103561</v>
+        <v>47.03451112103554</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.93832942410534</v>
+        <v>18.93832942410539</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>59.04112746848251</v>
+        <v>59.04112746848255</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.53141428039586</v>
+        <v>68.53141428039584</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>66.49575521828294</v>
+        <v>66.49575521828301</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>75.34417981881028</v>
+        <v>75.34417981881035</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>85.57408896281224</v>
+        <v>85.57408896281235</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.91258926265776</v>
+        <v>25.91258926265768</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>70.59455788148756</v>
+        <v>70.59455788148749</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>77.43463808129658</v>
+        <v>77.4346380812966</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.294181049901621</v>
+        <v>4.294181049901535</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.4216072801416</v>
+        <v>5.421607280141636</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.579003964944512</v>
+        <v>6.579003964944491</v>
       </c>
     </row>
     <row r="454">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.945680822391932</v>
+        <v>7.945680822391996</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.68894030807697</v>
+        <v>11.68894030807701</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-4.016800075226353</v>
+        <v>-4.016800075226374</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.319508344802383</v>
+        <v>8.319508344802347</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.80421221364927</v>
+        <v>10.8042122136492</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.83268950598118</v>
+        <v>10.83268950598131</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.23466945748177</v>
+        <v>14.2346694574817</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.43113691641</v>
+        <v>19.43113691640995</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-0.7929788339720929</v>
+        <v>-0.7929788339720574</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.368338051875956</v>
+        <v>6.368338051875948</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.971224644423764</v>
+        <v>8.971224644423756</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.58100786173956</v>
+        <v>19.58100786173955</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.89324265881942</v>
+        <v>36.89324265881943</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.00974352812796</v>
+        <v>40.00974352812803</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.883741813125056</v>
+        <v>6.883741813125098</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.35874085133717</v>
+        <v>35.35874085133715</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.10108692937828</v>
+        <v>41.10108692937823</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.700477872296144</v>
+        <v>8.700477872296123</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.73881383272934</v>
+        <v>54.73881383272943</v>
       </c>
     </row>
     <row r="474">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.52412196029593</v>
+        <v>54.52412196029588</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.81079695157369</v>
+        <v>62.81079695157375</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.51356241669593</v>
+        <v>63.51356241669588</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.51061354786841</v>
+        <v>21.51061354786847</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>62.50586556432833</v>
+        <v>62.50586556432837</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>63.48818972290027</v>
+        <v>63.48818972290033</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70970650055328</v>
+        <v>26.70970650055329</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.77439480784665</v>
+        <v>46.7743948078467</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.25380403653112</v>
+        <v>50.25380403653111</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.453004486336116</v>
+        <v>8.453004486336045</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.30330644000066</v>
+        <v>51.3033064400007</v>
       </c>
     </row>
     <row r="486">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.07868936073596</v>
+        <v>10.07868936073598</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>73.55541166565104</v>
+        <v>73.55541166565101</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>77.19801319934865</v>
+        <v>77.19801319934867</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>83.02619334419319</v>
+        <v>83.02619334419316</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>92.45477639329654</v>
+        <v>92.45477639329653</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>90.9746549369672</v>
+        <v>90.97465493696711</v>
       </c>
     </row>
     <row r="493">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.71228035680664</v>
+        <v>83.71228035680669</v>
       </c>
     </row>
     <row r="496">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.77267165835039</v>
+        <v>18.77267165835037</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.80522018125134</v>
+        <v>18.80522018125141</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.747705776836618</v>
+        <v>-0.7477057768366393</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.72729405221776</v>
+        <v>17.72729405221779</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.8198084035177</v>
+        <v>18.81980840351763</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3.452440013934574</v>
+        <v>3.452440013934556</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.90936544886253</v>
+        <v>24.90936544886256</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.11431053878972</v>
+        <v>24.1143105387898</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.92368741400814</v>
+        <v>27.92368741400813</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.54118202539935</v>
+        <v>33.54118202539939</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.37052951972276</v>
+        <v>36.37052951972266</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.01553428067435</v>
+        <v>13.01553428067436</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.89878535087471</v>
+        <v>26.89878535087484</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.66185338352205</v>
+        <v>28.66185338352198</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.731427604600405</v>
+        <v>5.731427604600398</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.7783107537135</v>
+        <v>14.77831075371348</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.98213332837053</v>
+        <v>22.98213332837048</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.757815022647677</v>
+        <v>-2.757815022647648</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.83916265041093</v>
+        <v>11.83916265041098</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.02874374229554</v>
+        <v>23.02874374229553</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-2.018879652678045</v>
+        <v>-2.018879652678027</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.39744620118048</v>
+        <v>20.39744620118049</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.82874809623726</v>
+        <v>39.82874809623723</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.71556842508081</v>
+        <v>16.71556842508076</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.04113264942487</v>
+        <v>32.0411326494249</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.77264578130638</v>
+        <v>37.77264578130645</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.972502913386229</v>
+        <v>4.972502913386272</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.04933969863539</v>
+        <v>28.04933969863535</v>
       </c>
     </row>
     <row r="525">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.19413835259082</v>
+        <v>20.19413835259081</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.45961975835245</v>
+        <v>32.45961975835254</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.34336914600184</v>
+        <v>37.34336914600182</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.465382151833644</v>
+        <v>3.465382151833669</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.58356153288971</v>
+        <v>29.58356153288976</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.03407496710008</v>
+        <v>37.03407496710004</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.221723985629751</v>
+        <v>9.221723985629701</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>50.93154321190234</v>
+        <v>50.93154321190229</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.06890086053193</v>
+        <v>59.06890086053185</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.14234885306794</v>
+        <v>56.14234885306789</v>
       </c>
     </row>
     <row r="536">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.79729769561429</v>
+        <v>68.79729769561435</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>32.49383929743506</v>
+        <v>32.49383929743511</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>60.8644982977299</v>
+        <v>60.86449829773002</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>63.3456078614542</v>
+        <v>63.34560786145431</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.11985471799434</v>
+        <v>5.119854717994365</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.376087579268532</v>
+        <v>8.376087579268464</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.472613799523696</v>
+        <v>6.472613799523568</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.664548436044665</v>
+        <v>-3.664548436044623</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.946632613173289</v>
+        <v>6.946632613173378</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.498212458325597</v>
+        <v>8.498212458325572</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3.780368509243406</v>
+        <v>-3.780368509243505</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.297989782925761</v>
+        <v>8.297989782925768</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.749494088073945</v>
+        <v>7.749494088073853</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.54156234147881</v>
+        <v>10.54156234147882</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.39439198621344</v>
+        <v>11.39439198621346</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.83998488585632</v>
+        <v>15.83998488585624</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.687053822696875</v>
+        <v>3.6870538226969</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.607171114648168</v>
+        <v>9.607171114648207</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.43585043869818</v>
+        <v>11.43585043869819</v>
       </c>
     </row>
     <row r="556">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.647611641003607</v>
+        <v>6.647611641003518</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.473923266710617</v>
+        <v>7.473923266710468</v>
       </c>
     </row>
     <row r="559">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.431146888758505</v>
+        <v>4.43114688875843</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.802471735924581</v>
+        <v>9.802471735924541</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.616000879798076</v>
+        <v>-3.616000879798033</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.06162833235657</v>
+        <v>8.061628332356644</v>
       </c>
     </row>
     <row r="564">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.66295935900548</v>
+        <v>6.662959359005416</v>
       </c>
     </row>
     <row r="566">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.67260729171494</v>
+        <v>12.67260729171502</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.667072932436735</v>
+        <v>-3.667072932436678</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.743613593126071</v>
+        <v>9.743613593125922</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.55740509232444</v>
+        <v>11.55740509232425</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.13361167420276</v>
+        <v>19.13361167420275</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.57250999577833</v>
+        <v>25.57250999577832</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.38382460369426</v>
+        <v>27.38382460369421</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.843360791237483</v>
+        <v>2.843360791237526</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.07908149855522</v>
+        <v>22.07908149855525</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.37840328521829</v>
+        <v>27.37840328521839</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.650707821650528</v>
+        <v>9.650707821650492</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.42043530182532</v>
+        <v>35.42043530182528</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.90401041213658</v>
+        <v>38.90401041213657</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>44.50454099143383</v>
+        <v>44.50454099143386</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.11946607036236</v>
+        <v>45.11946607036233</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.67669507170864</v>
+        <v>48.6766950717086</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.19170694249175</v>
+        <v>25.19170694249173</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.82798874940988</v>
+        <v>38.82798874940995</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.83811665105114</v>
+        <v>42.83811665105112</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.0600571029138</v>
+        <v>22.06005710291374</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.34223427801118</v>
+        <v>35.3422342780112</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.83224677888266</v>
+        <v>35.8322467788827</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.869663187593545</v>
+        <v>4.869663187593652</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.23323811386365</v>
+        <v>32.23323811386361</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.347846907277</v>
+        <v>34.34784690727702</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.442433169223793</v>
+        <v>9.442433169223818</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.52592962805575</v>
+        <v>45.52592962805564</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.89144508679358</v>
+        <v>47.89144508679345</v>
       </c>
     </row>
     <row r="595">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>59.28774727874591</v>
+        <v>59.28774727874593</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>63.07832420178026</v>
+        <v>63.07832420178018</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.99817176087026</v>
+        <v>36.99817176087024</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>58.18323003292829</v>
+        <v>58.18323003292814</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>65.59667515930562</v>
+        <v>65.59667515930542</v>
       </c>
     </row>
     <row r="601">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.26036073143687</v>
+        <v>26.260360731437</v>
       </c>
     </row>
     <row r="603">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.94046395119386</v>
+        <v>19.94046395119404</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.15610442274744</v>
+        <v>26.15610442274742</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.7169735390849112</v>
+        <v>0.7169735390848651</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.25793685242857</v>
+        <v>39.2579368524285</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>43.3454500263709</v>
+        <v>43.34545002637092</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>41.72825521488407</v>
+        <v>41.72825521488411</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>48.50100686914803</v>
+        <v>48.50100686914818</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.54715993675242</v>
+        <v>49.54715993675232</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.41701987595958</v>
+        <v>22.41701987595955</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>55.00311007446626</v>
+        <v>55.00311007446628</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>57.65103061389959</v>
+        <v>57.65103061389965</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.53951722813142</v>
+        <v>27.53951722813135</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.48629390659218</v>
+        <v>42.48629390659231</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>48.64454931237941</v>
+        <v>48.64454931237936</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.813924765336861</v>
+        <v>8.813924765336843</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.59351796963006</v>
+        <v>37.59351796962994</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.53351201106669</v>
+        <v>44.53351201106683</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.6558398756294</v>
+        <v>13.65583987562951</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>65.98641534692921</v>
+        <v>65.98641534692918</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>71.26724430750457</v>
+        <v>71.26724430750447</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>82.31725575635403</v>
+        <v>82.31725575635404</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>84.68912213412874</v>
+        <v>84.68912213412887</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>86.00434720135087</v>
+        <v>86.00434720135095</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>42.57779398688874</v>
+        <v>42.57779398688881</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>78.74290971159365</v>
+        <v>78.74290971159355</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>87.05673059529904</v>
+        <v>87.05673059529907</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.87764797759901</v>
+        <v>18.87764797759906</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.30688919543547</v>
+        <v>39.30688919543552</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.94994618306956</v>
+        <v>40.94994618306957</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.809426872028794</v>
+        <v>8.809426872028872</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.94775691065945</v>
+        <v>45.94775691065948</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>46.88895773689634</v>
+        <v>46.88895773689639</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>11.42649489747774</v>
+        <v>11.42649489747773</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>63.16187264389427</v>
+        <v>63.1618726438942</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>63.90890599427451</v>
+        <v>63.90890599427453</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.47209993761824</v>
+        <v>71.47209993761831</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>76.56656930179093</v>
+        <v>76.56656930179102</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>77.07576940107168</v>
+        <v>77.07576940107165</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.56630482805874</v>
+        <v>21.56630482805879</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>68.49712130071637</v>
+        <v>68.49712130071657</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>70.05485464136174</v>
+        <v>70.05485464136179</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.3734107848508</v>
+        <v>16.37341078485085</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.62382837750435</v>
+        <v>36.6238283775044</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.79483359171567</v>
+        <v>40.79483359171568</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.681073181744775</v>
+        <v>6.681073181744818</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.84720967246709</v>
+        <v>34.84720967246712</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.4424879482858</v>
+        <v>41.44248794828577</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.593945196954504</v>
+        <v>7.593945196954511</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.82479388074321</v>
+        <v>53.82479388074329</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>64.11578664972777</v>
+        <v>64.11578664972789</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.40331539302098</v>
+        <v>54.40331539302096</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>62.79334778123368</v>
+        <v>62.79334778123372</v>
       </c>
     </row>
     <row r="657">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>64.00049501543361</v>
+        <v>64.00049501543347</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>67.7298522905385</v>
+        <v>67.72985229053853</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.77539685263545</v>
+        <v>18.77539685263544</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.26313306986533</v>
+        <v>42.26313306986538</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.68747501712734</v>
+        <v>46.68747501712745</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.878816356253473</v>
+        <v>6.878816356253541</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.56174118548041</v>
+        <v>44.56174118548044</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>50.58580908737684</v>
+        <v>50.58580908737679</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.273318626723295</v>
+        <v>7.273318626723245</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>65.08689984840531</v>
+        <v>65.0868998484053</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>75.15423161924723</v>
+        <v>75.1542316192472</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>79.44763969377155</v>
+        <v>79.44763969377166</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>86.33757477336258</v>
+        <v>86.33757477336243</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>91.65237772870789</v>
+        <v>91.65237772870796</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.0613656858876</v>
+        <v>21.06136568588767</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>79.88227533368691</v>
+        <v>79.88227533368705</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>86.2665143923207</v>
+        <v>86.26651439232074</v>
       </c>
     </row>
     <row r="676">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.40549624354513</v>
+        <v>36.40549624354518</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.53892209230416</v>
+        <v>39.53892209230425</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.198936894801673</v>
+        <v>7.198936894801573</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.95119180680572</v>
+        <v>48.95119180680571</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.85538987342484</v>
+        <v>49.85538987342518</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.495637538667779</v>
+        <v>9.495637538667815</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>67.52639662581142</v>
+        <v>67.52639662581156</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.45089538246921</v>
+        <v>65.4508953824693</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>65.79639459133483</v>
+        <v>65.79639459133492</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>66.67093878754612</v>
+        <v>66.67093878754609</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>70.48666787575696</v>
+        <v>70.48666787575709</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.72636253360704</v>
+        <v>40.72636253360723</v>
       </c>
     </row>
     <row r="689">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>74.075959460796</v>
+        <v>74.07595946079579</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.89117557827162</v>
+        <v>24.89117557827159</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.83051339577091</v>
+        <v>39.83051339577099</v>
       </c>
     </row>
     <row r="693">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.472517705859062</v>
+        <v>4.47251770585903</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.01295538774033</v>
+        <v>36.01295538774041</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.18167581088854</v>
+        <v>43.18167581088859</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>4.883844369926628</v>
+        <v>4.88384436992661</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>60.45940872125381</v>
+        <v>60.45940872125367</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.91870995389813</v>
+        <v>68.91870995389816</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>59.67865717292099</v>
+        <v>59.67865717292106</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>67.98287472018878</v>
+        <v>67.98287472018897</v>
       </c>
     </row>
     <row r="702">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.54378031482428</v>
+        <v>27.54378031482431</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>73.62233870494147</v>
+        <v>73.62233870494121</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>75.50478086340179</v>
+        <v>75.50478086340213</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.46857129092326</v>
+        <v>27.46857129092325</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.09414609961095</v>
+        <v>46.09414609961097</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>47.86178092258876</v>
+        <v>47.86178092258881</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.636256940645463</v>
+        <v>5.63625694064562</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.70314942886585</v>
+        <v>44.70314942886597</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.3285381073682</v>
+        <v>49.32853810736816</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.053591765940364</v>
+        <v>6.053591765940233</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>72.91434871719447</v>
+        <v>72.9143487171943</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>76.74801884055026</v>
+        <v>76.74801884055044</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>84.59475920358777</v>
+        <v>84.59475920358771</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>90.70775007008076</v>
+        <v>90.70775007008102</v>
       </c>
     </row>
     <row r="717">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.46313391083688</v>
+        <v>30.46313391083695</v>
       </c>
     </row>
     <row r="719">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>88.60246269858523</v>
+        <v>88.60246269858537</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.41470127990205</v>
+        <v>25.41470127990202</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.11053700533802</v>
+        <v>34.11053700533798</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.51609283753096</v>
+        <v>39.51609283753108</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.92346270247883</v>
+        <v>13.92346270247882</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>62.50346187571293</v>
+        <v>62.50346187571296</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>60.22565214604997</v>
+        <v>60.22565214604978</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.3264204925636</v>
+        <v>13.32642049256363</v>
       </c>
     </row>
     <row r="728">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>68.24061780449624</v>
+        <v>68.24061780449617</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>72.94186259126153</v>
+        <v>72.9418625912614</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>75.41079827871117</v>
+        <v>75.41079827871113</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>75.69325412707128</v>
+        <v>75.6932541270714</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>52.36587624924287</v>
+        <v>52.36587624924289</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>66.37058196541373</v>
+        <v>66.37058196541376</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>73.04246057469993</v>
+        <v>73.04246057469992</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.77503027131842</v>
+        <v>26.77503027131838</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.14962010089848</v>
+        <v>35.14962010089852</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>41.17775639515652</v>
+        <v>41.17775639515659</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.58036037418653</v>
+        <v>35.58036037418659</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.89156070346093</v>
+        <v>53.89156070346094</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.5583142170205</v>
+        <v>59.55831421702035</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.10891517841233</v>
+        <v>10.10891517841229</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>56.85177802062876</v>
+        <v>56.85177802062866</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>63.91675184787064</v>
+        <v>63.9167518478706</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.8396528396281</v>
+        <v>56.83965283962819</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>64.83348696787961</v>
+        <v>64.83348696787976</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>65.11601431399573</v>
+        <v>65.11601431399569</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.73328828072997</v>
+        <v>31.73328828073011</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>68.85548074810704</v>
+        <v>68.85548074810737</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>73.69386620175511</v>
+        <v>73.6938662017552</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.25158440332908</v>
+        <v>31.25158440332902</v>
       </c>
     </row>
     <row r="752">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.52773398089549</v>
+        <v>47.52773398089555</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.65113053070598</v>
+        <v>37.65113053070606</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.13961137414945</v>
+        <v>64.13961137414944</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.86711244593025</v>
+        <v>64.86711244593015</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.54898419520665</v>
+        <v>10.54898419520667</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>72.20802060325776</v>
+        <v>72.20802060325785</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>75.30913055386584</v>
+        <v>75.30913055386573</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>95.23072869262097</v>
+        <v>95.23072869262114</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>90.34344784641615</v>
+        <v>90.34344784641628</v>
       </c>
     </row>
     <row r="762">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.24824466135721</v>
+        <v>40.24824466135704</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>88.05815943856584</v>
+        <v>88.05815943856587</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.20440995491316</v>
+        <v>92.20440995491326</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.29187820284022</v>
+        <v>20.29187820284025</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.96152969439427</v>
+        <v>38.96152969439429</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.12826118454633</v>
+        <v>44.12826118454644</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.464124021092719</v>
+        <v>5.464124021092712</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.71919068963836</v>
+        <v>35.7191906896384</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>45.62223473624173</v>
+        <v>45.62223473624179</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.206723150640091</v>
+        <v>6.206723150640077</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>59.54760228268546</v>
+        <v>59.54760228268555</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.81667402317049</v>
+        <v>62.81667402317058</v>
       </c>
     </row>
     <row r="775">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.88279453429453</v>
+        <v>74.88279453429439</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.91044802351981</v>
+        <v>12.91044802351986</v>
       </c>
     </row>
     <row r="779">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>70.97161909938032</v>
+        <v>70.97161909938029</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.24650070017046</v>
+        <v>16.24650070017051</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.76111811469509</v>
+        <v>37.76111811469514</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.98816421222392</v>
+        <v>38.98816421222394</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.477642458272658</v>
+        <v>4.477642458272708</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.11123400900173</v>
+        <v>36.11123400900178</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.3040290669005</v>
+        <v>39.30402906690058</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.967256814333339</v>
+        <v>4.967256814333364</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.27009567591684</v>
+        <v>57.27009567591682</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>62.40725794509234</v>
+        <v>62.40725794509243</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>55.22313796884359</v>
+        <v>55.22313796884373</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>62.45333378703438</v>
+        <v>62.45333378703448</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>62.33480076544623</v>
+        <v>62.33480076544637</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.87409890624053</v>
+        <v>10.87409890624055</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>52.66191862306152</v>
+        <v>52.66191862306154</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>66.85828025449605</v>
+        <v>66.85828025449614</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.45415106392815</v>
+        <v>16.45415106392819</v>
       </c>
     </row>
     <row r="797">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.7001108425052</v>
+        <v>44.70011084250521</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.730907048161193</v>
+        <v>2.730907048161225</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.40316999934826</v>
+        <v>44.4031699993484</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.57143698960376</v>
+        <v>48.5714369896038</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.42631207257482</v>
+        <v>3.426312072574831</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>66.03603157946596</v>
+        <v>66.03603157946598</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>73.61549178795914</v>
+        <v>73.61549178795909</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>79.63838658242705</v>
+        <v>79.63838658242717</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>84.32019153162223</v>
+        <v>84.32019153162224</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>89.67757398765475</v>
+        <v>89.67757398765492</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.224451528778324</v>
+        <v>5.224451528778328</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>79.43568177882571</v>
+        <v>79.43568177882588</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>85.10462419473696</v>
+        <v>85.10462419473704</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.68333280048191</v>
+        <v>15.68333280048189</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.26588885056162</v>
+        <v>21.26588885056163</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.99312478034703</v>
+        <v>20.99312478034702</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>1.796376680329587</v>
+        <v>1.796376680329583</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.94177300893883</v>
+        <v>21.9417730089387</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.1962978756176</v>
+        <v>23.19629787561757</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>4.876836342356988</v>
+        <v>4.876836342356974</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.12402508195898</v>
+        <v>30.12402508195894</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.39700004235842</v>
+        <v>31.39700004235844</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.77393652469189</v>
+        <v>33.77393652469195</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.26262971759989</v>
+        <v>38.26262971760003</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.79885828270849</v>
+        <v>41.79885828270854</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.30894552410084</v>
+        <v>18.30894552410093</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.48653491890355</v>
+        <v>27.48653491890332</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.82482290250367</v>
+        <v>29.82482290250362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.35423657593324</v>
+        <v>14.35423657593321</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.77492809215403</v>
+        <v>30.77492809215396</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.79720688983156</v>
+        <v>35.79720688983157</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.762606234601826</v>
+        <v>6.762606234601801</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.55829205346388</v>
+        <v>31.55829205346386</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.50875621013623</v>
+        <v>41.50875621013622</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>7.987929126731135</v>
+        <v>7.987929126731117</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.10030637172778</v>
+        <v>51.10030637172782</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.99853953747294</v>
+        <v>59.99853953747282</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.18217181739219</v>
+        <v>50.18217181739201</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.26939100460947</v>
+        <v>55.26939100460929</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.31066968576438</v>
+        <v>63.31066968576449</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.00175421093672</v>
+        <v>14.00175421093674</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.4240454416321</v>
+        <v>56.42404544163206</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>61.61199196498788</v>
+        <v>61.61199196498785</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.34859992372119</v>
+        <v>22.3485999237212</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.90639285270424</v>
+        <v>40.90639285270422</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>46.65792444390212</v>
+        <v>46.65792444390213</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.511387470695329</v>
+        <v>9.511387470695343</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.55299178648195</v>
+        <v>42.55299178648205</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>52.02126094034503</v>
+        <v>52.02126094034504</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.9734726326841</v>
+        <v>16.97347263268408</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>67.61072471636879</v>
+        <v>67.61072471636868</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>76.51415948492867</v>
+        <v>76.51415948492864</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>74.0957232006771</v>
+        <v>74.09572320067704</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>75.06453301219541</v>
+        <v>75.06453301219534</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.65771306948955</v>
+        <v>88.65771306948947</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.85295660784168</v>
+        <v>31.85295660784166</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.52508531986572</v>
+        <v>73.52508531986564</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>87.64929786518216</v>
+        <v>87.64929786518228</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.11220755336734</v>
+        <v>15.11220755336721</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.52927006256617</v>
+        <v>17.52927006256613</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.44714967019485</v>
+        <v>19.44714967019478</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.4189888339774654</v>
+        <v>-0.4189888339774015</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.58235514701865</v>
+        <v>20.58235514701864</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.90405082071183</v>
+        <v>21.90405082071178</v>
       </c>
     </row>
     <row r="862">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.79892553622493</v>
+        <v>31.79892553622467</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.1169783638034</v>
+        <v>42.11697836380329</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>52.90244525589639</v>
+        <v>52.90244525589627</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>60.34879620514077</v>
+        <v>60.34879620514072</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.29039799230454</v>
+        <v>18.29039799230482</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.94270723890146</v>
+        <v>31.94270723890163</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.31912369056973</v>
+        <v>33.31912369056982</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.53915143459448</v>
+        <v>7.539151434594391</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.49848768118985</v>
+        <v>15.49848768118978</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.1755065886321</v>
+        <v>34.17550658863201</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.124664296785571</v>
+        <v>7.124664296785525</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.39417813739139</v>
+        <v>15.39417813739131</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>57.91086320032599</v>
+        <v>57.91086320032612</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.2460437661629307</v>
+        <v>0.2460437661629129</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.84606899464438</v>
+        <v>32.84606899464424</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.27749623343676</v>
+        <v>59.27749623343682</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.92755217202802</v>
+        <v>37.92755217202826</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>53.08037746857136</v>
+        <v>53.08037746857137</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>65.09454641267142</v>
+        <v>65.09454641267139</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.195603934201575</v>
+        <v>9.195603934201621</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>49.10403800669795</v>
+        <v>49.10403800669786</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>64.7467270172756</v>
+        <v>64.74672701727566</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.08505182950479</v>
+        <v>21.08505182950485</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.75817444496708</v>
+        <v>30.75817444496699</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.02108932901129</v>
+        <v>41.0210893290111</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.832917406427217</v>
+        <v>7.832917406427146</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.33685236496398</v>
+        <v>19.3368523649641</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.19488143482037</v>
+        <v>46.19488143482045</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.670659338384962</v>
+        <v>5.670659338385015</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.65103524129277</v>
+        <v>48.65103524129285</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.43383441368989</v>
+        <v>67.43383441368987</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>74.62142238307226</v>
+        <v>74.62142238307229</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>73.2814531884552</v>
+        <v>73.28145318845513</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>87.39150394428984</v>
+        <v>87.39150394428971</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.80642130251382</v>
+        <v>17.80642130251373</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>54.92070101875697</v>
+        <v>54.92070101875702</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>82.42052567935414</v>
+        <v>82.42052567935409</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.38552782725717</v>
+        <v>24.38552782725719</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>37.25054070109414</v>
+        <v>37.25054070109412</v>
       </c>
     </row>
     <row r="903">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.058165311999637</v>
+        <v>8.058165311999687</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.91417839057942</v>
+        <v>50.91417839057937</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.62642352898545</v>
+        <v>50.6264235289854</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.07292053578953</v>
+        <v>14.07292053578959</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>68.79058353181057</v>
+        <v>68.79058353181053</v>
       </c>
     </row>
     <row r="909">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.14643834540425</v>
+        <v>65.14643834540422</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>72.06535609372952</v>
+        <v>72.06535609372946</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>73.87333286192067</v>
+        <v>73.8733328619206</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.15780724348672</v>
+        <v>40.15780724348684</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>59.22280975633178</v>
+        <v>59.22280975633177</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>79.65634438729019</v>
+        <v>79.65634438729028</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.02094196682845</v>
+        <v>28.02094196682852</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.65141594447293</v>
+        <v>42.65141594447297</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.04314919068954</v>
+        <v>44.04314919068957</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.540289161647063</v>
+        <v>7.540289161647113</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.31753759177253</v>
+        <v>39.31753759177263</v>
       </c>
     </row>
     <row r="921">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.458835270858732</v>
+        <v>9.458835270858753</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.56630426449797</v>
+        <v>60.56630426449804</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.69757428938617</v>
+        <v>63.69757428938615</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.47025390081474</v>
+        <v>59.47025390081468</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>64.81490200597609</v>
+        <v>64.81490200597601</v>
       </c>
     </row>
     <row r="927">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.34927507491095</v>
+        <v>30.34927507491098</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>69.38057186582873</v>
+        <v>69.38057186582887</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>69.77039549235404</v>
+        <v>69.77039549235418</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.45116688645684</v>
+        <v>27.45116688645682</v>
       </c>
     </row>
     <row r="932">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.26525608600021</v>
+        <v>47.26525608600025</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.849201109949</v>
+        <v>8.849201109949043</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>48.10197457765661</v>
+        <v>48.1019745776565</v>
       </c>
     </row>
     <row r="936">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>9.890375522304478</v>
+        <v>9.890375522304527</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>71.80332218994289</v>
+        <v>71.80332218994293</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.51270533635903</v>
+        <v>76.5127053363591</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>83.25658755926077</v>
+        <v>83.25658755926074</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>85.16842509465944</v>
+        <v>85.16842509465938</v>
       </c>
     </row>
     <row r="942">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>37.90693415054726</v>
+        <v>37.90693415054734</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>81.12230841969337</v>
+        <v>81.12230841969333</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>85.87969048078901</v>
+        <v>85.87969048078904</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.30792345456801</v>
+        <v>19.30792345456808</v>
       </c>
     </row>
     <row r="947">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.97859633485592</v>
+        <v>40.97859633485596</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.112305365527106</v>
+        <v>7.112305365527241</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>41.91314368494228</v>
+        <v>41.9131436849423</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.32140368351127</v>
+        <v>45.32140368351137</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>7.312367006296043</v>
+        <v>7.312367006296078</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>59.44157553265963</v>
+        <v>59.44157553265974</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.15859484888863</v>
+        <v>61.15859484888877</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>62.77481702133392</v>
+        <v>62.774817021334</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.58509687826498</v>
+        <v>73.58509687826511</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>74.09246037945606</v>
+        <v>74.09246037945614</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.02781589677632</v>
+        <v>13.02781589677639</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>65.08944523953427</v>
+        <v>65.08944523953424</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>71.82874263431015</v>
+        <v>71.82874263431022</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.43990580455577</v>
+        <v>15.43990580455575</v>
       </c>
     </row>
     <row r="962">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.60852375995209</v>
+        <v>37.60852375995208</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.868399662672619</v>
+        <v>5.868399662672566</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.48514645100157</v>
+        <v>36.4851464510016</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.47381799162537</v>
+        <v>41.47381799162533</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.243392890230616</v>
+        <v>7.243392890230595</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.53722422487657</v>
+        <v>57.53722422487664</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>65.85595639883378</v>
+        <v>65.85595639883381</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>58.88498066325256</v>
+        <v>58.88498066325248</v>
       </c>
     </row>
     <row r="971">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>64.82874928110107</v>
+        <v>64.82874928110112</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.63777764151956</v>
+        <v>12.63777764151957</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>68.50080398872876</v>
+        <v>68.50080398872883</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>69.1439260200705</v>
+        <v>69.14392602007057</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.03734673484596</v>
+        <v>16.03734673484597</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.92533910871748</v>
+        <v>39.92533910871749</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.70973649742264</v>
+        <v>43.70973649742272</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.568189724682075</v>
+        <v>5.56818972468216</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.4154061986477</v>
+        <v>45.4154061986479</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.62557444523765</v>
+        <v>49.62557444523766</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.023538601917476</v>
+        <v>6.023538601917526</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>64.72257938006281</v>
+        <v>64.72257938006277</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>74.23627390283085</v>
+        <v>74.23627390283062</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>76.58150947073425</v>
+        <v>76.58150947073423</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>82.79581930598845</v>
+        <v>82.7958193059885</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>89.66418844462538</v>
+        <v>89.66418844462541</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>11.67631986196576</v>
+        <v>11.67631986196584</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>74.16095678198096</v>
+        <v>74.16095678198117</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>82.99036652015344</v>
+        <v>82.99036652015349</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.505</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.137</v>
+        <v>17.57</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.882</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.879</v>
+        <v>8.666</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.977</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038</v>
+        <v>0.957</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.25234637903751</v>
+        <v>15.74686840485503</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.38270766642136</v>
+        <v>19.12098849652282</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.0522570428747</v>
+        <v>17.62267318966711</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.412757687281093</v>
+        <v>4.79539558224355</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.28894028474473</v>
+        <v>18.29300356763871</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.06876861334268</v>
+        <v>22.17403504894489</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.837071020310233</v>
+        <v>8.442336119618879</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.50971411437087</v>
+        <v>26.90927385543672</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.1947435670256</v>
+        <v>27.62243787312507</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.93630822892289</v>
+        <v>27.79917058058591</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.4436937207598</v>
+        <v>33.19580612106158</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.15465218609156</v>
+        <v>34.90017489986079</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.25475833892627</v>
+        <v>12.83266594167944</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.3219638097009</v>
+        <v>25.22072969406564</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.54865126674674</v>
+        <v>25.7894269101063</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.63559833664135</v>
+        <v>16.55393453848466</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39.17960703258616</v>
+        <v>35.78564111967774</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.75499875951682</v>
+        <v>40.67963550095257</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.919398716374833</v>
+        <v>4.690458997613781</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35.66565227767245</v>
+        <v>30.208901804826</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>49.87276165603153</v>
+        <v>40.99615718841264</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.342846623799232</v>
+        <v>5.866609788050223</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>60.73257100029271</v>
+        <v>55.43133989553112</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.02541340465153</v>
+        <v>69.5694094812531</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.07048584546116</v>
+        <v>56.04339621057511</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>73.35437659814093</v>
+        <v>67.45747535962346</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>82.06855508487129</v>
+        <v>72.9530169347905</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.09030401553867</v>
+        <v>15.54247761248285</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>81.16557398783245</v>
+        <v>72.83919647074093</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>84.19830060929274</v>
+        <v>78.98614190518225</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.17912797069275</v>
+        <v>27.14667688898063</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.34087067559543</v>
+        <v>46.4771199814317</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53.28577294269315</v>
+        <v>49.58097157934428</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.46022300171449</v>
+        <v>6.794983112720413</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.57996213448183</v>
+        <v>36.96139882869136</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>52.83120052615457</v>
+        <v>50.76900682392757</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.06325365232711</v>
+        <v>14.76587662273086</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>79.89433382482524</v>
+        <v>73.56156172899404</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>80.00192701340457</v>
+        <v>75.08672547640174</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>89.77550897914979</v>
+        <v>78.71671355705229</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>99.11760085628435</v>
+        <v>87.05981271493002</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>102.1773138070584</v>
+        <v>91.24491580925365</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.25235879330231</v>
+        <v>32.79876799055425</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100.2772871438684</v>
+        <v>91.7266878071291</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100.6245215240298</v>
+        <v>92.59265092333185</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.417904645851134</v>
+        <v>8.434322489135255</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.25023920755719</v>
+        <v>43.54544785409119</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.10580937462504</v>
+        <v>42.44718644313257</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.392856430030275</v>
+        <v>4.517412657822593</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.05596285970083</v>
+        <v>42.5346574093581</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.82120426590616</v>
+        <v>47.56300199008462</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.222935482785612</v>
+        <v>5.069571377077466</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.4996889122405</v>
+        <v>64.96102544134928</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.55409185944794</v>
+        <v>64.42973325893718</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.00009407799257</v>
+        <v>60.60924540318927</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>70.11683138102596</v>
+        <v>62.50359991226858</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>71.33240314553879</v>
+        <v>63.96113484081305</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.02854538191222</v>
+        <v>9.482635239849088</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>65.79003944167783</v>
+        <v>61.39694106055308</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.45278345153075</v>
+        <v>65.88711351520787</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.15745636124984</v>
+        <v>10.02959434460381</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.95107238084501</v>
+        <v>41.5515788596803</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.65396527654859</v>
+        <v>44.01424687110423</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.647985420475433</v>
+        <v>4.538542834731768</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>39.79378959550623</v>
+        <v>34.94711544211573</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>48.56339744906359</v>
+        <v>43.29595995168932</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.7686740330311</v>
+        <v>4.91914240514545</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>65.0531356874494</v>
+        <v>60.34427552924254</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>79.70051458521132</v>
+        <v>76.354233598702</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>63.4118327710855</v>
+        <v>58.92935997675503</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>75.54661316713897</v>
+        <v>70.62924800633485</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>78.67355776458585</v>
+        <v>75.78554572266435</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.828298119116582</v>
+        <v>7.001083769199642</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75.16590912919712</v>
+        <v>71.5944231253178</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>80.1316363621478</v>
+        <v>77.09184321524876</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.62035995692364</v>
+        <v>9.833192772236394</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.16009959674565</v>
+        <v>47.48573880810343</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.9144769184383</v>
+        <v>49.04703191372252</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.113017999278316</v>
+        <v>4.481359128743968</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.64617120442198</v>
+        <v>45.15377844939933</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.10045031791928</v>
+        <v>53.32207014910954</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.366169380038567</v>
+        <v>4.731490276575354</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>81.73186156917784</v>
+        <v>75.63294528644387</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>89.35857012677889</v>
+        <v>79.90003675128331</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>88.24160083601042</v>
+        <v>81.45487155398044</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>99.49434868153213</v>
+        <v>90.2209844586128</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>98.61657875977673</v>
+        <v>92.25473526423204</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.12773192645833</v>
+        <v>7.661537858828041</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>91.92378438473335</v>
+        <v>86.42840563732838</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>93.36819344419376</v>
+        <v>88.99866699890165</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.06703907078992</v>
+        <v>35.35692370148534</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>47.07892771770145</v>
+        <v>40.89752763548542</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>47.80956164638262</v>
+        <v>42.88347389470218</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.793824440457339</v>
+        <v>5.191166975995753</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.38145207328323</v>
+        <v>44.28459506862261</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.43205270158266</v>
+        <v>44.93030480282466</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.262899728164868</v>
+        <v>6.835880892675483</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>69.02087020257655</v>
+        <v>68.45328157095011</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>64.14830921552523</v>
+        <v>62.97331484122847</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>63.99320889733518</v>
+        <v>57.86573658979471</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.20170057328818</v>
+        <v>72.34837081247724</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>73.03274114280185</v>
+        <v>70.62030786880281</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.91769576440526</v>
+        <v>28.99527150258416</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>65.14764611414792</v>
+        <v>62.14974379120206</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.32815647418298</v>
+        <v>62.74944231203754</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.92647131931672</v>
+        <v>27.41460265943447</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>48.43722647940857</v>
+        <v>43.28061884082791</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.54474909660493</v>
+        <v>45.27148510017157</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.785455706543274</v>
+        <v>5.032356730259625</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.93985447410195</v>
+        <v>40.4972672116826</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.99749773035685</v>
+        <v>44.26075776905743</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.638451663488279</v>
+        <v>6.418002069549441</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>70.79100929066196</v>
+        <v>66.8796623480205</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>80.08456310152482</v>
+        <v>77.02914499355396</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>67.61251219381199</v>
+        <v>63.78072464391285</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.54274645606647</v>
+        <v>75.18946275019051</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>79.83266111643033</v>
+        <v>76.33197243201555</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.3148625898423</v>
+        <v>29.23442462314238</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>78.17353005839945</v>
+        <v>72.0228138697226</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>78.40719917083352</v>
+        <v>74.83883336255479</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.44934191249853</v>
+        <v>35.2287050079053</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>54.81603305244899</v>
+        <v>49.7607330140912</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.53002530876715</v>
+        <v>48.55354578898145</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.349990396095887</v>
+        <v>5.358253240461199</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>56.09979961009081</v>
+        <v>50.4030466858461</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.36957048938359</v>
+        <v>50.79537540196574</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.53491513701689</v>
+        <v>7.688093456278903</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>83.68545932971323</v>
+        <v>76.44407544750058</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>85.9529753366931</v>
+        <v>75.8103738683206</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>92.84161602236205</v>
+        <v>81.96181292639805</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>98.31053289005285</v>
+        <v>85.54568134892843</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.0971218183911</v>
+        <v>89.45013680104957</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.99993000945736</v>
+        <v>36.66699222764513</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>95.3711020958503</v>
+        <v>85.9207997757033</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>93.74483966619135</v>
+        <v>86.30388721599404</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.70078603342401</v>
+        <v>15.64002215202839</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.81471590363248</v>
+        <v>20.02621169428149</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.06905121305695</v>
+        <v>19.38958962420146</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.1687003398779865</v>
+        <v>4.329571548727206</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.43543128278428</v>
+        <v>19.00866448929297</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.54723645363624</v>
+        <v>21.88823925471561</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.327711773219296</v>
+        <v>8.875766413451906</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.72604164733271</v>
+        <v>28.03456878058416</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.00465773106053</v>
+        <v>28.56502565018247</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.96712621546108</v>
+        <v>30.39455537953691</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.9398221051559</v>
+        <v>33.11530034103846</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>46.51207174807101</v>
+        <v>38.10407075170767</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>66.23585174080421</v>
+        <v>63.79439691187945</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>72.08743530089696</v>
+        <v>68.02047263899706</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.46280274822882</v>
+        <v>64.92499501821786</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.63905046029022</v>
+        <v>13.34742988517479</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.81499387650997</v>
+        <v>39.38966121747058</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.80386540651777</v>
+        <v>43.57074907698245</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.925120741373199</v>
+        <v>4.829108894075173</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>42.64176788250566</v>
+        <v>39.79166802269787</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>55.05494813217764</v>
+        <v>52.49860569782478</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.21904667373619</v>
+        <v>16.89381622646802</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>67.47434798528269</v>
+        <v>60.55093400014323</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>77.74112418654668</v>
+        <v>72.64991593521326</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>61.05704983930225</v>
+        <v>54.96785422412558</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>72.38626962610483</v>
+        <v>64.45336147422753</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>77.3249982334675</v>
+        <v>72.06338464000393</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>18.7721940213738</v>
+        <v>14.27269940473205</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>74.75319067614326</v>
+        <v>67.71942565576396</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>81.27691260223298</v>
+        <v>74.60895541267404</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.90361283878928</v>
+        <v>26.05940578285162</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.08010855238939</v>
+        <v>47.58643369988809</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50.98056850344772</v>
+        <v>49.32646535572829</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.27598809511067</v>
+        <v>7.48177252962034</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>47.18226358583205</v>
+        <v>44.31678360744941</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>55.45240482587401</v>
+        <v>53.31163306606027</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>19.45342059407715</v>
+        <v>17.01294645021367</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>76.70891582696103</v>
+        <v>70.06548693895418</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>82.78358944737552</v>
+        <v>75.92220133060519</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>84.15080960834057</v>
+        <v>74.89520531545426</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>87.24501509007412</v>
+        <v>80.74831823655859</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>97.59295408449101</v>
+        <v>90.29474041665188</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42.52370940912781</v>
+        <v>36.22454290013465</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>92.39697347605136</v>
+        <v>84.13035051067672</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>97.12533763183801</v>
+        <v>86.56800154810861</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.99763491724189</v>
+        <v>28.21564412421579</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>49.50809268761418</v>
+        <v>48.21645162077088</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.09175456757811</v>
+        <v>44.11817540919081</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.627144393369107</v>
+        <v>5.505890451469192</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.50803518922785</v>
+        <v>50.36333033778677</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>53.28866126170468</v>
+        <v>52.86644332858056</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.35635925805504</v>
+        <v>8.334979063538761</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>80.28091240848593</v>
+        <v>77.80186812816221</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.07327199015955</v>
+        <v>67.67582565726424</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>61.42333554361785</v>
+        <v>56.8689451688338</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>76.08724621868856</v>
+        <v>72.43047022880643</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>78.66780095241913</v>
+        <v>74.99971444567947</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.16482593608068</v>
+        <v>18.4931066827338</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.861024767167581</v>
+        <v>5.141643841674181</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>6.788739245262406</v>
+        <v>5.382117163307818</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>33.83140978759072</v>
+        <v>35.50415433014147</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>52.46829087247513</v>
+        <v>50.15731310088761</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>51.01575097388174</v>
+        <v>47.23859391665771</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.830021081067013</v>
+        <v>5.445726897691046</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>48.22131842484546</v>
+        <v>44.84530035511902</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.03468422294962</v>
+        <v>51.4218647592194</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.37381539092351</v>
+        <v>13.9517793071685</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>79.0672836961909</v>
+        <v>72.72037610144199</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>79.42969324037558</v>
+        <v>75.51705541140169</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>75.50539559213684</v>
+        <v>72.06849381208434</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>85.13877853803193</v>
+        <v>77.1953887675941</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>87.11663397203952</v>
+        <v>80.90536895392549</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.49353138577429</v>
+        <v>44.69678687170803</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>84.50209239163749</v>
+        <v>80.41646178781039</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.88771256189001</v>
+        <v>39.52829897989346</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.10983090154438</v>
+        <v>51.17781820361018</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.36665557128323</v>
+        <v>50.28829884515682</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.628079723600901</v>
+        <v>5.732980627001503</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.53463232999713</v>
+        <v>50.41522771789437</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.73994551812021</v>
+        <v>49.88871430821767</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.4413675059771</v>
+        <v>9.563461293392461</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>83.24719962812345</v>
+        <v>78.18861431986593</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>87.49014036466551</v>
+        <v>76.58434800511696</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>95.58479380792431</v>
+        <v>84.11073556576247</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>98.10938619044049</v>
+        <v>87.02929132867555</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>101.9795113352858</v>
+        <v>90.39692393213079</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.35688187148462</v>
+        <v>56.05961580233419</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>98.60567439192361</v>
+        <v>90.07979398448931</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>100.8407426297659</v>
+        <v>89.18123843517179</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.74134721454687</v>
+        <v>25.309290416829</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.35817907033624</v>
+        <v>39.19714675744834</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.06908101953481</v>
+        <v>40.90180580069112</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>5.842188055648045</v>
+        <v>4.794121588354407</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.10113033718739</v>
+        <v>45.41212599266107</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.53166739802383</v>
+        <v>48.80831313211358</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>8.312520115610301</v>
+        <v>7.119046704719583</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>72.30355426335433</v>
+        <v>71.74562799360737</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>67.38210377374965</v>
+        <v>65.8832861767481</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.86126687350576</v>
+        <v>59.31805480373391</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>68.59133421705488</v>
+        <v>67.34883908867774</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>70.58564725403252</v>
+        <v>69.02088948514597</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.59522897089758</v>
+        <v>17.27810067825929</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.771831747168751</v>
+        <v>4.16601339746229</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.101814954046361</v>
+        <v>3.759084034344237</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.0811858419014</v>
+        <v>28.35873861046676</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>53.677078659814</v>
+        <v>49.45453147381232</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.25390143839276</v>
+        <v>50.03108988525754</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.387391674937611</v>
+        <v>5.011444930811216</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>49.30640199760096</v>
+        <v>43.29760903643064</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>51.51613366770128</v>
+        <v>50.34163777051089</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.515097740509106</v>
+        <v>6.725627598344854</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>76.01382437892943</v>
+        <v>73.52479676805831</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>78.97325056212944</v>
+        <v>76.61546798251354</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.32744305352939</v>
+        <v>63.90363637450444</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.60064476164396</v>
+        <v>76.12559760332174</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>84.31624044474249</v>
+        <v>80.99213669240035</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.11977266455548</v>
+        <v>28.11847863323164</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>83.36933251603834</v>
+        <v>80.33809233524198</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>84.65142959636432</v>
+        <v>82.37957365138979</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.99960085932002</v>
+        <v>29.45991493829325</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>55.15407462964595</v>
+        <v>50.48325319966678</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>56.02558890194469</v>
+        <v>52.49503426093042</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.102356959822622</v>
+        <v>5.267490089844944</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>51.8841985619821</v>
+        <v>46.02244508298642</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.96832598362727</v>
+        <v>49.49727679376743</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.12847672863802</v>
+        <v>7.285070403650238</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>80.8852701638173</v>
+        <v>74.92686859410786</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>84.72845574570206</v>
+        <v>74.72290216946362</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>84.11553501498688</v>
+        <v>80.20679468673286</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>93.74276546793047</v>
+        <v>85.02279108628812</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>96.64875090888798</v>
+        <v>85.88048557749069</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.42891895968978</v>
+        <v>27.92678875200073</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>91.59942787347131</v>
+        <v>86.19296088642228</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>90.57806006633476</v>
+        <v>87.12285295457183</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.26058086871454</v>
+        <v>10.58708748300642</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.00619931314854</v>
+        <v>13.96091296360456</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>15.90825712758331</v>
+        <v>12.77371807599179</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.9214216847041286</v>
+        <v>4.750478647249672</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.92440759825112</v>
+        <v>16.19917548581824</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.28638045295273</v>
+        <v>18.32756540272157</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>1.467600306645473</v>
+        <v>5.794081488481712</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.29898266018048</v>
+        <v>20.1073481487223</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.13227152320902</v>
+        <v>21.26807355215834</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.09244943761567</v>
+        <v>27.77024322882995</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.36221540448764</v>
+        <v>34.50745198828003</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.10903381094052</v>
+        <v>36.78335992755963</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.3208377718</v>
+        <v>12.28871733903246</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.81622976783397</v>
+        <v>20.25361344454554</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.23320204551813</v>
+        <v>20.95042281341783</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.06795493234615</v>
+        <v>11.73621860736109</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.13988791552354</v>
+        <v>29.60426101409596</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>37.2580403792715</v>
+        <v>35.70461823964136</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.379868939690795</v>
+        <v>4.659238443857578</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.43048848045139</v>
+        <v>30.97949125398902</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.40437293202076</v>
+        <v>40.14975506294091</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.440444413372852</v>
+        <v>5.154367412834201</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>48.71541576552224</v>
+        <v>46.63927198607348</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.74308753448623</v>
+        <v>54.99410616270283</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.91037704607678</v>
+        <v>46.62944535162669</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.3678215549471</v>
+        <v>54.47081609957078</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>61.4512419215454</v>
+        <v>56.08807449948586</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.30679033332613</v>
+        <v>13.17389429988625</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.5165897844652</v>
+        <v>51.84737635637552</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>61.63025925827182</v>
+        <v>53.70214247668734</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.22249492663133</v>
+        <v>20.7919968112524</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.96958095693211</v>
+        <v>35.49273659515632</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.1042569595469</v>
+        <v>45.23561716165618</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.493961162804951</v>
+        <v>5.218685937489003</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.95029143632774</v>
+        <v>43.74166207443153</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>53.12652134057269</v>
+        <v>51.35214347061356</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>12.50669746266394</v>
+        <v>8.588928471522145</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.57707825330714</v>
+        <v>65.4467686508894</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.56516357440496</v>
+        <v>66.19771762748239</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>79.15955626230118</v>
+        <v>69.10134701469096</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>87.79381790406309</v>
+        <v>77.929853616109</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>88.95822232131586</v>
+        <v>78.35033061493603</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>34.7668789112773</v>
+        <v>33.17380851541552</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>84.1515499734717</v>
+        <v>78.15693261913327</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>89.68585891247704</v>
+        <v>83.72265863641762</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>10.34927751234004</v>
+        <v>11.05783693070366</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.48717251741338</v>
+        <v>13.76147860013923</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.76601008375921</v>
+        <v>12.06332431248753</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2.645142799302459</v>
+        <v>3.219685486630418</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.17428658838099</v>
+        <v>14.46874380987004</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.56744763132355</v>
+        <v>18.69592488259061</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.8358125548326498</v>
+        <v>5.883173304194781</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.33029304936886</v>
+        <v>15.92914981028995</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.32606728278307</v>
+        <v>15.78611911966787</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.47617470184938</v>
+        <v>18.87507444135837</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.38633241123309</v>
+        <v>20.31236875893394</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>23.97645807330577</v>
+        <v>18.63758361814181</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>9.932505518790165</v>
+        <v>12.04223133001817</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>16.88494409083068</v>
+        <v>15.04441098594792</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.654774210436802</v>
+        <v>13.59967751585843</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>2.211982783187405</v>
+        <v>4.18229705762695</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>9.311546332637</v>
+        <v>8.918679573527132</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.15166275783473</v>
+        <v>11.8121248214913</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.628793510372137</v>
+        <v>2.544066679665711</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.34462731793674</v>
+        <v>9.772714350710551</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.74196183501449</v>
+        <v>16.10246375391599</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-4.596294528837529</v>
+        <v>2.544117951071982</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.13785863924375</v>
+        <v>14.51005609767575</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.23927649407457</v>
+        <v>28.12187643643576</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.84036781218023</v>
+        <v>10.44891439597149</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.11880553988316</v>
+        <v>30.16418829008818</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.85239996902122</v>
+        <v>42.48852202516346</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-0.2306707573143285</v>
+        <v>3.949758620351975</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.26646797819244</v>
+        <v>19.14800727891877</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.02893367858688</v>
+        <v>15.28380079559545</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.822169032789844</v>
+        <v>4.603580583071707</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.96060279121921</v>
+        <v>14.24296265893982</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.11844171559835</v>
+        <v>34.93736176256939</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-3.324938008774613</v>
+        <v>2.544625521794757</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.87458667005366</v>
+        <v>15.47893673718743</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.69438994400156</v>
+        <v>36.03978510046474</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-0.8393386983858022</v>
+        <v>2.657808061020059</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.93178250433992</v>
+        <v>24.27863142818744</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>69.96022983945966</v>
+        <v>66.12473763721076</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.21254417935003</v>
+        <v>17.26183844896829</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>59.77303172361042</v>
+        <v>53.3323654304573</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.37596680230661</v>
+        <v>75.35722849690093</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.46441541126055</v>
+        <v>4.063903252284867</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>43.32989246893801</v>
+        <v>39.24886874330248</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>55.24301866059103</v>
+        <v>47.33578964283416</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.61503855480242</v>
+        <v>18.81741746788177</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.88518392745308</v>
+        <v>21.981505937676</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>37.92965792356819</v>
+        <v>35.87277502956626</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.358279236544579</v>
+        <v>5.797427253976231</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>50.26489455041862</v>
+        <v>44.33909929643475</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>51.1195860767977</v>
+        <v>46.29184372580652</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.12219482959271</v>
+        <v>13.73533323374772</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>69.45587660312017</v>
+        <v>65.38231860363584</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>70.06580743247433</v>
+        <v>64.07941110488608</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.35340296163724</v>
+        <v>62.07348248941999</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>76.61055910445295</v>
+        <v>73.27473280772548</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>73.08613648335891</v>
+        <v>69.75476479478436</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.07778867914361</v>
+        <v>42.99818497318098</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>67.24397362334537</v>
+        <v>61.9677987097171</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>78.81175438921659</v>
+        <v>71.49919280367247</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.93401971485034</v>
+        <v>23.30000492521762</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.46169772108905</v>
+        <v>34.71432812582196</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>41.62783839027151</v>
+        <v>37.31491376253099</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.898187354671478</v>
+        <v>5.262300959984927</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.52439760013856</v>
+        <v>36.86596659512666</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.70314685050631</v>
+        <v>38.65198045052379</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.776566244618124</v>
+        <v>7.802897712921023</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.33589770549523</v>
+        <v>55.56415695752351</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>67.47420264293451</v>
+        <v>58.21139815437922</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>57.86765661318873</v>
+        <v>50.05554084111481</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>66.07282231376441</v>
+        <v>57.45004540642985</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>66.8890523712259</v>
+        <v>57.62884827910366</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.10240775081142</v>
+        <v>31.93866786515669</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>70.74198988145514</v>
+        <v>60.25547842890255</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>69.25887363231618</v>
+        <v>59.90602997076378</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.16830131840886</v>
+        <v>25.02282941895875</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.92432416313532</v>
+        <v>35.63107965050646</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>45.34785274461619</v>
+        <v>44.86977643202804</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.278874152116952</v>
+        <v>5.626158464888604</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.73391299910882</v>
+        <v>48.79621780170224</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.65434739619774</v>
+        <v>50.13685638129114</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.19769699160993</v>
+        <v>8.592894800487947</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>75.89017322028118</v>
+        <v>69.54292233587465</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.22974338674061</v>
+        <v>71.43110956047852</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>80.49529233542941</v>
+        <v>72.34795409017715</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>87.07001785967746</v>
+        <v>78.07407550433045</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>88.55321212293805</v>
+        <v>78.75309373037962</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.98328890139673</v>
+        <v>36.79060430454533</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>87.94585331388937</v>
+        <v>77.11393313109608</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>88.39757104844328</v>
+        <v>81.10802135658523</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.150880396158311</v>
+        <v>9.582298317070183</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>14.74270978015432</v>
+        <v>12.42924299634757</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.58365984244645</v>
+        <v>12.92481478620951</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.245254376342288</v>
+        <v>3.766116906903605</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.76260253895843</v>
+        <v>11.42292098059552</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.65004205806339</v>
+        <v>15.08407521733663</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-0.04501623489757733</v>
+        <v>5.397982688351171</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.25400132666694</v>
+        <v>17.84297350925301</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.61487604015644</v>
+        <v>19.55182894249332</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.46264348067991</v>
+        <v>18.9655598161998</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.21210009049378</v>
+        <v>23.2202981016231</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.52521849074947</v>
+        <v>26.29585341313437</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.228508969770839</v>
+        <v>8.664779464431245</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.94980649919763</v>
+        <v>16.76138106321084</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>23.46942804884493</v>
+        <v>18.35781124786838</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.677939291809878</v>
+        <v>6.747351969889802</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.07006995167734</v>
+        <v>22.2284312408247</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>30.71468459236227</v>
+        <v>28.62688191617207</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.083418250573999</v>
+        <v>4.064073883372966</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.43551087649903</v>
+        <v>22.2843702064234</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.80840114019603</v>
+        <v>32.84664577782417</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.628335857869754</v>
+        <v>4.400825059242642</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.54361819876439</v>
+        <v>37.76600448724098</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>49.37044937452012</v>
+        <v>47.01491967337495</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>37.99986493599356</v>
+        <v>31.40960640648839</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>44.8215013127875</v>
+        <v>41.48286697097946</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>49.7605269870371</v>
+        <v>46.33890915407596</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.281093279873669</v>
+        <v>6.470840451671528</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>45.25815680958296</v>
+        <v>38.55934070277908</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>50.33860900097059</v>
+        <v>44.64874026820057</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.11067269100926</v>
+        <v>15.48683051278918</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.44491691522322</v>
+        <v>30.99918811691987</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.67047330756093</v>
+        <v>42.89208520579409</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.20131121129699</v>
+        <v>7.96357845675756</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>38.41054899415278</v>
+        <v>30.5333948298072</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>47.03451112103554</v>
+        <v>41.52940067337781</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.93832942410539</v>
+        <v>15.09306880601689</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>59.04112746848255</v>
+        <v>50.79128594326701</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>68.53141428039584</v>
+        <v>61.56237810929184</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>66.49575521828301</v>
+        <v>54.01066815393051</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>75.34417981881035</v>
+        <v>67.92698488147199</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>85.57408896281235</v>
+        <v>80.28824443772812</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.91258926265768</v>
+        <v>24.71768411119177</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>70.59455788148749</v>
+        <v>62.86940497707577</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>77.4346380812966</v>
+        <v>71.79907818213405</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.294181049901535</v>
+        <v>4.040760088412853</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.421607280141636</v>
+        <v>4.523666744271289</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.579003964944491</v>
+        <v>6.844965496485958</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.659637046866781</v>
+        <v>2.543719310064219</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>7.945680822391996</v>
+        <v>5.103570484620644</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.68894030807701</v>
+        <v>8.499834119252458</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-4.016800075226374</v>
+        <v>2.544321459381383</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.319508344802347</v>
+        <v>5.794374935463807</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>10.8042122136492</v>
+        <v>9.494098368670556</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>10.83268950598131</v>
+        <v>7.00807768238878</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.2346694574817</v>
+        <v>10.17013953775442</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.43113691640995</v>
+        <v>15.05299662642916</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-0.7929788339720574</v>
+        <v>3.868175520918825</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.368338051875948</v>
+        <v>4.540333827513141</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.971224644423756</v>
+        <v>8.768620055572114</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.58100786173955</v>
+        <v>22.02892158755284</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.89324265881943</v>
+        <v>35.0355067282772</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.00974352812803</v>
+        <v>35.83359541775951</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.883741813125098</v>
+        <v>4.924611608736594</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.35874085133715</v>
+        <v>35.5699842347551</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.10108692937823</v>
+        <v>39.06064541853293</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.700477872296123</v>
+        <v>6.232981621650442</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.73881383272943</v>
+        <v>52.58382785392214</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>64.77451554084254</v>
+        <v>57.45993426353543</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>54.52412196029588</v>
+        <v>53.88392572165148</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.81079695157375</v>
+        <v>54.70369601747512</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>63.51356241669588</v>
+        <v>57.00854799292773</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.51061354786847</v>
+        <v>23.6325576572114</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>62.50586556432837</v>
+        <v>57.0037965211376</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>63.48818972290033</v>
+        <v>58.38637069957595</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.70970650055329</v>
+        <v>25.93732630351293</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.7743948078467</v>
+        <v>40.09112519392708</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>50.25380403653111</v>
+        <v>48.1848854119561</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.453004486336045</v>
+        <v>5.217265309807306</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>51.3033064400007</v>
+        <v>49.64514408872917</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>55.87306768206319</v>
+        <v>53.63367093904132</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.07868936073598</v>
+        <v>6.685680032122406</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>73.55541166565101</v>
+        <v>70.70223293721305</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>77.19801319934867</v>
+        <v>70.95473298990586</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>83.02619334419316</v>
+        <v>77.99575603927968</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>92.45477639329653</v>
+        <v>83.33745057652055</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>90.97465493696711</v>
+        <v>84.95345749997928</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.06285837138505</v>
+        <v>27.81186374695617</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>88.19394551663274</v>
+        <v>83.04265843874867</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.71228035680669</v>
+        <v>79.80605921674785</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.70655586792258</v>
+        <v>13.62711265646129</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.77267165835037</v>
+        <v>16.88201222524782</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.80522018125141</v>
+        <v>17.35340158172843</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.7477057768366393</v>
+        <v>4.0527874962401</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.72729405221779</v>
+        <v>16.96253054148497</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.81980840351763</v>
+        <v>19.66468329600011</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3.452440013934556</v>
+        <v>7.238729649947807</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.90936544886256</v>
+        <v>22.21969774821843</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.1143105387898</v>
+        <v>23.58295786234797</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.92368741400813</v>
+        <v>22.80073213532368</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.54118202539939</v>
+        <v>30.63357181800537</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.37052951972266</v>
+        <v>30.63219963578429</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.01553428067436</v>
+        <v>12.51811131362154</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.89878535087484</v>
+        <v>21.9324308718544</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.66185338352198</v>
+        <v>23.82875035186317</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>5.731427604600398</v>
+        <v>4.329971924582086</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.77831075371348</v>
+        <v>11.66736949157539</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.98213332837048</v>
+        <v>22.20326622150639</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.757815022647648</v>
+        <v>2.611989421381832</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>11.83916265041098</v>
+        <v>9.566567981342693</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.02874374229553</v>
+        <v>24.38097027104777</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-2.018879652678027</v>
+        <v>2.63888861977194</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.39744620118049</v>
+        <v>15.38993537413338</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.82874809623723</v>
+        <v>38.78309198666213</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16.71556842508076</v>
+        <v>13.60634190638536</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.0411326494249</v>
+        <v>28.67261234599752</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>37.77264578130645</v>
+        <v>36.60926506066981</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.972502913386272</v>
+        <v>3.981772182322466</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.04933969863535</v>
+        <v>26.1540407380429</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.81433611394989</v>
+        <v>34.43754427145277</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.19413835259081</v>
+        <v>19.93953120065633</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.45961975835254</v>
+        <v>28.34047057127471</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.34336914600182</v>
+        <v>38.76061368099258</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.465382151833669</v>
+        <v>5.55063627112099</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.58356153288976</v>
+        <v>24.77826740441644</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.03407496710004</v>
+        <v>33.19088688030639</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.221723985629701</v>
+        <v>12.69995105412605</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>50.93154321190229</v>
+        <v>44.34864669407287</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.06890086053185</v>
+        <v>56.77877016663846</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>56.14234885306789</v>
+        <v>48.46619167034542</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>66.25450936583175</v>
+        <v>57.46715679661591</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.79729769561435</v>
+        <v>65.85587236881869</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>32.49383929743511</v>
+        <v>31.31400327654774</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>60.86449829773002</v>
+        <v>52.30887769635984</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>63.34560786145431</v>
+        <v>56.51832001536185</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.119854717994365</v>
+        <v>4.83843560938675</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.376087579268464</v>
+        <v>8.197889474577661</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.472613799523568</v>
+        <v>7.562060987763406</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.664548436044623</v>
+        <v>2.820899141734458</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.946632613173378</v>
+        <v>7.589586521616997</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.498212458325572</v>
+        <v>8.410564914654081</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3.780368509243505</v>
+        <v>2.825370368579488</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.297989782925768</v>
+        <v>8.551487524125417</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.749494088073853</v>
+        <v>10.55433016164075</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.54156234147882</v>
+        <v>6.966758783777497</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.39439198621346</v>
+        <v>7.943092280113689</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.83998488585624</v>
+        <v>12.95996208874742</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.6870538226969</v>
+        <v>4.485050354508871</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.607171114648207</v>
+        <v>7.00889020630558</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.43585043869819</v>
+        <v>9.0692347718768</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>1.035104003542628</v>
+        <v>3.95836302049894</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.647611641003518</v>
+        <v>5.907169968443732</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.473923266710468</v>
+        <v>7.042915520346419</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.985710455213773</v>
+        <v>2.544293888991294</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.43114688875843</v>
+        <v>5.066004209513476</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.802471735924541</v>
+        <v>6.583704409251862</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.616000879798033</v>
+        <v>2.908623960445759</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.061628332356644</v>
+        <v>6.068593502345568</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.87130690846457</v>
+        <v>9.599130335377069</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.662959359005416</v>
+        <v>5.460451905904694</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.93094503330833</v>
+        <v>8.307936754087077</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>12.67260729171502</v>
+        <v>10.06196891876189</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.667072932436678</v>
+        <v>2.543906983062307</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>9.743613593125922</v>
+        <v>6.226543735057991</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>11.55740509232425</v>
+        <v>7.668261149313818</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.13361167420275</v>
+        <v>21.44048819810184</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.57250999577832</v>
+        <v>23.8813704423868</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.38382460369421</v>
+        <v>25.41785402281848</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.843360791237526</v>
+        <v>5.161007653786651</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.07908149855525</v>
+        <v>19.08975333382816</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.37840328521839</v>
+        <v>22.14301438423191</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.650707821650492</v>
+        <v>14.06598516847649</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>35.42043530182528</v>
+        <v>30.50343789503144</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.90401041213657</v>
+        <v>32.91501081447922</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>44.50454099143386</v>
+        <v>39.79155819372156</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>45.11946607036233</v>
+        <v>43.10103428163826</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.6766950717086</v>
+        <v>46.71029732144189</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.19170694249173</v>
+        <v>27.80374864674576</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>38.82798874940995</v>
+        <v>31.6266269098501</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.83811665105112</v>
+        <v>36.08778020446477</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.06005710291374</v>
+        <v>19.1497897130471</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>35.3422342780112</v>
+        <v>30.42835664011017</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.8322467788827</v>
+        <v>35.9581436739826</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.869663187593652</v>
+        <v>4.920671688739013</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.23323811386361</v>
+        <v>26.34739889341466</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.34784690727702</v>
+        <v>29.02872982093837</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.442433169223818</v>
+        <v>7.99432214291857</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.52592962805564</v>
+        <v>44.46874374762823</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.89144508679345</v>
+        <v>48.05621684696229</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>48.72356870419044</v>
+        <v>44.84029570187428</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>59.28774727874593</v>
+        <v>53.99124388427937</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>63.07832420178018</v>
+        <v>57.87416801482236</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.99817176087024</v>
+        <v>32.12806317150105</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>58.18323003292814</v>
+        <v>56.23924089690787</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>65.59667515930542</v>
+        <v>64.76641579039506</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.22634534222184</v>
+        <v>16.76663051150249</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.260360731437</v>
+        <v>26.56657581001649</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.40263366633156</v>
+        <v>30.73731520995027</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.546358956324926</v>
+        <v>3.426442252352235</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>19.94046395119404</v>
+        <v>16.5635340990018</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.15610442274742</v>
+        <v>21.17822996821675</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.7169735390848651</v>
+        <v>5.616248267764981</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.2579368524285</v>
+        <v>33.27900932963323</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>43.34545002637092</v>
+        <v>35.92738598871285</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>41.72825521488411</v>
+        <v>34.12723902726314</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>48.50100686914818</v>
+        <v>42.18602981102877</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.54715993675232</v>
+        <v>41.48812787945708</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.41701987595955</v>
+        <v>23.87451147670657</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>55.00311007446628</v>
+        <v>46.3726849239348</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>57.65103061389965</v>
+        <v>49.27544875378128</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.53951722813135</v>
+        <v>25.83102244111313</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.48629390659231</v>
+        <v>36.44639152248948</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>48.64454931237936</v>
+        <v>46.84336206176589</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.813924765336843</v>
+        <v>6.015251581562215</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>37.59351796962994</v>
+        <v>33.61873481206622</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.53351201106683</v>
+        <v>37.72109123034094</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.65583987562951</v>
+        <v>11.65711002915122</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>65.98641534692918</v>
+        <v>58.90340531397983</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>71.26724430750447</v>
+        <v>61.53523567416412</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>82.31725575635404</v>
+        <v>70.60903307594083</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>84.68912213412887</v>
+        <v>75.97359451594846</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>86.00434720135095</v>
+        <v>79.66557748462412</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>42.57779398688881</v>
+        <v>38.8743722566876</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>78.74290971159355</v>
+        <v>67.75534246931021</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>87.05673059529907</v>
+        <v>73.72195316864358</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.87764797759906</v>
+        <v>20.39322560550845</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.30688919543552</v>
+        <v>33.79147798877517</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.94994618306957</v>
+        <v>38.13420424045903</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.809426872028872</v>
+        <v>6.71888668047837</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.94775691065948</v>
+        <v>40.97680683009941</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>46.88895773689639</v>
+        <v>41.98119882060023</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>11.42649489747773</v>
+        <v>10.79494187587924</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>63.1618726438942</v>
+        <v>58.49984500727199</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>63.90890599427453</v>
+        <v>61.13511125864613</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.47209993761831</v>
+        <v>67.41465624635815</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>76.56656930179102</v>
+        <v>69.06334973626984</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>77.07576940107165</v>
+        <v>71.07583137019861</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.56630482805879</v>
+        <v>23.10302667470083</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>68.49712130071657</v>
+        <v>64.08235152824956</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>70.05485464136179</v>
+        <v>67.15623895006432</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.37341078485085</v>
+        <v>18.42230394824255</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.6238283775044</v>
+        <v>33.37164237742519</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.79483359171568</v>
+        <v>39.78901089534128</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>6.681073181744818</v>
+        <v>4.728630057600611</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.84720967246712</v>
+        <v>34.05337501905544</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.44248794828577</v>
+        <v>36.64840541950803</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.593945196954511</v>
+        <v>5.524750578602404</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.82479388074329</v>
+        <v>50.55984167457162</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>64.11578664972789</v>
+        <v>60.99432284608467</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>54.40331539302096</v>
+        <v>51.17356409106112</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>62.79334778123372</v>
+        <v>58.94714817943375</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>62.178436139822</v>
+        <v>54.04170936214603</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.82241603337719</v>
+        <v>18.22565070034477</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>64.00049501543347</v>
+        <v>58.11659748021575</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>67.72985229053853</v>
+        <v>64.72088819165556</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.77539685263544</v>
+        <v>20.56383372366385</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.26313306986538</v>
+        <v>37.14317289858498</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.68747501712745</v>
+        <v>42.82754974752714</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.878816356253541</v>
+        <v>4.821725853563304</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.56174118548044</v>
+        <v>43.56752159822032</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>50.58580908737679</v>
+        <v>44.56982151665613</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.273318626723245</v>
+        <v>5.602974219720004</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>65.0868998484053</v>
+        <v>61.06104276989018</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>75.1542316192472</v>
+        <v>66.69663158667629</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>79.44763969377166</v>
+        <v>72.65659187521716</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>86.33757477336243</v>
+        <v>76.1298623481847</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>91.65237772870796</v>
+        <v>81.97478578242391</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.06136568588767</v>
+        <v>20.0264756664663</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>79.88227533368705</v>
+        <v>72.51994919239644</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>86.26651439232074</v>
+        <v>77.92262356621872</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.82258518629603</v>
+        <v>24.52480326276307</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.40549624354518</v>
+        <v>29.56687006674272</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.53892209230425</v>
+        <v>36.1816291038583</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.198936894801573</v>
+        <v>5.324322856544384</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.95119180680571</v>
+        <v>43.58629887146905</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.85538987342518</v>
+        <v>44.25175756942389</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.495637538667815</v>
+        <v>9.739834163064913</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>67.52639662581156</v>
+        <v>60.46685687344774</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>65.4508953824693</v>
+        <v>61.12640401872635</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>65.79639459133492</v>
+        <v>58.77316239851395</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>66.67093878754609</v>
+        <v>59.66937002700659</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>70.48666787575709</v>
+        <v>63.09000127387415</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>40.72636253360723</v>
+        <v>38.51449160399302</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>62.21762454451385</v>
+        <v>57.2050689381327</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>74.07595946079579</v>
+        <v>68.59677679751539</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.89117557827159</v>
+        <v>26.10353150500418</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.83051339577099</v>
+        <v>37.48688051097871</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.7612943047737</v>
+        <v>36.96414480634821</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.47251770585903</v>
+        <v>4.45699994687838</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.01295538774041</v>
+        <v>34.97028426704632</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.18167581088859</v>
+        <v>36.87643330162431</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>4.88384436992661</v>
+        <v>6.011371903693718</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>60.45940872125367</v>
+        <v>52.88316454498634</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.91870995389816</v>
+        <v>60.82084599135825</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>59.67865717292106</v>
+        <v>55.82050657560787</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>67.98287472018897</v>
+        <v>58.33148792293294</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>69.10523641057064</v>
+        <v>59.4036598456068</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.54378031482431</v>
+        <v>27.16194445116905</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>73.62233870494121</v>
+        <v>62.95217817480522</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>75.50478086340213</v>
+        <v>65.40496809622755</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.46857129092325</v>
+        <v>28.03687152947669</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.09414609961097</v>
+        <v>40.26778033682113</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>47.86178092258881</v>
+        <v>42.7479755718053</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.63625694064562</v>
+        <v>5.208147339353687</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.70314942886597</v>
+        <v>44.3198987404983</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.32853810736816</v>
+        <v>46.35545309012792</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.053591765940233</v>
+        <v>6.728077658291561</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>72.9143487171943</v>
+        <v>66.33370968146504</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>76.74801884055044</v>
+        <v>67.18799277671562</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>84.59475920358771</v>
+        <v>76.48600181579553</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>90.70775007008102</v>
+        <v>80.17890504132309</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>92.75157795505579</v>
+        <v>81.48801131132947</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.46313391083695</v>
+        <v>27.54372932768316</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>87.06669756402296</v>
+        <v>74.48918395035435</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>88.60246269858537</v>
+        <v>76.67847825887341</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.41470127990202</v>
+        <v>26.2384945638958</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.11053700533798</v>
+        <v>31.62020559093651</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.51609283753108</v>
+        <v>37.3869008197948</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.92346270247882</v>
+        <v>11.45021686484553</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>62.50346187571296</v>
+        <v>62.00545313415191</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>60.22565214604978</v>
+        <v>60.1507858680146</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.32642049256363</v>
+        <v>11.09981677209695</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>68.08491013122679</v>
+        <v>63.19242704999726</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>68.24061780449617</v>
+        <v>61.50114797058971</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>72.9418625912614</v>
+        <v>65.10053281638599</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>75.41079827871113</v>
+        <v>66.32341503364927</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>75.6932541270714</v>
+        <v>66.92029596783721</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>52.36587624924289</v>
+        <v>48.13943012220408</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>66.37058196541376</v>
+        <v>59.70148516590081</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>73.04246057469992</v>
+        <v>69.45678068520411</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.77503027131838</v>
+        <v>29.47717452498376</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.14962010089852</v>
+        <v>37.57785387832698</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>41.17775639515659</v>
+        <v>38.55575242323542</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.58036037418659</v>
+        <v>39.09131771482905</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.89156070346094</v>
+        <v>54.78417477771156</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.55831421702035</v>
+        <v>52.57679031023251</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.10891517841229</v>
+        <v>8.319808752946482</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>56.85177802062866</v>
+        <v>55.29537583001824</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>63.9167518478706</v>
+        <v>59.6131319572311</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>56.83965283962819</v>
+        <v>53.51119197616999</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>64.83348696787976</v>
+        <v>57.25029072396252</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>65.11601431399569</v>
+        <v>57.00637238363984</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.73328828073011</v>
+        <v>33.14800863187597</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>68.85548074810737</v>
+        <v>59.96344340325228</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>73.6938662017552</v>
+        <v>64.25564640660997</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.25158440332902</v>
+        <v>33.02909127716332</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>46.56774690126146</v>
+        <v>40.41060608256275</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.52773398089555</v>
+        <v>42.17767316181519</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.65113053070606</v>
+        <v>40.49323669394236</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.13961137414944</v>
+        <v>62.54621182148139</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.86711244593015</v>
+        <v>57.87758457704164</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.54898419520667</v>
+        <v>8.539710697695718</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>72.20802060325785</v>
+        <v>67.11490106024326</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>75.30913055386573</v>
+        <v>66.18165180745176</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>95.23072869262114</v>
+        <v>83.24155023399992</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>90.34344784641628</v>
+        <v>80.23900750513494</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>95.11877439050421</v>
+        <v>83.72435211642909</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.24824466135704</v>
+        <v>40.02698895298921</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>88.05815943856587</v>
+        <v>76.87946870861578</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.20440995491326</v>
+        <v>79.9811508116367</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.29187820284025</v>
+        <v>15.84966000542908</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.96152969439429</v>
+        <v>33.18741280850539</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.12826118454644</v>
+        <v>37.83869598242777</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.464124021092712</v>
+        <v>4.064024385219401</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>35.7191906896384</v>
+        <v>32.71917771140543</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>45.62223473624179</v>
+        <v>43.83150816946102</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.206723150640077</v>
+        <v>4.81272680548873</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>59.54760228268555</v>
+        <v>58.04082402248879</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.81667402317058</v>
+        <v>62.13589693195068</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>67.49382626375389</v>
+        <v>64.27936936587673</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>72.91732493145415</v>
+        <v>66.15459025651211</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>74.88279453429439</v>
+        <v>71.30154698006226</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.91044802351986</v>
+        <v>10.57835037593095</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>67.66627271638049</v>
+        <v>63.60808761719321</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>70.97161909938029</v>
+        <v>66.23352324076089</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.24650070017051</v>
+        <v>13.21093465425751</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.76111811469514</v>
+        <v>34.37901063590616</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.98816421222394</v>
+        <v>35.71555668122719</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.477642458272708</v>
+        <v>4.351810365401409</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.11123400900178</v>
+        <v>34.28074467256098</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.30402906690058</v>
+        <v>34.25860187296878</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.967256814333364</v>
+        <v>4.754615506613842</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.27009567591682</v>
+        <v>51.00443003779228</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>62.40725794509243</v>
+        <v>56.95871988536715</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>55.22313796884373</v>
+        <v>51.22838699087558</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>62.45333378703448</v>
+        <v>59.39642334429366</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>62.33480076544637</v>
+        <v>54.87810983345388</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.87409890624055</v>
+        <v>8.936077794618619</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>52.66191862306154</v>
+        <v>46.56222071431978</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>66.85828025449614</v>
+        <v>62.94814479164455</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.45415106392819</v>
+        <v>13.25907497512938</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.27942344132899</v>
+        <v>36.89452194617925</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.70011084250521</v>
+        <v>41.44137327700256</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.730907048161225</v>
+        <v>4.112769452621794</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>44.4031699993484</v>
+        <v>41.9914171378238</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>48.5714369896038</v>
+        <v>43.86232998903792</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3.426312072574831</v>
+        <v>4.556004515449771</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>66.03603157946598</v>
+        <v>60.79608946522696</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>73.61549178795909</v>
+        <v>64.48712899789066</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>79.63838658242717</v>
+        <v>72.31365415658701</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>84.32019153162224</v>
+        <v>76.0307259396499</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>89.67757398765492</v>
+        <v>81.38376952678071</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.224451528778328</v>
+        <v>4.24641769574027</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>79.43568177882588</v>
+        <v>71.0842936460937</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>85.10462419473704</v>
+        <v>77.87492506273961</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.68333280048189</v>
+        <v>14.9766211412303</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.26588885056163</v>
+        <v>18.08471999856014</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.99312478034702</v>
+        <v>17.53915176825199</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>1.796376680329583</v>
+        <v>5.367608005980067</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.9417730089387</v>
+        <v>18.36969471225834</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.19629787561757</v>
+        <v>19.14324798716086</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>4.876836342356974</v>
+        <v>8.509806402628165</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.12402508195894</v>
+        <v>26.01893851611101</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.39700004235844</v>
+        <v>28.3265647265091</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.77393652469195</v>
+        <v>28.11882464452531</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.26262971760003</v>
+        <v>32.0753484670204</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.79885828270854</v>
+        <v>35.12092635664882</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.30894552410093</v>
+        <v>18.63685398054379</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.48653491890332</v>
+        <v>23.4227640970316</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.82482290250362</v>
+        <v>24.94674942833175</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.35423657593321</v>
+        <v>11.0265130167856</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.77492809215396</v>
+        <v>30.12040663174329</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.79720688983157</v>
+        <v>35.18381133863778</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>6.762606234601801</v>
+        <v>4.651511855160226</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>31.55829205346386</v>
+        <v>30.95535079862024</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.50875621013622</v>
+        <v>38.31469966043817</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>7.987929126731117</v>
+        <v>5.470930044497639</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.10030637172782</v>
+        <v>47.56323074123024</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>59.99853953747282</v>
+        <v>58.43108198798109</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.18217181739201</v>
+        <v>47.05593819418974</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>55.26939100460929</v>
+        <v>53.11158753872026</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.31066968576449</v>
+        <v>56.12019194394436</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.00175421093674</v>
+        <v>10.20276091830921</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.42404544163206</v>
+        <v>49.4859865978439</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>61.61199196498785</v>
+        <v>59.00737455750506</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.3485999237212</v>
+        <v>18.22530468007855</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.90639285270422</v>
+        <v>38.0039636362085</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>46.65792444390213</v>
+        <v>44.90670666416982</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.511387470695343</v>
+        <v>6.633592671114915</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.55299178648205</v>
+        <v>41.04313108064443</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>52.02126094034504</v>
+        <v>47.59277412538208</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>16.97347263268408</v>
+        <v>12.50728290766728</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>67.61072471636868</v>
+        <v>61.15861469098381</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>76.51415948492864</v>
+        <v>69.57849344336068</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>74.09572320067704</v>
+        <v>65.3124331342575</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>75.06453301219534</v>
+        <v>67.2508932858461</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.65771306948947</v>
+        <v>79.60246285873285</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.85295660784166</v>
+        <v>26.49715998449378</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.52508531986564</v>
+        <v>64.31911983966448</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>87.64929786518228</v>
+        <v>75.54401918855909</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.11220755336721</v>
+        <v>14.31119767434677</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.52927006256613</v>
+        <v>16.94654109575179</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.44714967019478</v>
+        <v>18.47859299409637</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.4189888339774015</v>
+        <v>4.601598747986159</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.58235514701864</v>
+        <v>17.90709032544463</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.90405082071178</v>
+        <v>19.50220801501092</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2.93855760345259</v>
+        <v>8.179693606502685</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.01283920140202</v>
+        <v>26.10998218127168</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.79892553622467</v>
+        <v>29.97733332144004</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.11697836380329</v>
+        <v>40.00830778158829</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>52.90244525589627</v>
+        <v>48.87748940506057</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>60.34879620514072</v>
+        <v>55.17532907166176</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.29039799230482</v>
+        <v>16.85546447798321</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.94270723890163</v>
+        <v>29.18651073874939</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.31912369056982</v>
+        <v>31.34409738528345</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.539151434594391</v>
+        <v>6.397024743888224</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.49848768118978</v>
+        <v>14.71462847589966</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.17550658863201</v>
+        <v>34.46270771037136</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.124664296785525</v>
+        <v>4.540364689735934</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.39417813739131</v>
+        <v>12.66530844672019</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>57.91086320032612</v>
+        <v>55.14253221568275</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>0.2460437661629129</v>
+        <v>4.081626855195935</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>32.84606899464424</v>
+        <v>27.38528406940093</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>59.27749623343682</v>
+        <v>56.26341674959312</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.92755217202826</v>
+        <v>31.7526774041597</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>53.08037746857137</v>
+        <v>45.77055603281784</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>65.09454641267139</v>
+        <v>57.32042187350895</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.195603934201621</v>
+        <v>6.607572337733867</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>49.10403800669786</v>
+        <v>44.41915726581218</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>64.74672701727566</v>
+        <v>58.61991837334236</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.08505182950485</v>
+        <v>17.26164337086524</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.75817444496699</v>
+        <v>29.2469320460098</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.0210893290111</v>
+        <v>39.39077083815335</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.832917406427146</v>
+        <v>5.041354858408024</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.3368523649641</v>
+        <v>15.50892058545261</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.19488143482045</v>
+        <v>44.82958622607994</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.670659338385015</v>
+        <v>7.314265177964661</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.65103524129285</v>
+        <v>40.36617465153442</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>67.43383441368987</v>
+        <v>64.41976781197945</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>74.62142238307229</v>
+        <v>65.46632608821406</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>73.28145318845513</v>
+        <v>66.49060145648232</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>87.39150394428971</v>
+        <v>79.80377151355444</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>17.80642130251373</v>
+        <v>13.44799509067559</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>54.92070101875702</v>
+        <v>48.9356192316728</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>82.42052567935409</v>
+        <v>75.30202780542892</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.38552782725719</v>
+        <v>24.63112766347245</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>37.25054070109412</v>
+        <v>30.17064959236547</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.67865212341525</v>
+        <v>35.16421023939004</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.058165311999687</v>
+        <v>6.09947143191086</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.91417839057937</v>
+        <v>46.6728212590628</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.6264235289854</v>
+        <v>44.87704264299821</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.07292053578959</v>
+        <v>12.99558281223722</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>68.79058353181053</v>
+        <v>62.7234703252452</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>66.25479895724425</v>
+        <v>60.83035832213528</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.14643834540422</v>
+        <v>58.09164925328012</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>72.06535609372946</v>
+        <v>63.30691428118676</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>73.8733328619206</v>
+        <v>65.74674090802577</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.15780724348684</v>
+        <v>38.55893137546994</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>59.22280975633177</v>
+        <v>53.93460733865056</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>79.65634438729028</v>
+        <v>69.86959345468742</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.02094196682852</v>
+        <v>29.89365244918784</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.65141594447297</v>
+        <v>37.43691970606874</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.04314919068957</v>
+        <v>39.32045414861214</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.540289161647113</v>
+        <v>5.367657315273153</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>39.31753759177263</v>
+        <v>38.47449009603309</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>43.25382782289105</v>
+        <v>37.31748722128942</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.458835270858753</v>
+        <v>6.933113145066486</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.56630426449804</v>
+        <v>55.20142998937138</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.69757428938615</v>
+        <v>56.98462304142836</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.47025390081468</v>
+        <v>56.92926362830565</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>64.81490200597601</v>
+        <v>57.38686610237765</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>66.30819805781621</v>
+        <v>59.13661150930682</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>30.34927507491098</v>
+        <v>31.46028298963941</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>69.38057186582887</v>
+        <v>60.63742349756289</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>69.77039549235418</v>
+        <v>60.67668079605158</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.45116688645682</v>
+        <v>28.76361652512621</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>45.14129348536164</v>
+        <v>39.06591338588672</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.26525608600025</v>
+        <v>41.58902606514808</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.849201109949043</v>
+        <v>5.921115766468127</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>48.1019745776565</v>
+        <v>47.37658830018853</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.66471609222863</v>
+        <v>43.89375007124918</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>9.890375522304527</v>
+        <v>7.039469128379217</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>71.80332218994293</v>
+        <v>67.84500278803732</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.5127053363591</v>
+        <v>68.92689995358739</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>83.25658755926074</v>
+        <v>78.54951826093028</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>85.16842509465938</v>
+        <v>77.35695103371475</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>88.15661431648309</v>
+        <v>77.50112285233564</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>37.90693415054734</v>
+        <v>36.18154064815287</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>81.12230841969333</v>
+        <v>72.48038110840591</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>85.87969048078904</v>
+        <v>75.56998135085615</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.30792345456808</v>
+        <v>15.39702040775627</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.61915305180923</v>
+        <v>35.27016113435767</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.97859633485596</v>
+        <v>36.03716207127389</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.112305365527241</v>
+        <v>4.815137990948067</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>41.9131436849423</v>
+        <v>40.98651155454571</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.32140368351137</v>
+        <v>41.94032185460662</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>7.312367006296078</v>
+        <v>5.11266019589597</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>59.44157553265974</v>
+        <v>57.9397070797289</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.15859484888877</v>
+        <v>60.64605191928715</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>62.774817021334</v>
+        <v>59.12645388194696</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.58509687826511</v>
+        <v>68.20726948302296</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>74.09246037945614</v>
+        <v>66.40821063838762</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.02781589677639</v>
+        <v>10.4582018116852</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>65.08944523953424</v>
+        <v>61.14999540726532</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>71.82874263431022</v>
+        <v>66.06298141685039</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.43990580455575</v>
+        <v>13.65899364522953</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.13424399818238</v>
+        <v>34.02021468720007</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.60852375995208</v>
+        <v>35.50750656819882</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.868399662672566</v>
+        <v>4.637669097175767</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.4851464510016</v>
+        <v>33.63667261050906</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.47381799162533</v>
+        <v>34.96472672653871</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.243392890230595</v>
+        <v>4.883933537704095</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.53722422487664</v>
+        <v>48.88825751776652</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>65.85595639883381</v>
+        <v>56.6427949836829</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>58.88498066325248</v>
+        <v>54.88555196935779</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>65.98000820564005</v>
+        <v>57.36208630138453</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>64.82874928110112</v>
+        <v>57.6096210998101</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.63777764151957</v>
+        <v>9.387891296006135</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>68.50080398872883</v>
+        <v>59.65436054256133</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>69.14392602007057</v>
+        <v>61.3494210365734</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.03734673484597</v>
+        <v>12.91348147714715</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.92533910871749</v>
+        <v>36.18767350667934</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.70973649742272</v>
+        <v>42.42030207558029</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.56818972468216</v>
+        <v>4.332410887898032</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.4154061986479</v>
+        <v>42.20410586817158</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>49.62557444523766</v>
+        <v>44.63406437362325</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.023538601917526</v>
+        <v>4.669215739154978</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>64.72257938006277</v>
+        <v>58.84765659906382</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>74.23627390283062</v>
+        <v>67.59670331356176</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>76.58150947073423</v>
+        <v>68.7457048520366</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>82.7958193059885</v>
+        <v>71.68506560349995</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>89.66418844462541</v>
+        <v>79.49654454958286</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>11.67631986196584</v>
+        <v>9.265074368554018</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>74.16095678198117</v>
+        <v>65.9914382713545</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>82.99036652015349</v>
+        <v>75.86664573443939</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.488</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.57</v>
+        <v>19.376</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.909</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.666</v>
+        <v>10.057</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.957</v>
+        <v>0.974</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.74686840485503</v>
+        <v>17.58373925576739</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.12098849652282</v>
+        <v>20.55936689511472</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.62267318966711</v>
+        <v>19.29151721040585</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.79539558224355</v>
+        <v>7.690153875661426</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.29300356763871</v>
+        <v>19.59971655534493</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.17403504894489</v>
+        <v>22.95908914291208</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.442336119618879</v>
+        <v>11.02496449165839</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.90927385543672</v>
+        <v>28.57379221787217</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.62243787312507</v>
+        <v>28.50670976806245</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.79917058058591</v>
+        <v>29.02013064623662</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.19580612106158</v>
+        <v>33.69243703961212</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.90017489986079</v>
+        <v>34.43335906900979</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.83266594167944</v>
+        <v>14.8769767718512</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.22072969406564</v>
+        <v>26.17769955535113</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.7894269101063</v>
+        <v>27.65148162555026</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.55393453848466</v>
+        <v>18.34393780906201</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35.78564111967774</v>
+        <v>35.50951459714308</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>40.67963550095257</v>
+        <v>39.78357597499797</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.690458997613781</v>
+        <v>7.745464719385684</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.208901804826</v>
+        <v>30.0862317414247</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40.99615718841264</v>
+        <v>39.2473270303254</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.866609788050223</v>
+        <v>9.059776085979173</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>55.43133989553112</v>
+        <v>52.5482056703881</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>69.5694094812531</v>
+        <v>64.59943329596005</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>56.04339621057511</v>
+        <v>53.3261266204033</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>67.45747535962346</v>
+        <v>63.8049220172645</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>72.9530169347905</v>
+        <v>67.24915093857719</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.54247761248285</v>
+        <v>17.23558350572858</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>72.83919647074093</v>
+        <v>67.60098954293841</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>78.98614190518225</v>
+        <v>72.97280273793972</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.14667688898063</v>
+        <v>27.67871718535323</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.4771199814317</v>
+        <v>44.74460844954154</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.58097157934428</v>
+        <v>46.69002137203802</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.794983112720413</v>
+        <v>9.379543570355782</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.96139882869136</v>
+        <v>35.68157010146804</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50.76900682392757</v>
+        <v>47.77499817933784</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.76587662273086</v>
+        <v>16.64900597502892</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>73.56156172899404</v>
+        <v>67.92675131796597</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>75.08672547640174</v>
+        <v>69.31595320215686</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>78.71671355705229</v>
+        <v>72.46354528363781</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>87.05981271493002</v>
+        <v>79.12137531745981</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>91.24491580925365</v>
+        <v>83.72882262219201</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.79876799055425</v>
+        <v>32.36623151932073</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>91.7266878071291</v>
+        <v>83.82374622819083</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>92.59265092333185</v>
+        <v>84.56821649615576</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.434322489135255</v>
+        <v>11.38251229843257</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.54544785409119</v>
+        <v>42.40520023208206</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.44718644313257</v>
+        <v>41.42112273413287</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.517412657822593</v>
+        <v>7.419399814438606</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.5346574093581</v>
+        <v>39.93396540229546</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47.56300199008462</v>
+        <v>45.6942904089243</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.069571377077466</v>
+        <v>7.976199593235563</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>64.96102544134928</v>
+        <v>61.47386192175173</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>64.42973325893718</v>
+        <v>59.44836262575816</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>60.60924540318927</v>
+        <v>57.08448357695372</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>62.50359991226858</v>
+        <v>58.29711105313345</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>63.96113484081305</v>
+        <v>58.87500932451348</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.482635239849088</v>
+        <v>11.86196306463131</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>61.39694106055308</v>
+        <v>57.8327863816611</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>65.88711351520787</v>
+        <v>62.06769531290538</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.02959434460381</v>
+        <v>12.54791065492161</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41.5515788596803</v>
+        <v>40.55905283076562</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.01424687110423</v>
+        <v>42.19047068679099</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.538542834731768</v>
+        <v>7.345523093843251</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>34.94711544211573</v>
+        <v>33.08243951059762</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43.29595995168932</v>
+        <v>41.02792625527788</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.91914240514545</v>
+        <v>7.718515516262602</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>60.34427552924254</v>
+        <v>57.04919826972925</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>76.354233598702</v>
+        <v>70.7043229231395</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>58.92935997675503</v>
+        <v>55.89493847367139</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>70.62924800633485</v>
+        <v>66.28582754146616</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>75.78554572266435</v>
+        <v>70.95868371957155</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.001083769199642</v>
+        <v>9.55445929950287</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>71.5944231253178</v>
+        <v>66.57607776401908</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>77.09184321524876</v>
+        <v>71.46694343992041</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.833192772236394</v>
+        <v>12.56732968281962</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>47.48573880810343</v>
+        <v>45.80459574562389</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.04703191372252</v>
+        <v>47.07986942651134</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4.481359128743968</v>
+        <v>7.345600877355583</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.15377844939933</v>
+        <v>43.20065488299143</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>53.32207014910954</v>
+        <v>49.71177932191013</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.731490276575354</v>
+        <v>7.840817687112949</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>75.63294528644387</v>
+        <v>70.49300927468799</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>79.90003675128331</v>
+        <v>73.64461298659856</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>81.45487155398044</v>
+        <v>75.06128636534361</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>90.2209844586128</v>
+        <v>83.42763872449002</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>92.25473526423204</v>
+        <v>85.35214263164252</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.661537858828041</v>
+        <v>10.3858673577856</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>86.42840563732838</v>
+        <v>79.52165125698937</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>88.99866699890165</v>
+        <v>82.00408692923787</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.35692370148534</v>
+        <v>35.20970719319725</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.89752763548542</v>
+        <v>39.80603462337866</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>42.88347389470218</v>
+        <v>40.4630829762847</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5.191166975995753</v>
+        <v>7.975294056204149</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.28459506862261</v>
+        <v>42.37536017649749</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.93030480282466</v>
+        <v>42.90354307158672</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.835880892675483</v>
+        <v>9.494705871526612</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>68.45328157095011</v>
+        <v>64.23342055083795</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.97331484122847</v>
+        <v>58.87220258443749</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>57.86573658979471</v>
+        <v>53.05451044990335</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>72.34837081247724</v>
+        <v>67.14165771139338</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>70.62030786880281</v>
+        <v>65.53660240637913</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.99527150258416</v>
+        <v>29.53572990438088</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>62.14974379120206</v>
+        <v>58.26871030659827</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>62.74944231203754</v>
+        <v>58.94119562487178</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.41460265943447</v>
+        <v>27.96827962074771</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.28061884082791</v>
+        <v>40.81622360389753</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.27148510017157</v>
+        <v>42.31251605110594</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.032356730259625</v>
+        <v>7.799205725616908</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.4972672116826</v>
+        <v>37.86821360723056</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.26075776905743</v>
+        <v>41.41694066229601</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.418002069549441</v>
+        <v>9.154440928458992</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>66.8796623480205</v>
+        <v>62.69003334739793</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>77.02914499355396</v>
+        <v>71.43224645264149</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>63.78072464391285</v>
+        <v>59.68592763715844</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>75.18946275019051</v>
+        <v>70.27147201961604</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>76.33197243201555</v>
+        <v>71.42284346952292</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23442462314238</v>
+        <v>29.48590528349483</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>72.0228138697226</v>
+        <v>66.88681294177698</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>74.83883336255479</v>
+        <v>69.61976725651206</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.2287050079053</v>
+        <v>34.88292732396528</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>49.7607330140912</v>
+        <v>46.3343418353723</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.55354578898145</v>
+        <v>46.40899032367639</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5.358253240461199</v>
+        <v>8.135322452847021</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>50.4030466858461</v>
+        <v>46.35565675827151</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>50.79537540196574</v>
+        <v>47.38839388958155</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.688093456278903</v>
+        <v>10.30742933379215</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>76.44407544750058</v>
+        <v>69.66171066877781</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.8103738683206</v>
+        <v>69.28693400634786</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>81.96181292639805</v>
+        <v>74.45727510761962</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>85.54568134892843</v>
+        <v>78.88584044795456</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>89.45013680104957</v>
+        <v>81.18077022956399</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.66699222764513</v>
+        <v>36.07512781771088</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>85.9207997757033</v>
+        <v>78.53512653924264</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>86.30388721599404</v>
+        <v>79.60647005286276</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.64002215202839</v>
+        <v>17.51474318734664</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.02621169428149</v>
+        <v>21.36813077120766</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.38958962420146</v>
+        <v>21.88498486388736</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.329571548727206</v>
+        <v>8.943966601802167</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.00866448929297</v>
+        <v>20.17057839032181</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.88823925471561</v>
+        <v>22.71983929604527</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>8.875766413451906</v>
+        <v>12.26161540232746</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.03456878058416</v>
+        <v>28.2401417098512</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.56502565018247</v>
+        <v>28.97249034375333</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>30.39455537953691</v>
+        <v>30.35749908172487</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.11530034103846</v>
+        <v>32.85838797118039</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.10407075170767</v>
+        <v>37.22409357263783</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.79439691187945</v>
+        <v>60.37199028510405</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>68.02047263899706</v>
+        <v>64.14484569092217</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.92499501821786</v>
+        <v>61.44611707190027</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.34742988517479</v>
+        <v>15.50969123521677</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>39.38966121747058</v>
+        <v>38.6711441145402</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.57074907698245</v>
+        <v>42.14117208831247</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.829108894075173</v>
+        <v>7.730910454744642</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>39.79166802269787</v>
+        <v>38.55900860305345</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.49860569782478</v>
+        <v>49.35481922021519</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.89381622646802</v>
+        <v>18.52454223962165</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>60.55093400014323</v>
+        <v>56.9752358190164</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>72.64991593521326</v>
+        <v>67.12871284268535</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>54.96785422412558</v>
+        <v>52.38504774145562</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.45336147422753</v>
+        <v>61.20364196642285</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>72.06338464000393</v>
+        <v>67.58716772055043</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.27269940473205</v>
+        <v>16.03821013202491</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>67.71942565576396</v>
+        <v>63.05163959103962</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>74.60895541267404</v>
+        <v>69.10127535921416</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.05940578285162</v>
+        <v>26.71499588906799</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>47.58643369988809</v>
+        <v>45.63507484932305</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>49.32646535572829</v>
+        <v>47.08314292629278</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.48177252962034</v>
+        <v>9.9307438013685</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.31678360744941</v>
+        <v>42.40955631707899</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>53.31163306606027</v>
+        <v>50.16601943797749</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>17.01294645021367</v>
+        <v>18.82301790400013</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>70.06548693895418</v>
+        <v>65.2062302131224</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>75.92220133060519</v>
+        <v>70.20371909390164</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>74.89520531545426</v>
+        <v>69.599304980143</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.74831823655859</v>
+        <v>75.06022127224605</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>90.29474041665188</v>
+        <v>83.11471111383968</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.22454290013465</v>
+        <v>35.27176740365065</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>84.13035051067672</v>
+        <v>77.51869972434176</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>86.56800154810861</v>
+        <v>79.54848867391908</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.21564412421579</v>
+        <v>28.47870960279549</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>48.21645162077088</v>
+        <v>45.64493102492227</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>44.11817540919081</v>
+        <v>41.78842660398834</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.505890451469192</v>
+        <v>8.284466234898836</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.36333033778677</v>
+        <v>47.55450575727814</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>52.86644332858056</v>
+        <v>49.83110923519301</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.334979063538761</v>
+        <v>10.91324963237219</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>77.80186812816221</v>
+        <v>72.39370052882104</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>67.67582565726424</v>
+        <v>63.43648514894847</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>56.8689451688338</v>
+        <v>52.94718051308031</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>72.43047022880643</v>
+        <v>66.67048497387715</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>74.99971444567947</v>
+        <v>68.82495539114652</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.4931066827338</v>
+        <v>20.13015953698001</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5.141643841674181</v>
+        <v>8.281955115875935</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>5.382117163307818</v>
+        <v>8.554083571776459</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.50415433014147</v>
+        <v>35.08059258152781</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>50.15731310088761</v>
+        <v>47.98318428289645</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>47.23859391665771</v>
+        <v>45.42203642457879</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5.445726897691046</v>
+        <v>8.166011969260033</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>44.84530035511902</v>
+        <v>42.58799574820085</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>51.4218647592194</v>
+        <v>47.21260541773336</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.9517793071685</v>
+        <v>18.10636605418635</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>72.72037610144199</v>
+        <v>67.69746791502195</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>75.51705541140169</v>
+        <v>70.06320633480114</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>72.06849381208434</v>
+        <v>67.21713563904044</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>77.1953887675941</v>
+        <v>71.02083430512566</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>80.90536895392549</v>
+        <v>75.20510900647602</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.69678687170803</v>
+        <v>42.99498556861811</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>80.41646178781039</v>
+        <v>74.38293843477186</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.52829897989346</v>
+        <v>38.71983914668104</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.17781820361018</v>
+        <v>47.87756118003932</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.28829884515682</v>
+        <v>47.95538735272335</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>5.732980627001503</v>
+        <v>8.407161233026027</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.41522771789437</v>
+        <v>47.56959643868977</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.88871430821767</v>
+        <v>47.32549807058744</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>9.563461293392461</v>
+        <v>11.9484964442124</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>78.18861431986593</v>
+        <v>72.35091424152897</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>76.58434800511696</v>
+        <v>70.34418988712066</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>84.11073556576247</v>
+        <v>76.16666889814175</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>87.02929132867555</v>
+        <v>79.27302676716302</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>90.39692393213079</v>
+        <v>81.94734684801006</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>56.05961580233419</v>
+        <v>52.92119395491579</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>90.07979398448931</v>
+        <v>82.62445636319488</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>89.18123843517179</v>
+        <v>80.65520783766402</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.309290416829</v>
+        <v>26.03557210123</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.19714675744834</v>
+        <v>38.26486008254233</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40.90180580069112</v>
+        <v>38.84031358004362</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.794121588354407</v>
+        <v>7.582010713161665</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.41212599266107</v>
+        <v>43.58110898216968</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.80831313211358</v>
+        <v>46.66938712069469</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>7.119046704719583</v>
+        <v>9.715570768997441</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>71.74562799360737</v>
+        <v>67.24388152311188</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.8832861767481</v>
+        <v>62.06939016929162</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.31805480373391</v>
+        <v>55.10408653715396</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>67.34883908867774</v>
+        <v>62.16105795675352</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>69.02088948514597</v>
+        <v>63.51237649096531</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>17.27810067825929</v>
+        <v>19.23309168346729</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4.16601339746229</v>
+        <v>7.369207084637424</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3.759084034344237</v>
+        <v>7.088208767082993</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.35873861046676</v>
+        <v>28.82443442516081</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>49.45453147381232</v>
+        <v>46.3454810728527</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50.03108988525754</v>
+        <v>47.47995225105806</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5.011444930811216</v>
+        <v>7.833766572854625</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.29760903643064</v>
+        <v>40.4836405068156</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>50.34163777051089</v>
+        <v>48.00428295452596</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.725627598344854</v>
+        <v>9.337682821103034</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>73.52479676805831</v>
+        <v>68.73302183668213</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>76.61546798251354</v>
+        <v>71.28470281063825</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>63.90363637450444</v>
+        <v>60.38437735872303</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>76.12559760332174</v>
+        <v>71.01346334030355</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>80.99213669240035</v>
+        <v>75.54439172250096</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.11847863323164</v>
+        <v>27.43097225538167</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>80.33809233524198</v>
+        <v>74.41133663861896</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>82.37957365138979</v>
+        <v>76.30574569749321</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.45991493829325</v>
+        <v>29.87255943978441</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50.48325319966678</v>
+        <v>44.27652812517177</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.49503426093042</v>
+        <v>46.49552349968801</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>5.267490089844944</v>
+        <v>8.013618560619104</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>46.02244508298642</v>
+        <v>42.58465488772367</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.49727679376743</v>
+        <v>45.91350544087017</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7.285070403650238</v>
+        <v>9.91594430193264</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>74.92686859410786</v>
+        <v>69.64676395906953</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>74.72290216946362</v>
+        <v>69.87698877677823</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>80.20679468673286</v>
+        <v>74.23541052510484</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>85.02279108628812</v>
+        <v>78.9638081861372</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>85.88048557749069</v>
+        <v>79.67603470937935</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.92678875200073</v>
+        <v>27.70708373432761</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>86.19296088642228</v>
+        <v>79.41762916915968</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>87.12285295457183</v>
+        <v>80.40736714000587</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.58708748300642</v>
+        <v>13.41527439639955</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.96091296360456</v>
+        <v>16.12293314958065</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.77371807599179</v>
+        <v>15.03048570288897</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>4.750478647249672</v>
+        <v>8.911181083888689</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.19917548581824</v>
+        <v>18.85079583956949</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.32756540272157</v>
+        <v>19.85624823816822</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5.794081488481712</v>
+        <v>9.081011625920979</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.1073481487223</v>
+        <v>21.39273696231896</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.26807355215834</v>
+        <v>22.35050579440233</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.77024322882995</v>
+        <v>28.03161982218233</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>34.50745198828003</v>
+        <v>34.08310830707284</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.78335992755963</v>
+        <v>36.00117999870349</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.28871733903246</v>
+        <v>14.94912465585068</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.25361344454554</v>
+        <v>21.49678739701152</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>20.95042281341783</v>
+        <v>22.39318133077597</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.73621860736109</v>
+        <v>14.09540628331708</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.60426101409596</v>
+        <v>30.21255688021271</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>35.70461823964136</v>
+        <v>34.76674595477635</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.659238443857578</v>
+        <v>7.536425374273865</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.97949125398902</v>
+        <v>30.81244480766702</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.14975506294091</v>
+        <v>38.81209554770057</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>5.154367412834201</v>
+        <v>8.020420989548768</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>46.63927198607348</v>
+        <v>44.80438510491996</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.99410616270283</v>
+        <v>50.97849899019024</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.62944535162669</v>
+        <v>44.90541147608839</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>54.47081609957078</v>
+        <v>52.08014469535963</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>56.08807449948586</v>
+        <v>53.14665119879126</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.17389429988625</v>
+        <v>15.22066764331862</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>51.84737635637552</v>
+        <v>49.2838133767731</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.70214247668734</v>
+        <v>49.65050812924429</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.7919968112524</v>
+        <v>22.04609267285075</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>35.49273659515632</v>
+        <v>34.10224989009954</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.23561716165618</v>
+        <v>42.94187904043578</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>5.218685937489003</v>
+        <v>7.973199331591939</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.74166207443153</v>
+        <v>41.6809714810213</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>51.35214347061356</v>
+        <v>48.41575317035205</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>8.588928471522145</v>
+        <v>11.03597242400536</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>65.4467686508894</v>
+        <v>60.86966841837123</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>66.19771762748239</v>
+        <v>61.68652021338963</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.10134701469096</v>
+        <v>64.27773879551791</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>77.929853616109</v>
+        <v>71.16246266257066</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.35033061493603</v>
+        <v>71.52255012755057</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.17380851541552</v>
+        <v>32.8758880283228</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>78.15693261913327</v>
+        <v>71.96764724295026</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>83.72265863641762</v>
+        <v>76.96222023176044</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.05783693070366</v>
+        <v>13.4149706585155</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.76147860013923</v>
+        <v>15.88317612623473</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.06332431248753</v>
+        <v>14.29392914045316</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>3.219685486630418</v>
+        <v>7.509844779387102</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>14.46874380987004</v>
+        <v>16.23618322199043</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>18.69592488259061</v>
+        <v>19.984088686497</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5.883173304194781</v>
+        <v>8.677725696573322</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>15.92914981028995</v>
+        <v>17.65625384631023</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>15.78611911966787</v>
+        <v>17.4506699559008</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.87507444135837</v>
+        <v>20.41305271878991</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>20.31236875893394</v>
+        <v>21.60228953672295</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>18.63758361814181</v>
+        <v>20.13349565622697</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.04223133001817</v>
+        <v>14.99866935243629</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.04441098594792</v>
+        <v>17.28917083971587</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.59967751585843</v>
+        <v>15.6218745661931</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.18229705762695</v>
+        <v>7.27230731698641</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.918679573527132</v>
+        <v>11.49461770691179</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>11.8121248214913</v>
+        <v>14.28112741249321</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>2.544066679665711</v>
+        <v>6.618295783967131</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>9.772714350710551</v>
+        <v>11.97224278179002</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>16.10246375391599</v>
+        <v>17.95519405265826</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2.544117951071982</v>
+        <v>6.667879812479153</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.51005609767575</v>
+        <v>16.15597376093709</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.12187643643576</v>
+        <v>28.88889965414864</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.44891439597149</v>
+        <v>13.09594575617419</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.16418829008818</v>
+        <v>30.86621260150444</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.48852202516346</v>
+        <v>41.87793599258721</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.949758620351975</v>
+        <v>7.345654926291154</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.14800727891877</v>
+        <v>20.41976010369054</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.28380079559545</v>
+        <v>17.04682675098232</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>4.603580583071707</v>
+        <v>7.666567382262944</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.24296265893982</v>
+        <v>16.02533381501038</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.93736176256939</v>
+        <v>34.15004557054054</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>2.544625521794757</v>
+        <v>7.34535953545268</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.47893673718743</v>
+        <v>17.0393497121107</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.03978510046474</v>
+        <v>34.55323988984428</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>2.657808061020059</v>
+        <v>7.369915727817371</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.27863142818744</v>
+        <v>24.78804149504346</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.12473763721076</v>
+        <v>61.07469116734674</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.26183844896829</v>
+        <v>18.62723023397734</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>53.3323654304573</v>
+        <v>51.24527488260819</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>75.35722849690093</v>
+        <v>70.14824120304304</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>4.063903252284867</v>
+        <v>7.399385781236223</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>39.24886874330248</v>
+        <v>38.30984849954002</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>47.33578964283416</v>
+        <v>44.8600420076458</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.81741746788177</v>
+        <v>20.49968691904456</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.981505937676</v>
+        <v>23.11552504334882</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>35.87277502956626</v>
+        <v>35.615582394183</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.797427253976231</v>
+        <v>8.593679401594802</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>44.33909929643475</v>
+        <v>42.53633138467941</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>46.29184372580652</v>
+        <v>43.17334870714878</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.73533323374772</v>
+        <v>15.8361148236095</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>65.38231860363584</v>
+        <v>61.47934368151888</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.07941110488608</v>
+        <v>60.70279380463551</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>62.07348248941999</v>
+        <v>57.86739829451462</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>73.27473280772548</v>
+        <v>67.78969390056244</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>69.75476479478436</v>
+        <v>64.58224795401172</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.99818497318098</v>
+        <v>42.70145666724417</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>61.9677987097171</v>
+        <v>58.60177546836659</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>71.49919280367247</v>
+        <v>66.2893646119693</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.30000492521762</v>
+        <v>24.38547702831238</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.71432812582196</v>
+        <v>34.39491664947654</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.31491376253099</v>
+        <v>35.91926120403047</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.262300959984927</v>
+        <v>7.994676361928185</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.86596659512666</v>
+        <v>36.00700436611652</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>38.65198045052379</v>
+        <v>37.30011423512663</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.802897712921023</v>
+        <v>10.29518774476861</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>55.56415695752351</v>
+        <v>52.75427891644999</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>58.21139815437922</v>
+        <v>53.32121753152956</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>50.05554084111481</v>
+        <v>48.02741220728301</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.45004540642985</v>
+        <v>54.13321426182318</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.62884827910366</v>
+        <v>53.67791171512016</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.93866786515669</v>
+        <v>32.06634231724539</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>60.25547842890255</v>
+        <v>56.60475351597056</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>59.90602997076378</v>
+        <v>54.86503400708115</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.02282941895875</v>
+        <v>25.77765858401318</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.63107965050646</v>
+        <v>35.07062307896994</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.86977643202804</v>
+        <v>42.45084192581448</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.626158464888604</v>
+        <v>8.313075618042102</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.79621780170224</v>
+        <v>46.28799048249896</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.13685638129114</v>
+        <v>47.30167555820985</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.592894800487947</v>
+        <v>11.0815005237292</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>69.54292233587465</v>
+        <v>64.83508954775704</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>71.43110956047852</v>
+        <v>66.22777838293291</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>72.34795409017715</v>
+        <v>67.20538479130974</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>78.07407550433045</v>
+        <v>71.29710563926774</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.75309373037962</v>
+        <v>73.29242593386255</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.79060430454533</v>
+        <v>36.23425313453278</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>77.11393313109608</v>
+        <v>70.29665556388527</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>81.10802135658523</v>
+        <v>75.06721256030953</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.582298317070183</v>
+        <v>13.34123456049988</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.42924299634757</v>
+        <v>14.57128797618094</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.92481478620951</v>
+        <v>15.54761775614223</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3.766116906903605</v>
+        <v>8.461853847287429</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>11.42292098059552</v>
+        <v>13.86966040719593</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.08407521733663</v>
+        <v>17.44332649628955</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.397982688351171</v>
+        <v>9.982369270113107</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>17.84297350925301</v>
+        <v>19.30858667063438</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.55182894249332</v>
+        <v>20.78196079362811</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.9655598161998</v>
+        <v>20.19057063610516</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>23.2202981016231</v>
+        <v>24.01403268485978</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.29585341313437</v>
+        <v>26.23137223027932</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.664779464431245</v>
+        <v>12.82097479192714</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>16.76138106321084</v>
+        <v>18.20572026778661</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.35781124786838</v>
+        <v>19.64328939478716</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.747351969889802</v>
+        <v>9.977813783114186</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.2284312408247</v>
+        <v>23.42977666426881</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.62688191617207</v>
+        <v>27.90059683952083</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.064073883372966</v>
+        <v>7.345600363156233</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.2843702064234</v>
+        <v>22.88564552630928</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.84664577782417</v>
+        <v>32.29858009464992</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.400825059242642</v>
+        <v>7.665008151849307</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.76600448724098</v>
+        <v>37.01303075869456</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>47.01491967337495</v>
+        <v>44.75335662672671</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.40960640648839</v>
+        <v>30.33117178442549</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>41.48286697097946</v>
+        <v>40.71260486530694</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>46.33890915407596</v>
+        <v>44.94401399285636</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>6.470840451671528</v>
+        <v>9.507484968437211</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>38.55934070277908</v>
+        <v>37.53952351480884</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>44.64874026820057</v>
+        <v>42.77447657185273</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>15.48683051278918</v>
+        <v>17.22926197230843</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>30.99918811691987</v>
+        <v>30.25172147636924</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.89208520579409</v>
+        <v>41.25675364348879</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>7.96357845675756</v>
+        <v>10.37100282953511</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.5333948298072</v>
+        <v>30.21192490313998</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>41.52940067337781</v>
+        <v>39.77959781427202</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.09306880601689</v>
+        <v>17.84458737536752</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>50.79128594326701</v>
+        <v>48.2546775829677</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>61.56237810929184</v>
+        <v>57.28450232100487</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>54.01066815393051</v>
+        <v>51.01628194975126</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>67.92698488147199</v>
+        <v>63.65495328293325</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>80.28824443772812</v>
+        <v>74.02621109631674</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.71768411119177</v>
+        <v>25.26243023659346</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>62.86940497707577</v>
+        <v>58.916479875376</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>71.79907818213405</v>
+        <v>66.46037485750607</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.040760088412853</v>
+        <v>7.294246581432009</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.523666744271289</v>
+        <v>7.337355669834682</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>6.844965496485958</v>
+        <v>9.315916506634075</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2.543719310064219</v>
+        <v>6.47683085736276</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>5.103570484620644</v>
+        <v>7.881308582732448</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.499834119252458</v>
+        <v>10.72764114099749</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.544321459381383</v>
+        <v>5.706695927286511</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.794374935463807</v>
+        <v>8.543984912561896</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.494098368670556</v>
+        <v>11.72392634987485</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>7.00807768238878</v>
+        <v>9.594334029132312</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.17013953775442</v>
+        <v>12.3898784087753</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.05299662642916</v>
+        <v>16.38382234980334</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>3.868175520918825</v>
+        <v>7.227853653834458</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.540333827513141</v>
+        <v>7.399532823165483</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.768620055572114</v>
+        <v>10.94522873242401</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.02892158755284</v>
+        <v>23.12867055241934</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>35.0355067282772</v>
+        <v>34.106798378156</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.83359541775951</v>
+        <v>35.26205959246528</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>4.924611608736594</v>
+        <v>7.758943750659412</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.5699842347551</v>
+        <v>34.72353766540162</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.06064541853293</v>
+        <v>37.80879501832453</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>6.232981621650442</v>
+        <v>8.999082379728769</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>52.58382785392214</v>
+        <v>50.05948501837516</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.45993426353543</v>
+        <v>52.81227562511509</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>53.88392572165148</v>
+        <v>51.20349816996132</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.70369601747512</v>
+        <v>52.25982449421682</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>57.00854799292773</v>
+        <v>54.20151585524127</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.6325576572114</v>
+        <v>24.82499575239904</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.0037965211376</v>
+        <v>53.46722513865162</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>58.38637069957595</v>
+        <v>54.26676769737622</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.93732630351293</v>
+        <v>26.57360852294255</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.09112519392708</v>
+        <v>38.88353316005988</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.1848854119561</v>
+        <v>45.15044332125126</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.217265309807306</v>
+        <v>7.970365825372404</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>49.64514408872917</v>
+        <v>46.9032192037521</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>53.63367093904132</v>
+        <v>50.55453326684038</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>6.685680032122406</v>
+        <v>9.349056957285445</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>70.70223293721305</v>
+        <v>65.53369214592166</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>70.95473298990586</v>
+        <v>66.29591940895791</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.99575603927968</v>
+        <v>72.01858529010252</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>83.33745057652055</v>
+        <v>75.86502859492458</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.95345749997928</v>
+        <v>78.1552318188577</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.81186374695617</v>
+        <v>28.03393684910819</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>83.04265843874867</v>
+        <v>76.22345240129879</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>79.80605921674785</v>
+        <v>73.6999253535557</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.62711265646129</v>
+        <v>16.46720117434018</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.88201222524782</v>
+        <v>18.90888570242361</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.35340158172843</v>
+        <v>18.97738509821412</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.0527874962401</v>
+        <v>8.557564760248241</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16.96253054148497</v>
+        <v>18.45283465400395</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.66468329600011</v>
+        <v>20.9149661107426</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.238729649947807</v>
+        <v>10.16634422361391</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.21969774821843</v>
+        <v>23.3147659259596</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.58295786234797</v>
+        <v>25.15326974886569</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.80073213532368</v>
+        <v>23.61696501814826</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.63357181800537</v>
+        <v>30.75318914293468</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.63219963578429</v>
+        <v>30.57304406156409</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.51811131362154</v>
+        <v>15.19121035443321</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.9324308718544</v>
+        <v>22.91766381506127</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.82875035186317</v>
+        <v>24.61963812265327</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.329971924582086</v>
+        <v>7.74352128810991</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>11.66736949157539</v>
+        <v>13.94789077686562</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.20326622150639</v>
+        <v>23.32087548190275</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2.611989421381832</v>
+        <v>7.345630458891133</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.566567981342693</v>
+        <v>11.80435568412838</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.38097027104777</v>
+        <v>25.05379945830541</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>2.63888861977194</v>
+        <v>7.241555439610966</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>15.38993537413338</v>
+        <v>17.00667008572297</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.78309198666213</v>
+        <v>37.40951807123657</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>13.60634190638536</v>
+        <v>15.62787311026775</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.67261234599752</v>
+        <v>28.97974258103357</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.60926506066981</v>
+        <v>36.15579232703361</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3.981772182322466</v>
+        <v>7.30628554169688</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.1540407380429</v>
+        <v>26.54977129110017</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.43754427145277</v>
+        <v>33.81454646360048</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.93953120065633</v>
+        <v>21.25881761086286</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.34047057127471</v>
+        <v>28.87093361361459</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.76061368099258</v>
+        <v>37.85215280657774</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.55063627112099</v>
+        <v>9.135811266880381</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.77826740441644</v>
+        <v>25.26849467542704</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.19088688030639</v>
+        <v>32.62233950782877</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.69995105412605</v>
+        <v>14.72270785204573</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>44.34864669407287</v>
+        <v>42.46977093531594</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.77877016663846</v>
+        <v>53.33212793797678</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.46619167034542</v>
+        <v>46.03584795409829</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>57.46715679661591</v>
+        <v>52.96702931466912</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>65.85587236881869</v>
+        <v>61.55063701110004</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>31.31400327654774</v>
+        <v>31.29442062585189</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>52.30887769635984</v>
+        <v>48.2549491812873</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>56.51832001536185</v>
+        <v>52.11271574095925</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>4.83843560938675</v>
+        <v>8.097747649359064</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.197889474577661</v>
+        <v>11.07102569909081</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.562060987763406</v>
+        <v>10.92852345450549</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.820899141734458</v>
+        <v>7.570077808960885</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.589586521616997</v>
+        <v>10.32954547594471</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.410564914654081</v>
+        <v>10.71774856559506</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>2.825370368579488</v>
+        <v>7.542482535328798</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.551487524125417</v>
+        <v>10.99106889334101</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.55433016164075</v>
+        <v>13.92249943374955</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.966758783777497</v>
+        <v>9.503658670583995</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.943092280113689</v>
+        <v>10.37160666661813</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.95996208874742</v>
+        <v>14.81424038867047</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.485050354508871</v>
+        <v>8.164413518802768</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.00889020630558</v>
+        <v>9.497605447811896</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.0692347718768</v>
+        <v>11.48873533301271</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.95836302049894</v>
+        <v>7.324730132549487</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.907169968443732</v>
+        <v>8.66438110392254</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>7.042915520346419</v>
+        <v>9.658588629724381</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>2.544293888991294</v>
+        <v>7.345724514067786</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.066004209513476</v>
+        <v>7.813166277554455</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.583704409251862</v>
+        <v>9.221988872998338</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.908623960445759</v>
+        <v>6.21807694395233</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.068593502345568</v>
+        <v>8.994183846297275</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.599130335377069</v>
+        <v>11.84832601830958</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.460451905904694</v>
+        <v>8.587279687747966</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.307936754087077</v>
+        <v>11.25525558697536</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.06196891876189</v>
+        <v>12.39339430781457</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.543906983062307</v>
+        <v>7.345716225224713</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.226543735057991</v>
+        <v>8.892970712335476</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>7.668261149313818</v>
+        <v>10.10290326150657</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.44048819810184</v>
+        <v>22.7948264875474</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.8813704423868</v>
+        <v>24.99596037004362</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.41785402281848</v>
+        <v>25.99481654001485</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>5.161007653786651</v>
+        <v>9.361699165951524</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.08975333382816</v>
+        <v>20.47200270405727</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.14301438423191</v>
+        <v>22.88644299597446</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.06598516847649</v>
+        <v>16.3022935146424</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>30.50343789503144</v>
+        <v>30.40006706013585</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.91501081447922</v>
+        <v>32.49295810365519</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.79155819372156</v>
+        <v>37.34897769011251</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>43.10103428163826</v>
+        <v>41.43240077110011</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>46.71029732144189</v>
+        <v>44.6363447157769</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.80374864674576</v>
+        <v>27.94822977128548</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.6266269098501</v>
+        <v>31.28269780921636</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.08778020446477</v>
+        <v>35.18301975733273</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.1497897130471</v>
+        <v>21.10588865129072</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.42835664011017</v>
+        <v>29.56747364885166</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.9581436739826</v>
+        <v>35.5862822537843</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.920671688739013</v>
+        <v>8.173261997277727</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.34739889341466</v>
+        <v>25.96720304206172</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.02872982093837</v>
+        <v>29.05937267874219</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>7.99432214291857</v>
+        <v>11.0675540142926</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>44.46874374762823</v>
+        <v>43.08546311812379</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.05621684696229</v>
+        <v>45.60744255013986</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.84029570187428</v>
+        <v>43.27964178056848</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>53.99124388427937</v>
+        <v>51.48518130338987</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>57.87416801482236</v>
+        <v>54.62740969233162</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>32.12806317150105</v>
+        <v>32.10447061798409</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>56.23924089690787</v>
+        <v>53.22240400676477</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>64.76641579039506</v>
+        <v>60.40380844308078</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>16.76663051150249</v>
+        <v>18.50791561088783</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.56657581001649</v>
+        <v>28.09735479562969</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>30.73731520995027</v>
+        <v>31.48574017503264</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.426442252352235</v>
+        <v>7.787508355682444</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.5635340990018</v>
+        <v>17.8681173126301</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.17822996821675</v>
+        <v>21.778640378326</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.616248267764981</v>
+        <v>9.852108457917165</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.27900932963323</v>
+        <v>32.64349134335838</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.92738598871285</v>
+        <v>34.85048117552306</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.12723902726314</v>
+        <v>33.61876954224637</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>42.18602981102877</v>
+        <v>41.1077222523098</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>41.48812787945708</v>
+        <v>40.12921321928102</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.87451147670657</v>
+        <v>24.80645812029065</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>46.3726849239348</v>
+        <v>44.03864658850418</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>49.27544875378128</v>
+        <v>46.52300850075436</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.83102244111313</v>
+        <v>26.92650632296066</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.44639152248948</v>
+        <v>35.8660753905527</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>46.84336206176589</v>
+        <v>44.75908517073549</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.015251581562215</v>
+        <v>8.652621410194655</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.61873481206622</v>
+        <v>32.80112106740467</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.72109123034094</v>
+        <v>36.27222719892693</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>11.65711002915122</v>
+        <v>14.67555371340274</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>58.90340531397983</v>
+        <v>55.14327384157427</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>61.53523567416412</v>
+        <v>57.2070252556625</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>70.60903307594083</v>
+        <v>65.39554471623119</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>75.97359451594846</v>
+        <v>70.44528381250026</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>79.66557748462412</v>
+        <v>73.50566008375871</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.8743722566876</v>
+        <v>37.9928821458229</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>67.75534246931021</v>
+        <v>62.94332028918691</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>73.72195316864358</v>
+        <v>66.78816150608179</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>20.39322560550845</v>
+        <v>21.94452178649313</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.79147798877517</v>
+        <v>33.35587121559428</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.13420424045903</v>
+        <v>37.06511779585492</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>6.71888668047837</v>
+        <v>9.400602435225224</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.97680683009941</v>
+        <v>39.72621947661091</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.98119882060023</v>
+        <v>40.00274189155005</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>10.79494187587924</v>
+        <v>14.39988309040689</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>58.49984500727199</v>
+        <v>54.48323280319541</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>61.13511125864613</v>
+        <v>57.88317000690976</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>67.41465624635815</v>
+        <v>62.9479772915181</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>69.06334973626984</v>
+        <v>63.4195392048066</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>71.07583137019861</v>
+        <v>66.34838482620202</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>23.10302667470083</v>
+        <v>24.26614542586957</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>64.08235152824956</v>
+        <v>59.81664436216327</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>67.15623895006432</v>
+        <v>62.84716034018241</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.42230394824255</v>
+        <v>20.02947051598528</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>33.37164237742519</v>
+        <v>33.27885659621358</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>39.78901089534128</v>
+        <v>37.70722588845778</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.728630057600611</v>
+        <v>7.557937844879227</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.05337501905544</v>
+        <v>33.52962993167801</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.64840541950803</v>
+        <v>35.68584632569998</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.524750578602404</v>
+        <v>8.298006415469235</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>50.55984167457162</v>
+        <v>48.30350313435046</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.99432284608467</v>
+        <v>57.23829623147999</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.17356409106112</v>
+        <v>49.01736236579054</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>58.94714817943375</v>
+        <v>56.21077924031639</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>54.04170936214603</v>
+        <v>50.01420087230633</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>18.22565070034477</v>
+        <v>19.68644990212724</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.11659748021575</v>
+        <v>53.70545196565371</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>64.72088819165556</v>
+        <v>60.49526264345621</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.56383372366385</v>
+        <v>21.83317191223518</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.14317289858498</v>
+        <v>35.6795885911523</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.82754974752714</v>
+        <v>41.56198848123812</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.821725853563304</v>
+        <v>7.595289663616313</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.56752159822032</v>
+        <v>41.59371981881391</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>44.56982151665613</v>
+        <v>42.26582232154122</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>5.602974219720004</v>
+        <v>8.358465450141015</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>61.06104276989018</v>
+        <v>57.3709446685196</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.69663158667629</v>
+        <v>61.38842795944702</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>72.65659187521716</v>
+        <v>67.52753949505819</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>76.1298623481847</v>
+        <v>69.66740431375601</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>81.97478578242391</v>
+        <v>74.89073785840951</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.0264756664663</v>
+        <v>21.26345029009789</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>72.51994919239644</v>
+        <v>67.30216102528213</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>77.92262356621872</v>
+        <v>70.9029618422759</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.52480326276307</v>
+        <v>25.5969805239596</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.56687006674272</v>
+        <v>29.86420985880562</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.1816291038583</v>
+        <v>34.77549834163044</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>5.324322856544384</v>
+        <v>8.144142173463639</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.58629887146905</v>
+        <v>41.65858893806988</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.25175756942389</v>
+        <v>42.55995523749222</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.739834163064913</v>
+        <v>12.56894246269037</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>60.46685687344774</v>
+        <v>57.27870671861582</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>61.12640401872635</v>
+        <v>57.410444061439</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.77316239851395</v>
+        <v>54.50903332445816</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>59.66937002700659</v>
+        <v>55.72633344249961</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>63.09000127387415</v>
+        <v>58.59867268266574</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.51449160399302</v>
+        <v>38.08804029682336</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>57.2050689381327</v>
+        <v>54.43899709062975</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>68.59677679751539</v>
+        <v>64.72346757585501</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.10353150500418</v>
+        <v>26.82691187804922</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.48688051097871</v>
+        <v>36.88564478763242</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.96414480634821</v>
+        <v>36.4583726619577</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.45699994687838</v>
+        <v>7.782996876931016</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.97028426704632</v>
+        <v>34.27833844340004</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.87643330162431</v>
+        <v>35.63410240762198</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>6.011371903693718</v>
+        <v>9.567112216596026</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>52.88316454498634</v>
+        <v>50.15895669553194</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>60.82084599135825</v>
+        <v>57.33932778758684</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>55.82050657560787</v>
+        <v>53.01803209501345</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>58.33148792293294</v>
+        <v>55.45674262245419</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>59.4036598456068</v>
+        <v>56.39045625621165</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.16194445116905</v>
+        <v>27.66620857147216</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>62.95217817480522</v>
+        <v>58.77911185595121</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>65.40496809622755</v>
+        <v>60.90912264522532</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.03687152947669</v>
+        <v>28.43791882424543</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>40.26778033682113</v>
+        <v>39.10540443207446</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.7479755718053</v>
+        <v>41.53754142939522</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.208147339353687</v>
+        <v>8.066345977239049</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.3198987404983</v>
+        <v>42.35314274310377</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.35545309012792</v>
+        <v>44.19092956163419</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.728077658291561</v>
+        <v>9.854438245445266</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>66.33370968146504</v>
+        <v>61.91765619643306</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>67.18799277671562</v>
+        <v>63.08845622229276</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>76.48600181579553</v>
+        <v>70.77116431380178</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>80.17890504132309</v>
+        <v>74.22844124289458</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>81.48801131132947</v>
+        <v>75.31461589812972</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.54372932768316</v>
+        <v>27.93595490423449</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>74.48918395035435</v>
+        <v>68.6397576195923</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>76.67847825887341</v>
+        <v>71.11323070307387</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.2384945638958</v>
+        <v>27.2390367906725</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.62020559093651</v>
+        <v>31.60491649898369</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>37.3869008197948</v>
+        <v>35.77223637941736</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>11.45021686484553</v>
+        <v>13.68878853300965</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>62.00545313415191</v>
+        <v>58.48085541818832</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>60.1507858680146</v>
+        <v>56.91896890639072</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>11.09981677209695</v>
+        <v>13.55137963124216</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>63.19242704999726</v>
+        <v>58.23151901697209</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>61.50114797058971</v>
+        <v>57.15971810858805</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>65.10053281638599</v>
+        <v>59.12663737843585</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>66.32341503364927</v>
+        <v>61.19976493630813</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>66.92029596783721</v>
+        <v>61.95047669237292</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>48.13943012220408</v>
+        <v>46.95885397144978</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>59.70148516590081</v>
+        <v>56.28434289951946</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>69.45678068520411</v>
+        <v>65.03072143454175</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.47717452498376</v>
+        <v>29.74169047470673</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>37.57785387832698</v>
+        <v>36.61648054141833</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.55575242323542</v>
+        <v>37.99095618139057</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.09131771482905</v>
+        <v>38.36482825143991</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>54.78417477771156</v>
+        <v>52.18290050040312</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.57679031023251</v>
+        <v>50.20087615996547</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>8.319808752946482</v>
+        <v>10.84331383628542</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>55.29537583001824</v>
+        <v>52.16903788344442</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>59.6131319572311</v>
+        <v>55.98938492309259</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>53.51119197616999</v>
+        <v>51.01000482457961</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>57.25029072396252</v>
+        <v>54.23508416242665</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.00637238363984</v>
+        <v>54.31097751549851</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.14800863187597</v>
+        <v>32.82048171699024</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>59.96344340325228</v>
+        <v>54.85496768185653</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>64.25564640660997</v>
+        <v>59.71159983202581</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.02909127716332</v>
+        <v>32.73485548908867</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.41060608256275</v>
+        <v>38.6485390625224</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.17767316181519</v>
+        <v>40.99778146692962</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.49323669394236</v>
+        <v>39.56714367687614</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>62.54621182148139</v>
+        <v>58.91770119470273</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>57.87758457704164</v>
+        <v>54.41684242537673</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>8.539710697695718</v>
+        <v>11.09870364478884</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>67.11490106024326</v>
+        <v>62.49829318478189</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>66.18165180745176</v>
+        <v>62.24251575783781</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>83.24155023399992</v>
+        <v>76.03392277068616</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>80.23900750513494</v>
+        <v>74.54484331871367</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>83.72435211642909</v>
+        <v>77.4209970999328</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.02698895298921</v>
+        <v>38.59812184159095</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>76.87946870861578</v>
+        <v>69.73474324604133</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>79.9811508116367</v>
+        <v>73.60064474110003</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.84966000542908</v>
+        <v>18.35035827765561</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.18741280850539</v>
+        <v>33.03646968823747</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>37.83869598242777</v>
+        <v>35.95354742246013</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.064024385219401</v>
+        <v>7.370157531213586</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.71917771140543</v>
+        <v>32.5982263682826</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>43.83150816946102</v>
+        <v>41.87946316926567</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>4.81272680548873</v>
+        <v>7.741997898411778</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>58.04082402248879</v>
+        <v>55.00020299863775</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.13589693195068</v>
+        <v>58.63464881426768</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>64.27936936587673</v>
+        <v>60.15602738223509</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>66.15459025651211</v>
+        <v>61.06780434498278</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>71.30154698006226</v>
+        <v>66.27755573967313</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.57835037593095</v>
+        <v>12.91523105459386</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>63.60808761719321</v>
+        <v>59.697512169243</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>66.23352324076089</v>
+        <v>61.76413154242893</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.21093465425751</v>
+        <v>15.24121975016622</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.37901063590616</v>
+        <v>33.97073179614712</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.71555668122719</v>
+        <v>34.61705455250915</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.351810365401409</v>
+        <v>7.345346953593484</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>34.28074467256098</v>
+        <v>34.12440387839962</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.25860187296878</v>
+        <v>33.47088823315246</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.754615506613842</v>
+        <v>7.85531886550779</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>51.00443003779228</v>
+        <v>48.61077394137075</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>56.95871988536715</v>
+        <v>53.58314509953787</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>51.22838699087558</v>
+        <v>49.36811769450058</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>59.39642334429366</v>
+        <v>56.34313169100172</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.87810983345388</v>
+        <v>51.25039414973136</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>8.936077794618619</v>
+        <v>11.76738367366481</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>46.56222071431978</v>
+        <v>45.15065658659381</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>62.94814479164455</v>
+        <v>58.8714276220793</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.25907497512938</v>
+        <v>15.22983928886128</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.89452194617925</v>
+        <v>36.17956536648386</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.44137327700256</v>
+        <v>39.45405215434477</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>4.112769452621794</v>
+        <v>7.347379232791777</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>41.9914171378238</v>
+        <v>40.44097780358927</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.86232998903792</v>
+        <v>41.85648353461986</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>4.556004515449771</v>
+        <v>7.831449393024435</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>60.79608946522696</v>
+        <v>57.18536969392605</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>64.48712899789066</v>
+        <v>59.49333959178577</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>72.31365415658701</v>
+        <v>67.48567941461788</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>76.0307259396499</v>
+        <v>69.34810759923133</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>81.38376952678071</v>
+        <v>75.43535001512736</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>4.24641769574027</v>
+        <v>7.607170350974641</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>71.0842936460937</v>
+        <v>65.96353046162082</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>77.87492506273961</v>
+        <v>70.72934910969337</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.9766211412303</v>
+        <v>17.23315867032629</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.08471999856014</v>
+        <v>19.80058354386428</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.53915176825199</v>
+        <v>19.16441147885604</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.367608005980067</v>
+        <v>8.824894016114694</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.36969471225834</v>
+        <v>19.91810399372045</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.14324798716086</v>
+        <v>20.29447030790274</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>8.509806402628165</v>
+        <v>12.4842920292059</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.01893851611101</v>
+        <v>26.54190342788092</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.3265647265091</v>
+        <v>28.23461901471103</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.11882464452531</v>
+        <v>28.22272752370358</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.0753484670204</v>
+        <v>31.78929820551179</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.12092635664882</v>
+        <v>34.44260604416566</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.63685398054379</v>
+        <v>20.21376265664183</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.4227640970316</v>
+        <v>24.51432772207692</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.94674942833175</v>
+        <v>25.5427063697893</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>11.0265130167856</v>
+        <v>13.38231464549734</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.12040663174329</v>
+        <v>30.38123157868796</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.18381133863778</v>
+        <v>33.7821437378213</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.651511855160226</v>
+        <v>7.436140442258822</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.95535079862024</v>
+        <v>30.740300852631</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>38.31469966043817</v>
+        <v>35.83400290000988</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>5.470930044497639</v>
+        <v>8.260116728892083</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>47.56323074123024</v>
+        <v>45.50159452707035</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>58.43108198798109</v>
+        <v>54.63753344080893</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.05593819418974</v>
+        <v>45.25505321039273</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>53.11158753872026</v>
+        <v>50.69454287396597</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.12019194394436</v>
+        <v>52.38441830543942</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>10.20276091830921</v>
+        <v>12.40791183414247</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.4859865978439</v>
+        <v>46.94767117885297</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>59.00737455750506</v>
+        <v>55.2204247773104</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.22530468007855</v>
+        <v>19.74005491325241</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.0039636362085</v>
+        <v>36.34318133853586</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.90670666416982</v>
+        <v>43.11391401635309</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.633592671114915</v>
+        <v>9.214326880552012</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.04313108064443</v>
+        <v>39.72311492717983</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.59277412538208</v>
+        <v>45.02825824298744</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>12.50728290766728</v>
+        <v>14.52112782626187</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>61.15861469098381</v>
+        <v>57.40373117140076</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.57849344336068</v>
+        <v>64.50267472111284</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.3124331342575</v>
+        <v>61.31549205586947</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.2508932858461</v>
+        <v>63.06767200078721</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.60246285873285</v>
+        <v>73.25350991340873</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.49715998449378</v>
+        <v>26.95199118456431</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.31911983966448</v>
+        <v>60.28677404994001</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>75.54401918855909</v>
+        <v>69.6548872442924</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>14.31119767434677</v>
+        <v>16.09847860418997</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.94654109575179</v>
+        <v>18.2266041001612</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>18.47859299409637</v>
+        <v>19.56378272314379</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>4.601598747986159</v>
+        <v>7.481954133485207</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.90709032544463</v>
+        <v>18.89114617462493</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.50220801501092</v>
+        <v>20.34352340888349</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>8.179693606502685</v>
+        <v>10.79274143254892</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.10998218127168</v>
+        <v>26.16723559668296</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.97733332144004</v>
+        <v>29.54375883291402</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.00830778158829</v>
+        <v>38.66647564633937</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>48.87748940506057</v>
+        <v>46.45992133151714</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>55.17532907166176</v>
+        <v>51.93715663309154</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.85546447798321</v>
+        <v>18.30310885176561</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.18651073874939</v>
+        <v>28.54417275496953</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.34409738528345</v>
+        <v>30.5396201575565</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>6.397024743888224</v>
+        <v>9.005385057553692</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>14.71462847589966</v>
+        <v>16.3266859573567</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.46270771037136</v>
+        <v>33.70225102815354</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.540364689735934</v>
+        <v>7.345333263984966</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.66530844672019</v>
+        <v>14.28913017814644</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>55.14253221568275</v>
+        <v>51.63782618414011</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>4.081626855195935</v>
+        <v>7.240873122917378</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.38528406940093</v>
+        <v>27.30137608456142</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>56.26341674959312</v>
+        <v>52.43442474891108</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.7526774041597</v>
+        <v>32.0160339472354</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.77055603281784</v>
+        <v>44.45600749993487</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>57.32042187350895</v>
+        <v>53.60646215706237</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>6.607572337733867</v>
+        <v>9.202097894122677</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>44.41915726581218</v>
+        <v>42.18565149048723</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>58.61991837334236</v>
+        <v>54.74337348034139</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.26164337086524</v>
+        <v>18.59907259933013</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.2469320460098</v>
+        <v>29.99742705147026</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.39077083815335</v>
+        <v>37.76014891591172</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>5.041354858408024</v>
+        <v>7.791177375786685</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.50892058545261</v>
+        <v>16.92799095800669</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.82958622607994</v>
+        <v>42.49235925135503</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>7.314265177964661</v>
+        <v>9.883949767437997</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>40.36617465153442</v>
+        <v>38.72875812745332</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>64.41976781197945</v>
+        <v>59.57152006233127</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>65.46632608821406</v>
+        <v>61.28664415597277</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>66.49060145648232</v>
+        <v>62.3840344584664</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>79.80377151355444</v>
+        <v>73.66175371285499</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>13.44799509067559</v>
+        <v>15.3219372876718</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.9356192316728</v>
+        <v>47.4916239588355</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>75.30202780542892</v>
+        <v>69.22060005346199</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.63112766347245</v>
+        <v>25.76649422197452</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.17064959236547</v>
+        <v>30.4339994496372</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.16421023939004</v>
+        <v>35.07363933579406</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>6.09947143191086</v>
+        <v>8.866976798859543</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>46.6728212590628</v>
+        <v>43.75428090592764</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.87704264299821</v>
+        <v>42.80476142796351</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>12.99558281223722</v>
+        <v>15.20087339801845</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>62.7234703252452</v>
+        <v>58.31416570492237</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.83035832213528</v>
+        <v>56.88765826003852</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>58.09164925328012</v>
+        <v>52.97930697181404</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>63.30691428118676</v>
+        <v>58.94893005988587</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>65.74674090802577</v>
+        <v>60.96339118422779</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>38.55893137546994</v>
+        <v>38.51609206110472</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>53.93460733865056</v>
+        <v>51.66586992092097</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>69.86959345468742</v>
+        <v>65.03129612606631</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.89365244918784</v>
+        <v>30.26204507054928</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>37.43691970606874</v>
+        <v>35.99369188293475</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>39.32045414861214</v>
+        <v>36.95211138788853</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>5.367657315273153</v>
+        <v>8.113343333404515</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.47449009603309</v>
+        <v>37.31808307510315</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.31748722128942</v>
+        <v>36.06536326007844</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>6.933113145066486</v>
+        <v>9.592847731559949</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>55.20142998937138</v>
+        <v>52.06409889569916</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>56.98462304142836</v>
+        <v>53.83536275686771</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>56.92926362830565</v>
+        <v>53.92191171911497</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>57.38686610237765</v>
+        <v>53.27605253925824</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>59.13661150930682</v>
+        <v>54.819683130009</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.46028298963941</v>
+        <v>31.41558261239974</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>60.63742349756289</v>
+        <v>55.74484062454889</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>60.67668079605158</v>
+        <v>55.96660494434559</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.76361652512621</v>
+        <v>29.17718169406065</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>39.06591338588672</v>
+        <v>37.68622706357735</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.58902606514808</v>
+        <v>40.11016208268089</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>5.921115766468127</v>
+        <v>8.59603479110536</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>47.37658830018853</v>
+        <v>45.02525502278555</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.89375007124918</v>
+        <v>40.92696436296968</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>7.039469128379217</v>
+        <v>9.709999926146125</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>67.84500278803732</v>
+        <v>63.22136312059563</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>68.92689995358739</v>
+        <v>64.2187697404155</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>78.54951826093028</v>
+        <v>72.55630638238375</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>77.35695103371475</v>
+        <v>71.74303183066361</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>77.50112285233564</v>
+        <v>70.6223751511515</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.18154064815287</v>
+        <v>35.5997357779414</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>72.48038110840591</v>
+        <v>67.04497944177794</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>75.56998135085615</v>
+        <v>69.82543417190956</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>15.39702040775627</v>
+        <v>17.23950402960062</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.27016113435767</v>
+        <v>34.84484546418103</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.03716207127389</v>
+        <v>34.43284634433866</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>4.815137990948067</v>
+        <v>7.643710194766079</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>40.98651155454571</v>
+        <v>39.53680849503485</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>41.94032185460662</v>
+        <v>40.10833671716239</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>5.11266019589597</v>
+        <v>7.922170328888399</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.9397070797289</v>
+        <v>54.61118393669236</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>60.64605191928715</v>
+        <v>57.02398728897146</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>59.12645388194696</v>
+        <v>55.51577074517746</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>68.20726948302296</v>
+        <v>63.56121450964268</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>66.40821063838762</v>
+        <v>61.62959829075587</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.4582018116852</v>
+        <v>12.73307951813283</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>61.14999540726532</v>
+        <v>57.4068908242854</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>66.06298141685039</v>
+        <v>61.46525914114223</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>13.65899364522953</v>
+        <v>15.69124229624429</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.02021468720007</v>
+        <v>33.3100727092632</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.50750656819882</v>
+        <v>34.98289170072851</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.637669097175767</v>
+        <v>7.503152106253516</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>33.63667261050906</v>
+        <v>33.11845768837621</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>34.96472672653871</v>
+        <v>33.57999231214387</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>4.883933537704095</v>
+        <v>7.94029125641676</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>48.88825751776652</v>
+        <v>46.80028469059909</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>56.6427949836829</v>
+        <v>52.73424143480963</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>54.88555196935779</v>
+        <v>52.25704965070837</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>57.36208630138453</v>
+        <v>53.33547516429729</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>57.6096210998101</v>
+        <v>53.38461137783484</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>9.387891296006135</v>
+        <v>11.73411345577608</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>59.65436054256133</v>
+        <v>54.84352999236749</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>61.3494210365734</v>
+        <v>56.27182603580312</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>12.91348147714715</v>
+        <v>15.09145728149804</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.18767350667934</v>
+        <v>35.03077777406233</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.42030207558029</v>
+        <v>40.0641727896515</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.332410887898032</v>
+        <v>7.586038982998392</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.20410586817158</v>
+        <v>40.67268490812096</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.63406437362325</v>
+        <v>41.21250471761147</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>4.669215739154978</v>
+        <v>7.944128797745361</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>58.84765659906382</v>
+        <v>55.49524384317236</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>67.59670331356176</v>
+        <v>63.0636797088796</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>68.7457048520366</v>
+        <v>64.34817429506592</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>71.68506560349995</v>
+        <v>66.87785478715983</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>79.49654454958286</v>
+        <v>72.55112573409262</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>9.265074368554018</v>
+        <v>12.07248540741763</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>65.9914382713545</v>
+        <v>61.6353261032482</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>75.86664573443939</v>
+        <v>69.96076549907359</v>
       </c>
     </row>
   </sheetData>
